--- a/trunk/docs/PM-1 Project Management/PM-1.4 Project Tracking/MTECH_Project_Management.xlsx
+++ b/trunk/docs/PM-1 Project Management/PM-1.4 Project Tracking/MTECH_Project_Management.xlsx
@@ -4,37 +4,42 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="21075" windowHeight="10035"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="21075" windowHeight="10035" tabRatio="396"/>
   </bookViews>
   <sheets>
-    <sheet name="Pending Tasks" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Task" sheetId="1" r:id="rId1"/>
+    <sheet name="Review" sheetId="2" r:id="rId2"/>
+    <sheet name="Bug" sheetId="3" r:id="rId3"/>
     <sheet name="VSTS_ValidationWS_1" sheetId="4" state="veryHidden" r:id="rId4"/>
+    <sheet name="Deliverables" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_1" hidden="1">'Pending Tasks'!$E$2:$E$20</definedName>
-    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_10005" hidden="1">'Pending Tasks'!$J$2:$J$20</definedName>
-    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_10009" hidden="1">'Pending Tasks'!$K$2:$K$20</definedName>
-    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_10017" hidden="1">'Pending Tasks'!$L$2:$L$20</definedName>
-    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_10028" hidden="1">'Pending Tasks'!$M$2:$M$20</definedName>
-    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_10029" hidden="1">'Pending Tasks'!$N$2:$N$20</definedName>
-    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_10030" hidden="1">'Pending Tasks'!$G$2:$G$20</definedName>
-    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_10031" hidden="1">'Pending Tasks'!$H$2:$H$20</definedName>
-    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_2" hidden="1">'Pending Tasks'!$I$2:$I$20</definedName>
-    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_24" hidden="1">'Pending Tasks'!$F$2:$F$20</definedName>
-    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_25" hidden="1">'Pending Tasks'!$B$2:$B$20</definedName>
-    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_n105" hidden="1">'Pending Tasks'!$C$2:$C$20</definedName>
-    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_n3" hidden="1">'Pending Tasks'!$A$2:$A$20</definedName>
-    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_n7" hidden="1">'Pending Tasks'!$D$2:$D$20</definedName>
+    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_1" hidden="1">Task!$E$2:$E$44</definedName>
+    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_10005" hidden="1">Task!$J$2:$J$44</definedName>
+    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_10007" hidden="1">Task!$P$2:$P$44</definedName>
+    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_10008" hidden="1">Task!$O$2:$O$44</definedName>
+    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_10009" hidden="1">Task!$K$2:$K$44</definedName>
+    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_10017" hidden="1">Task!$L$2:$L$44</definedName>
+    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_10028" hidden="1">Task!$M$2:$M$44</definedName>
+    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_10029" hidden="1">Task!$N$2:$N$44</definedName>
+    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_10030" hidden="1">Task!$G$2:$G$44</definedName>
+    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_10031" hidden="1">Task!$H$2:$H$44</definedName>
+    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_2" hidden="1">Task!$I$2:$I$44</definedName>
+    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_24" hidden="1">Task!$F$2:$F$44</definedName>
+    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_25" hidden="1">Task!$B$2:$B$44</definedName>
+    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_n105" hidden="1">Task!$C$2:$C$44</definedName>
+    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_n3" hidden="1">Task!$A$2:$A$44</definedName>
+    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_n7" hidden="1">Task!$D$2:$D$44</definedName>
     <definedName name="VSTS_ValidationRange_00cbf8491d384eab8baa64186cbda9a4" hidden="1">VSTS_ValidationWS_1!$BC$1:$BC$10</definedName>
     <definedName name="VSTS_ValidationRange_02c1d7a091d14d30abf9ed35730ea4be" hidden="1">VSTS_ValidationWS_1!$AX$1:$AX$4</definedName>
     <definedName name="VSTS_ValidationRange_06a6a2f0d888468db34ed818776a1280" hidden="1">VSTS_ValidationWS_1!$CD$1:$CD$10</definedName>
+    <definedName name="VSTS_ValidationRange_072859bdbb484ca5a235d49377589e46" hidden="1">VSTS_ValidationWS_1!$N$1:$N$10</definedName>
     <definedName name="VSTS_ValidationRange_0c74e17645224185b17c5eff3149d506" hidden="1">VSTS_ValidationWS_1!$BW$1:$BW$4</definedName>
     <definedName name="VSTS_ValidationRange_1269bb846052488fad6de8e0d2490b1f" hidden="1">VSTS_ValidationWS_1!$CB$1:$CB$4</definedName>
     <definedName name="VSTS_ValidationRange_17d7d6399e8c4e669a0248d4426ba363" hidden="1">VSTS_ValidationWS_1!$CE$1:$CE$10</definedName>
     <definedName name="VSTS_ValidationRange_1c2479cb89ff4591ab117d2700c8acbc" hidden="1">VSTS_ValidationWS_1!$AT$1:$AT$10</definedName>
     <definedName name="VSTS_ValidationRange_1fd426601d4d4f2abf0ea4fdbd9640cc" hidden="1">VSTS_ValidationWS_1!$CF$1:$CF$10</definedName>
+    <definedName name="VSTS_ValidationRange_242dc0e10f324e3e95bce05ea1a02773" hidden="1">VSTS_ValidationWS_1!$H$1:$H$10</definedName>
     <definedName name="VSTS_ValidationRange_26cdb50ca0f04d9fa5b4dddcd23472c6" hidden="1">VSTS_ValidationWS_1!$BO$1:$BO$4</definedName>
     <definedName name="VSTS_ValidationRange_2ba4f3ba6e5f4e7d934b0a02c1302ada" hidden="1">VSTS_ValidationWS_1!$CC$1:$CC$10</definedName>
     <definedName name="VSTS_ValidationRange_2fcb8b3d5ddf4634bfb721f8d9364de9" hidden="1">VSTS_ValidationWS_1!$BQ$1:$BQ$10</definedName>
@@ -45,7 +50,9 @@
     <definedName name="VSTS_ValidationRange_3f9fc580cbd545d099dffe229cba31d8" hidden="1">VSTS_ValidationWS_1!$BB$1:$BB$4</definedName>
     <definedName name="VSTS_ValidationRange_400039108387468997cfe42399ac5ef7" hidden="1">VSTS_ValidationWS_1!$BU$1:$BU$10</definedName>
     <definedName name="VSTS_ValidationRange_40e818723d604fa4973664d5a3f32ff6" hidden="1">VSTS_ValidationWS_1!$AU$1:$AU$4</definedName>
+    <definedName name="VSTS_ValidationRange_42eb8c76bab94b97acfcd86fe47a9e88" hidden="1">VSTS_ValidationWS_1!$E$1:$E$10</definedName>
     <definedName name="VSTS_ValidationRange_4a36bd20ee7045218bd57073f98fed33" hidden="1">VSTS_ValidationWS_1!$BD$1:$BD$4</definedName>
+    <definedName name="VSTS_ValidationRange_4bd61b47360242bdbe3e647d989d9d8e" hidden="1">VSTS_ValidationWS_1!$J$1:$J$10</definedName>
     <definedName name="VSTS_ValidationRange_4cd0cbc787ba4065b917e77a47205298" hidden="1">VSTS_ValidationWS_1!$A$1</definedName>
     <definedName name="VSTS_ValidationRange_4f94ead818644afcbe52994e6bdaca1b" hidden="1">VSTS_ValidationWS_1!$BK$1:$BK$10</definedName>
     <definedName name="VSTS_ValidationRange_54df2e9b10524a43a0ebfbd6e115174e" hidden="1">VSTS_ValidationWS_1!$BX$1:$BX$30</definedName>
@@ -56,21 +63,27 @@
     <definedName name="VSTS_ValidationRange_5a8c8277841744bd91768d9fd9bc437d" hidden="1">VSTS_ValidationWS_1!$AV$1:$AV$4</definedName>
     <definedName name="VSTS_ValidationRange_5ebdf26343e74b5081479d1fe7bc7a29" hidden="1">VSTS_ValidationWS_1!$CL$1:$CL$2</definedName>
     <definedName name="VSTS_ValidationRange_64edfc24598e4248a728f95b7c99a5ce" hidden="1">VSTS_ValidationWS_1!$CG$1:$CG$10</definedName>
+    <definedName name="VSTS_ValidationRange_6d229e71276a47a2bab26ad3206e3479" hidden="1">VSTS_ValidationWS_1!$K$1:$K$10</definedName>
     <definedName name="VSTS_ValidationRange_70d9c67a39a34ddebc321cf2d8b25040" hidden="1">VSTS_ValidationWS_1!$BM$1:$BM$4</definedName>
     <definedName name="VSTS_ValidationRange_70f235b171ce4c2bae08b3a8a470019e" hidden="1">VSTS_ValidationWS_1!$BZ$1:$BZ$10</definedName>
+    <definedName name="VSTS_ValidationRange_81ce5fdaf8394e4d841806d4b08d6163" hidden="1">VSTS_ValidationWS_1!$I$1:$I$10</definedName>
     <definedName name="VSTS_ValidationRange_81dba18597cb4f8daf1b940dc8f6417c" hidden="1">VSTS_ValidationWS_1!$AW$1:$AW$10</definedName>
     <definedName name="VSTS_ValidationRange_8c367c23be3e4d76badc867a899b43d8" hidden="1">VSTS_ValidationWS_1!$CK$1:$CK$3</definedName>
     <definedName name="VSTS_ValidationRange_8fa8467c2ab247d88888d8e9799b50b1" hidden="1">VSTS_ValidationWS_1!$BR$1:$BR$3</definedName>
     <definedName name="VSTS_ValidationRange_9328fce8247b4d5ab398aede228b4b4f" hidden="1">VSTS_ValidationWS_1!$CA$1:$CA$4</definedName>
     <definedName name="VSTS_ValidationRange_998e0c442f9e40e0af8d5ad027d5c52a" hidden="1">VSTS_ValidationWS_1!$BE$1:$BE$4</definedName>
     <definedName name="VSTS_ValidationRange_9a5965394c304d12bbf436250ac3a8a2" hidden="1">VSTS_ValidationWS_1!$BS$1:$BS$4</definedName>
+    <definedName name="VSTS_ValidationRange_9be812154685416c989f7d7871a4635a" hidden="1">VSTS_ValidationWS_1!$F$1:$F$10</definedName>
     <definedName name="VSTS_ValidationRange_a6f4d696bf52433cbbcc1a7927700917" hidden="1">VSTS_ValidationWS_1!$B$1</definedName>
     <definedName name="VSTS_ValidationRange_ae15198b9d944edb82255343375dd28c" hidden="1">VSTS_ValidationWS_1!$BY$1:$BY$4</definedName>
+    <definedName name="VSTS_ValidationRange_ba6efbc26e51424f865ff9e64249d3d5" hidden="1">VSTS_ValidationWS_1!$G$1:$G$10</definedName>
     <definedName name="VSTS_ValidationRange_bdd0dc1cd0d64b4aa46c3c3315eedeed" hidden="1">VSTS_ValidationWS_1!$AY$1:$AY$4</definedName>
     <definedName name="VSTS_ValidationRange_bf860d9b55e74f60963767182af53b87" hidden="1">VSTS_ValidationWS_1!$BA$1:$BA$4</definedName>
     <definedName name="VSTS_ValidationRange_c1d5d9e019a84dd6a8e26445f1b8a638" hidden="1">VSTS_ValidationWS_1!$BT$1:$BT$9</definedName>
     <definedName name="VSTS_ValidationRange_cb6121fec0454fd88ec265e69b7f031f" hidden="1">VSTS_ValidationWS_1!$CM$1:$CM$3</definedName>
+    <definedName name="VSTS_ValidationRange_cbd6bafa45b84b2f8abd3c85791e2885" hidden="1">VSTS_ValidationWS_1!$M$1:$M$10</definedName>
     <definedName name="VSTS_ValidationRange_cca95e89ab794ce4a37695ed8ae618d6" hidden="1">VSTS_ValidationWS_1!$AZ$1:$AZ$10</definedName>
+    <definedName name="VSTS_ValidationRange_cfe75c06361d4b60ae951107be669fda" hidden="1">VSTS_ValidationWS_1!$L$1:$L$10</definedName>
     <definedName name="VSTS_ValidationRange_d7d5b063c9e74562b0a9de8b323fa4a9" hidden="1">VSTS_ValidationWS_1!$C$1</definedName>
     <definedName name="VSTS_ValidationRange_dd4f6fbcc82544fdb166321b4f738f04" hidden="1">VSTS_ValidationWS_1!$BG$1:$BG$3</definedName>
     <definedName name="VSTS_ValidationRange_e280842ebd4345d2aa47cc318a1fab78" hidden="1">VSTS_ValidationWS_1!$D$1</definedName>
@@ -83,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="180">
   <si>
     <t>ID</t>
   </si>
@@ -462,6 +475,168 @@
   </si>
   <si>
     <t>To complete prototype - get at least 1 use case working end-to-end (include AJAX-DWR)</t>
+  </si>
+  <si>
+    <t>Create Review Form for all outstanding deliverables 
+(High level Architecture Design, Prototype Study Report, Transition Strategy)</t>
+  </si>
+  <si>
+    <t>Iteration Path</t>
+  </si>
+  <si>
+    <t>Area Path</t>
+  </si>
+  <si>
+    <t>To produce tasks assignment for Detailed Design Document - involved all team members</t>
+  </si>
+  <si>
+    <t>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_50-5B-D0-C6-4D-02-A8-6F-40-65-26-EB-25-5E-77-D6-47-52-6D-6C</t>
+  </si>
+  <si>
+    <t>To prepare Implementation Plan - down to use case level , include SIT</t>
+  </si>
+  <si>
+    <t>To configure email sent out for TFS, to notice team member upon changes/new assignment</t>
+  </si>
+  <si>
+    <t>Resolved By</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Bug_Microsoft.VSTS.Common.ResolvedBy</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Change Request_Microsoft.VSTS.Common.ResolvedBy</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Issue_Microsoft.VSTS.Common.ResolvedBy</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Requirement_Microsoft.VSTS.Common.ResolvedBy</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Review_Microsoft.VSTS.Common.ResolvedBy</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Risk_Microsoft.VSTS.Common.ResolvedBy</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Task_Microsoft.VSTS.Common.ResolvedBy</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Microsoft.VSTS.Common.ResolvedBy</t>
+  </si>
+  <si>
+    <t>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_6F-C6-D8-EB-43-26-13-F5-A3-D3-8B-09-48-94-22-7A-77-AF-E5-C2</t>
+  </si>
+  <si>
+    <t>Closed By</t>
+  </si>
+  <si>
+    <t>Closed Date</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Bug_Microsoft.VSTS.Common.ClosedBy</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Change Request_Microsoft.VSTS.Common.ClosedBy</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Issue_Microsoft.VSTS.Common.ClosedBy</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Requirement_Microsoft.VSTS.Common.ClosedBy</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Review_Microsoft.VSTS.Common.ClosedBy</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Risk_Microsoft.VSTS.Common.ClosedBy</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Shared Steps_Microsoft.VSTS.Common.ClosedBy</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Task_Microsoft.VSTS.Common.ClosedBy</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Test Case_Microsoft.VSTS.Common.ClosedBy</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Microsoft.VSTS.Common.ClosedBy</t>
+  </si>
+  <si>
+    <t>Finish server setup</t>
+  </si>
+  <si>
+    <t>Test out the SQL and TFS server</t>
+  </si>
+  <si>
+    <t>To check with Zaw for MySQL setup</t>
+  </si>
+  <si>
+    <t>To compare AJAX Framework for Prototype study report</t>
+  </si>
+  <si>
+    <t>To compare UI AJAX Prototype</t>
+  </si>
+  <si>
+    <t>To compare Framework Prototype for Prototype Study Report</t>
+  </si>
+  <si>
+    <t>To produce Data Access Layer Prototype</t>
+  </si>
+  <si>
+    <t>To compare Reporting Tool Prototype</t>
+  </si>
+  <si>
+    <t>To compare Database system for Prototype study report</t>
+  </si>
+  <si>
+    <t>to produce End to end Prototype draft 1</t>
+  </si>
+  <si>
+    <t>To consolidate all parts to produce prototype study report</t>
+  </si>
+  <si>
+    <t>To review UI draft 1 from Jifa</t>
+  </si>
+  <si>
+    <t>To start WBS tasks breakdown , split tasks among team</t>
+  </si>
+  <si>
+    <t>To review Database system for Prototype study report from Jifa</t>
+  </si>
+  <si>
+    <t>Testing review my report tool</t>
+  </si>
+  <si>
+    <t>To explorer TFS template, modify the project template to match ISS and project context</t>
+  </si>
+  <si>
+    <t>Produce UCRR - Analysis</t>
+  </si>
+  <si>
+    <t>Combine UCMS, UCRR into 1 document</t>
+  </si>
+  <si>
+    <t>For the task tracking, use the TFS to generate the progress report and check in to the SVN</t>
+  </si>
+  <si>
+    <t>Presentation - Project Background (2 Slides)</t>
+  </si>
+  <si>
+    <t>Presentation - Global Use Case Modelling Picture</t>
+  </si>
+  <si>
+    <t>Select Two use case for Demo
+Decompose / Explain for chosen use cases</t>
+  </si>
+  <si>
+    <t>Progress (Which task takes longer… 
+Implementation Plan (what u r going to finish….)</t>
+  </si>
+  <si>
+    <t>To modify TFS Template to match MTECH workflow</t>
   </si>
   <si>
     <r>
@@ -469,7 +644,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -480,7 +655,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -490,7 +665,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -501,7 +676,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -511,18 +686,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> All unclosed tasks   </t>
+      <t xml:space="preserve"> All tasks   </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -532,7 +707,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -541,58 +716,6 @@
       <t xml:space="preserve"> Flat    </t>
     </r>
   </si>
-  <si>
-    <t>Create Review Form for all outstanding deliverables 
-(High level Architecture Design, Prototype Study Report, Transition Strategy)</t>
-  </si>
-  <si>
-    <t>Iteration Path</t>
-  </si>
-  <si>
-    <t>Area Path</t>
-  </si>
-  <si>
-    <t>To produce tasks assignment for Detailed Design Document - involved all team members</t>
-  </si>
-  <si>
-    <t>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_50-5B-D0-C6-4D-02-A8-6F-40-65-26-EB-25-5E-77-D6-47-52-6D-6C</t>
-  </si>
-  <si>
-    <t>To prepare Implementation Plan - down to use case level , include SIT</t>
-  </si>
-  <si>
-    <t>To configure email sent out for TFS, to notice team member upon changes/new assignment</t>
-  </si>
-  <si>
-    <t>Resolved By</t>
-  </si>
-  <si>
-    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Bug_Microsoft.VSTS.Common.ResolvedBy</t>
-  </si>
-  <si>
-    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Change Request_Microsoft.VSTS.Common.ResolvedBy</t>
-  </si>
-  <si>
-    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Issue_Microsoft.VSTS.Common.ResolvedBy</t>
-  </si>
-  <si>
-    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Requirement_Microsoft.VSTS.Common.ResolvedBy</t>
-  </si>
-  <si>
-    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Review_Microsoft.VSTS.Common.ResolvedBy</t>
-  </si>
-  <si>
-    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Risk_Microsoft.VSTS.Common.ResolvedBy</t>
-  </si>
-  <si>
-    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Task_Microsoft.VSTS.Common.ResolvedBy</t>
-  </si>
-  <si>
-    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Microsoft.VSTS.Common.ResolvedBy</t>
-  </si>
-  <si>
-    <t>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_6F-C6-D8-EB-43-26-13-F5-A3-D3-8B-09-48-94-22-7A-77-AF-E5-C2</t>
-  </si>
 </sst>
 </file>
 
@@ -600,7 +723,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yy\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="166" formatCode="[$-409]d/mmm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d/mmm/yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -611,15 +734,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -652,117 +775,341 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="18">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="dd\-mmm\-yy\ h:mm\ AM/PM"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$-409]d/mmm/yy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$-409]d/mmm/yy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$-409]d/mmm/yy;@"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$-409]d/mmm/yy;@"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -775,26 +1122,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9" displayName="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9" ref="A2:N20" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A2:N20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9" displayName="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9" ref="A2:P44" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A2:P44">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="Assigned"/>
+        <filter val="In progress"/>
+        <filter val="Resolved"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A3:N20">
     <sortCondition ref="F2:F20"/>
   </sortState>
-  <tableColumns count="14">
-    <tableColumn id="1" name="ID" dataDxfId="15"/>
-    <tableColumn id="2" name="Work Item Type" dataDxfId="14"/>
-    <tableColumn id="12" name="Iteration Path" dataDxfId="4"/>
-    <tableColumn id="13" name="Area Path" dataDxfId="3"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="ID" dataDxfId="17"/>
+    <tableColumn id="2" name="Work Item Type" dataDxfId="16"/>
+    <tableColumn id="12" name="Iteration Path" dataDxfId="15"/>
+    <tableColumn id="13" name="Area Path" dataDxfId="14"/>
     <tableColumn id="3" name="Title" dataDxfId="13"/>
     <tableColumn id="4" name="Assigned To" dataDxfId="12"/>
-    <tableColumn id="5" name="Start Date" dataDxfId="6"/>
-    <tableColumn id="6" name="Finish Date" dataDxfId="5"/>
-    <tableColumn id="7" name="State" dataDxfId="2"/>
-    <tableColumn id="14" name="Resolved By" dataDxfId="0"/>
-    <tableColumn id="8" name="Priority" dataDxfId="1"/>
-    <tableColumn id="9" name="Original Estimate" dataDxfId="11"/>
-    <tableColumn id="10" name="Remaining Work" dataDxfId="10"/>
-    <tableColumn id="11" name="Completed Work" dataDxfId="9"/>
+    <tableColumn id="5" name="Start Date" dataDxfId="11"/>
+    <tableColumn id="6" name="Finish Date" dataDxfId="10"/>
+    <tableColumn id="7" name="State" dataDxfId="9"/>
+    <tableColumn id="14" name="Resolved By" dataDxfId="8"/>
+    <tableColumn id="8" name="Priority" dataDxfId="7"/>
+    <tableColumn id="9" name="Original Estimate" dataDxfId="6"/>
+    <tableColumn id="10" name="Remaining Work" dataDxfId="5"/>
+    <tableColumn id="11" name="Completed Work" dataDxfId="4"/>
+    <tableColumn id="15" name="Closed By" dataDxfId="3"/>
+    <tableColumn id="16" name="Closed Date" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1087,871 +1444,2080 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="11" customWidth="1"/>
+    <col min="1" max="2" width="8" style="11" customWidth="1"/>
     <col min="3" max="3" width="14.140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="38.5703125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="103.5703125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="7" style="7" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="66.140625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="22" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="22" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" style="22" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" style="11" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" style="11" customWidth="1"/>
     <col min="14" max="14" width="12.140625" style="11" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="11"/>
+    <col min="15" max="15" width="16.85546875" style="11" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" style="11" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="10"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>23</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="16">
+        <v>40768.028495370374</v>
+      </c>
+      <c r="H3" s="16">
+        <v>40774.028541666667</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="17">
+        <v>1</v>
+      </c>
+      <c r="L3" s="18">
+        <v>12</v>
+      </c>
+      <c r="M3" s="18">
+        <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
+        <v>8</v>
+      </c>
+      <c r="N3" s="18">
+        <v>4</v>
+      </c>
+      <c r="O3" s="12"/>
+      <c r="P3" s="19"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>28</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="16">
+        <v>40768.028495370374</v>
+      </c>
+      <c r="H4" s="16">
+        <v>40775</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="17">
+        <v>2</v>
+      </c>
+      <c r="L4" s="18">
+        <v>16</v>
+      </c>
+      <c r="M4" s="18">
+        <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
+        <v>14</v>
+      </c>
+      <c r="N4" s="18">
+        <v>2</v>
+      </c>
+      <c r="O4" s="12"/>
+      <c r="P4" s="19"/>
+    </row>
+    <row r="5" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>49</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="16">
+        <v>40776.66914351852</v>
+      </c>
+      <c r="H5" s="16">
+        <v>40776.669166666667</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="17">
+        <v>2</v>
+      </c>
+      <c r="L5" s="18">
+        <v>8</v>
+      </c>
+      <c r="M5" s="18">
+        <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
+        <v>8</v>
+      </c>
+      <c r="N5" s="18">
+        <v>0</v>
+      </c>
+      <c r="O5" s="12"/>
+      <c r="P5" s="19"/>
+    </row>
+    <row r="6" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>29</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="F6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="16">
+        <v>40768.745127314818</v>
+      </c>
+      <c r="H6" s="16">
+        <v>40780.745138888888</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="17">
+        <v>1</v>
+      </c>
+      <c r="L6" s="18">
+        <v>8</v>
+      </c>
+      <c r="M6" s="18">
+        <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
+        <v>8</v>
+      </c>
+      <c r="N6" s="18">
+        <v>0</v>
+      </c>
+      <c r="O6" s="12"/>
+      <c r="P6" s="19"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
-        <v>35</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="C7" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="17">
-        <v>40544.028495370374</v>
-      </c>
-      <c r="H3" s="17">
-        <v>40909</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="12">
-        <v>4</v>
-      </c>
-      <c r="L3" s="13">
-        <v>8</v>
-      </c>
-      <c r="M3" s="13">
-        <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
-        <v>8</v>
-      </c>
-      <c r="N3" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
-        <v>5</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="E7" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="17">
+      <c r="F7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="16">
         <v>40695.333333333336</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H7" s="16">
         <v>40787.708333333336</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I7" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="12">
+      <c r="J7" s="12"/>
+      <c r="K7" s="17">
         <v>1</v>
       </c>
-      <c r="L4" s="13">
-        <v>8</v>
-      </c>
-      <c r="M4" s="13">
+      <c r="L7" s="18">
+        <v>8</v>
+      </c>
+      <c r="M7" s="18">
         <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
         <v>7</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N7" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
-        <v>23</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="O7" s="12"/>
+      <c r="P7" s="19"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>35</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="C8" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="17">
+      <c r="E8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="16">
+        <v>40544.028495370374</v>
+      </c>
+      <c r="H8" s="16">
+        <v>40909</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="17">
+        <v>4</v>
+      </c>
+      <c r="L8" s="18">
+        <v>8</v>
+      </c>
+      <c r="M8" s="18">
+        <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
+        <v>8</v>
+      </c>
+      <c r="N8" s="18">
+        <v>0</v>
+      </c>
+      <c r="O8" s="12"/>
+      <c r="P8" s="19"/>
+    </row>
+    <row r="9" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>21</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="16">
         <v>40768.028495370374</v>
       </c>
-      <c r="H5" s="17">
-        <v>40774.028541666667</v>
-      </c>
-      <c r="I5" s="10" t="s">
+      <c r="H9" s="16">
+        <v>40775</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="12">
-        <v>1</v>
-      </c>
-      <c r="L5" s="13">
+      <c r="J9" s="12"/>
+      <c r="K9" s="17">
+        <v>2</v>
+      </c>
+      <c r="L9" s="18">
         <v>12</v>
       </c>
-      <c r="M5" s="13">
-        <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
-        <v>8</v>
-      </c>
-      <c r="N5" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
-        <v>28</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="17">
-        <v>40768.028495370374</v>
-      </c>
-      <c r="H6" s="17">
-        <v>40775</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="12">
-        <v>2</v>
-      </c>
-      <c r="L6" s="13">
-        <v>16</v>
-      </c>
-      <c r="M6" s="13">
-        <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
-        <v>14</v>
-      </c>
-      <c r="N6" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
-        <v>29</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="17">
-        <v>40768.745127314818</v>
-      </c>
-      <c r="H7" s="17">
-        <v>40780.745138888888</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="12">
-        <v>1</v>
-      </c>
-      <c r="L7" s="13">
-        <v>8</v>
-      </c>
-      <c r="M7" s="13">
-        <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
-        <v>8</v>
-      </c>
-      <c r="N7" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
-        <v>49</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="17">
-        <v>40776.66914351852</v>
-      </c>
-      <c r="H8" s="17">
-        <v>40776.669166666667</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="12">
-        <v>2</v>
-      </c>
-      <c r="L8" s="13">
-        <v>8</v>
-      </c>
-      <c r="M8" s="13">
-        <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
-        <v>8</v>
-      </c>
-      <c r="N8" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
-        <v>21</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="17">
-        <v>40768.028495370374</v>
-      </c>
-      <c r="H9" s="17">
-        <v>40775</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="12">
-        <v>2</v>
-      </c>
-      <c r="L9" s="13">
-        <v>12</v>
-      </c>
-      <c r="M9" s="13">
+      <c r="M9" s="18">
         <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
         <v>12</v>
       </c>
-      <c r="N9" s="13"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="N9" s="18"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="19"/>
+    </row>
+    <row r="10" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
         <v>4</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>40699.333333333336</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="16">
         <v>40710.708333333336</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="12">
+      <c r="J10" s="12"/>
+      <c r="K10" s="17">
         <v>1</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="18">
         <v>16</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="18">
         <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
         <v>6</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="18">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="O10" s="12"/>
+      <c r="P10" s="19"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
         <v>30</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="16">
         <v>40768.028495370374</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="16">
         <v>40775</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="12">
+      <c r="J11" s="12"/>
+      <c r="K11" s="17">
         <v>2</v>
       </c>
-      <c r="L11" s="13">
-        <v>8</v>
-      </c>
-      <c r="M11" s="13">
+      <c r="L11" s="18">
+        <v>8</v>
+      </c>
+      <c r="M11" s="18">
         <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
         <v>8</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="O11" s="12"/>
+      <c r="P11" s="19"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
         <v>31</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <v>40768.028495370374</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="16">
         <v>40775</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="12">
+      <c r="J12" s="12"/>
+      <c r="K12" s="17">
         <v>2</v>
       </c>
-      <c r="L12" s="13">
-        <v>8</v>
-      </c>
-      <c r="M12" s="13">
+      <c r="L12" s="18">
+        <v>8</v>
+      </c>
+      <c r="M12" s="18">
         <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
         <v>8</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="O12" s="12"/>
+      <c r="P12" s="19"/>
+    </row>
+    <row r="13" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
         <v>32</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="E13" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="16">
         <v>40768.028495370374</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="16">
         <v>40775</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="12">
+      <c r="J13" s="12"/>
+      <c r="K13" s="17">
         <v>2</v>
       </c>
-      <c r="L13" s="13">
-        <v>8</v>
-      </c>
-      <c r="M13" s="13">
+      <c r="L13" s="18">
+        <v>8</v>
+      </c>
+      <c r="M13" s="18">
         <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
         <v>8</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="O13" s="12"/>
+      <c r="P13" s="19"/>
+    </row>
+    <row r="14" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
         <v>39</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="16">
         <v>40768.028495370374</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="16">
         <v>40775</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="17">
         <v>2</v>
       </c>
-      <c r="L14" s="13">
-        <v>8</v>
-      </c>
-      <c r="M14" s="13">
+      <c r="L14" s="18">
+        <v>8</v>
+      </c>
+      <c r="M14" s="18">
         <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
         <v>8</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+      <c r="O14" s="12"/>
+      <c r="P14" s="19"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
         <v>25</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="16">
         <v>40768.028495370374</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="16">
         <v>40775</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="12">
+      <c r="J15" s="12"/>
+      <c r="K15" s="17">
         <v>2</v>
       </c>
-      <c r="L15" s="13">
-        <v>8</v>
-      </c>
-      <c r="M15" s="13">
+      <c r="L15" s="18">
+        <v>8</v>
+      </c>
+      <c r="M15" s="18">
         <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
         <v>8</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+      <c r="O15" s="12"/>
+      <c r="P15" s="19"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
         <v>34</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="16">
         <v>40768.028495370374</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="16">
         <v>40775</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="12">
+      <c r="J16" s="12"/>
+      <c r="K16" s="17">
         <v>2</v>
       </c>
-      <c r="L16" s="13">
-        <v>8</v>
-      </c>
-      <c r="M16" s="13">
+      <c r="L16" s="18">
+        <v>8</v>
+      </c>
+      <c r="M16" s="18">
         <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
         <v>8</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+      <c r="O16" s="12"/>
+      <c r="P16" s="19"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
         <v>19</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="16">
         <v>40768.028495370374</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="16">
         <v>40775</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="12">
+      <c r="J17" s="12"/>
+      <c r="K17" s="17">
         <v>2</v>
       </c>
-      <c r="L17" s="13">
-        <v>8</v>
-      </c>
-      <c r="M17" s="13">
+      <c r="L17" s="18">
+        <v>8</v>
+      </c>
+      <c r="M17" s="18">
         <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
         <v>8</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+      <c r="O17" s="12"/>
+      <c r="P17" s="19"/>
+    </row>
+    <row r="18" spans="1:16" ht="24" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
         <v>26</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="16">
         <v>40768.028495370374</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="16">
         <v>40775</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="12">
+      <c r="J18" s="12"/>
+      <c r="K18" s="17">
         <v>2</v>
       </c>
-      <c r="L18" s="13">
-        <v>8</v>
-      </c>
-      <c r="M18" s="13">
+      <c r="L18" s="18">
+        <v>8</v>
+      </c>
+      <c r="M18" s="18">
         <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
         <v>8</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+      <c r="O18" s="12"/>
+      <c r="P18" s="19"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
         <v>33</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="16">
         <v>40768.028495370374</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="16">
         <v>40775</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="12">
+      <c r="J19" s="12"/>
+      <c r="K19" s="17">
         <v>2</v>
       </c>
-      <c r="L19" s="13">
-        <v>8</v>
-      </c>
-      <c r="M19" s="13">
+      <c r="L19" s="18">
+        <v>8</v>
+      </c>
+      <c r="M19" s="18">
         <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
         <v>8</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+      <c r="O19" s="12"/>
+      <c r="P19" s="19"/>
+    </row>
+    <row r="20" spans="1:16" ht="24" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
         <v>50</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="16">
         <f ca="1">TODAY()</f>
         <v>40776</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="16">
         <f ca="1">TODAY()+7</f>
         <v>40783</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="12">
+      <c r="J20" s="12"/>
+      <c r="K20" s="17">
         <v>2</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="18">
         <v>50</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="18">
         <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
         <v>50</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="18">
         <v>0</v>
       </c>
+      <c r="O20" s="12"/>
+      <c r="P20" s="19"/>
+    </row>
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>1</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="16">
+        <v>40684.333333333336</v>
+      </c>
+      <c r="H21" s="16">
+        <v>40695.708333333336</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="12"/>
+      <c r="K21" s="17">
+        <v>1</v>
+      </c>
+      <c r="L21" s="18">
+        <v>8</v>
+      </c>
+      <c r="M21" s="18">
+        <v>64</v>
+      </c>
+      <c r="N21" s="18">
+        <v>8</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="19">
+        <v>40684.630474537036</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>2</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="16">
+        <v>40684.333333333336</v>
+      </c>
+      <c r="H22" s="16">
+        <v>40702.708333333336</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="12"/>
+      <c r="K22" s="17">
+        <v>2</v>
+      </c>
+      <c r="L22" s="18">
+        <v>0</v>
+      </c>
+      <c r="M22" s="18">
+        <v>0</v>
+      </c>
+      <c r="N22" s="18">
+        <v>112</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P22" s="19">
+        <v>40691.982928240737</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>3</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="16">
+        <v>40684.333333333336</v>
+      </c>
+      <c r="H23" s="16">
+        <v>40781.708333333336</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="12"/>
+      <c r="K23" s="17">
+        <v>2</v>
+      </c>
+      <c r="L23" s="18">
+        <v>0</v>
+      </c>
+      <c r="M23" s="18">
+        <v>112</v>
+      </c>
+      <c r="N23" s="18">
+        <v>0</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23" s="19">
+        <v>40695.968715277777</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>6</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="16">
+        <v>40768.028495370374</v>
+      </c>
+      <c r="H24" s="16">
+        <v>40775</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="12"/>
+      <c r="K24" s="17">
+        <v>2</v>
+      </c>
+      <c r="L24" s="18">
+        <v>8</v>
+      </c>
+      <c r="M24" s="18">
+        <v>0</v>
+      </c>
+      <c r="N24" s="18">
+        <v>8</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P24" s="19">
+        <v>40776.734606481485</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>7</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="16">
+        <v>40695.333333333336</v>
+      </c>
+      <c r="H25" s="16">
+        <v>40775</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="12"/>
+      <c r="K25" s="17">
+        <v>2</v>
+      </c>
+      <c r="L25" s="18">
+        <v>8</v>
+      </c>
+      <c r="M25" s="18">
+        <v>8</v>
+      </c>
+      <c r="N25" s="18"/>
+      <c r="O25" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25" s="19">
+        <v>40695.968634259261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <v>8</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="16">
+        <v>40695.333333333336</v>
+      </c>
+      <c r="H26" s="16">
+        <v>40775</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="17">
+        <v>2</v>
+      </c>
+      <c r="L26" s="18">
+        <v>8</v>
+      </c>
+      <c r="M26" s="18">
+        <v>8</v>
+      </c>
+      <c r="N26" s="18">
+        <v>0</v>
+      </c>
+      <c r="O26" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="19">
+        <v>40776.769155092596</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>9</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="16">
+        <v>40695.333333333336</v>
+      </c>
+      <c r="H27" s="16">
+        <v>40708.708333333336</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="12"/>
+      <c r="K27" s="17">
+        <v>2</v>
+      </c>
+      <c r="L27" s="18">
+        <v>16</v>
+      </c>
+      <c r="M27" s="18">
+        <v>0</v>
+      </c>
+      <c r="N27" s="18">
+        <v>16</v>
+      </c>
+      <c r="O27" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P27" s="19">
+        <v>40776.724398148152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
+        <v>10</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="16">
+        <v>40695.333333333336</v>
+      </c>
+      <c r="H28" s="16">
+        <v>40775</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="17">
+        <v>2</v>
+      </c>
+      <c r="L28" s="18">
+        <v>8</v>
+      </c>
+      <c r="M28" s="18">
+        <v>0</v>
+      </c>
+      <c r="N28" s="18">
+        <v>8</v>
+      </c>
+      <c r="O28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P28" s="19">
+        <v>40776.767025462963</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <v>11</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="16">
+        <v>40768.028495370374</v>
+      </c>
+      <c r="H29" s="16">
+        <v>40775</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="17">
+        <v>2</v>
+      </c>
+      <c r="L29" s="18">
+        <v>8</v>
+      </c>
+      <c r="M29" s="18">
+        <v>0</v>
+      </c>
+      <c r="N29" s="18">
+        <v>8</v>
+      </c>
+      <c r="O29" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P29" s="19">
+        <v>40768.679490740738</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
+        <v>12</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="16">
+        <v>40695.333333333336</v>
+      </c>
+      <c r="H30" s="16">
+        <v>40708.708333333336</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="12"/>
+      <c r="K30" s="17">
+        <v>1</v>
+      </c>
+      <c r="L30" s="18">
+        <v>16</v>
+      </c>
+      <c r="M30" s="18">
+        <v>0</v>
+      </c>
+      <c r="N30" s="18">
+        <v>16</v>
+      </c>
+      <c r="O30" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P30" s="19">
+        <v>40776.724398148152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
+        <v>13</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="16">
+        <v>40695.333333333336</v>
+      </c>
+      <c r="H31" s="16">
+        <v>40775</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" s="12"/>
+      <c r="K31" s="17">
+        <v>2</v>
+      </c>
+      <c r="L31" s="18">
+        <v>16</v>
+      </c>
+      <c r="M31" s="18">
+        <v>0</v>
+      </c>
+      <c r="N31" s="18">
+        <v>16</v>
+      </c>
+      <c r="O31" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P31" s="19">
+        <v>40776.724398148152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
+        <v>14</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="16">
+        <v>40695.333333333336</v>
+      </c>
+      <c r="H32" s="16">
+        <v>40708.708333333336</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J32" s="12"/>
+      <c r="K32" s="17">
+        <v>2</v>
+      </c>
+      <c r="L32" s="18">
+        <v>8</v>
+      </c>
+      <c r="M32" s="18">
+        <v>0</v>
+      </c>
+      <c r="N32" s="18">
+        <v>8</v>
+      </c>
+      <c r="O32" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P32" s="19">
+        <v>40769.747604166667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15">
+        <v>15</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="16">
+        <v>40725.7890162037</v>
+      </c>
+      <c r="H33" s="16">
+        <v>40785.789050925923</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="12"/>
+      <c r="K33" s="17">
+        <v>1</v>
+      </c>
+      <c r="L33" s="18">
+        <v>0</v>
+      </c>
+      <c r="M33" s="18">
+        <v>0</v>
+      </c>
+      <c r="N33" s="18">
+        <v>12</v>
+      </c>
+      <c r="O33" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33" s="19">
+        <v>40769.747974537036</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <v>17</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="16">
+        <v>40695.741099537037</v>
+      </c>
+      <c r="H34" s="16">
+        <v>40731.741261574076</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="17">
+        <v>2</v>
+      </c>
+      <c r="L34" s="18">
+        <v>4</v>
+      </c>
+      <c r="M34" s="18">
+        <v>4</v>
+      </c>
+      <c r="N34" s="18">
+        <v>0</v>
+      </c>
+      <c r="O34" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P34" s="19">
+        <v>40768.741388888891</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
+        <v>18</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="16">
+        <v>40769.016550925924</v>
+      </c>
+      <c r="H35" s="16">
+        <v>40769.016597222224</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35" s="17">
+        <v>1</v>
+      </c>
+      <c r="L35" s="18">
+        <v>8</v>
+      </c>
+      <c r="M35" s="18">
+        <v>0</v>
+      </c>
+      <c r="N35" s="18">
+        <v>8</v>
+      </c>
+      <c r="O35" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P35" s="19">
+        <v>40705.70034722222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
+        <v>20</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="16">
+        <v>40768.016226851854</v>
+      </c>
+      <c r="H36" s="16">
+        <v>40769.016261574077</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J36" s="12"/>
+      <c r="K36" s="17">
+        <v>2</v>
+      </c>
+      <c r="L36" s="18">
+        <v>8</v>
+      </c>
+      <c r="M36" s="18">
+        <v>0</v>
+      </c>
+      <c r="N36" s="18">
+        <v>8</v>
+      </c>
+      <c r="O36" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P36" s="19">
+        <v>40769.748171296298</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="36" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
+        <v>22</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="16">
+        <v>40768.028495370374</v>
+      </c>
+      <c r="H37" s="16">
+        <v>40775</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J37" s="12"/>
+      <c r="K37" s="17">
+        <v>1</v>
+      </c>
+      <c r="L37" s="18">
+        <v>24</v>
+      </c>
+      <c r="M37" s="18">
+        <v>0</v>
+      </c>
+      <c r="N37" s="18">
+        <v>24</v>
+      </c>
+      <c r="O37" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P37" s="19">
+        <v>40776.737523148149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
+        <v>24</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="16">
+        <v>40768.028495370374</v>
+      </c>
+      <c r="H38" s="16">
+        <v>40775</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="17">
+        <v>2</v>
+      </c>
+      <c r="L38" s="18">
+        <v>8</v>
+      </c>
+      <c r="M38" s="18">
+        <v>0</v>
+      </c>
+      <c r="N38" s="18">
+        <v>8</v>
+      </c>
+      <c r="O38" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P38" s="19">
+        <v>40776.759988425925</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
+        <v>27</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="16">
+        <v>40768.688275462962</v>
+      </c>
+      <c r="H39" s="16">
+        <v>40775.688414351855</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J39" s="12"/>
+      <c r="K39" s="17">
+        <v>2</v>
+      </c>
+      <c r="L39" s="18">
+        <v>8</v>
+      </c>
+      <c r="M39" s="18">
+        <v>0</v>
+      </c>
+      <c r="N39" s="18">
+        <v>8</v>
+      </c>
+      <c r="O39" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P39" s="19">
+        <v>40776.732106481482</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15">
+        <v>36</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="16">
+        <v>40768.028495370374</v>
+      </c>
+      <c r="H40" s="16">
+        <v>40775</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40" s="12"/>
+      <c r="K40" s="17">
+        <v>2</v>
+      </c>
+      <c r="L40" s="18">
+        <v>8</v>
+      </c>
+      <c r="M40" s="18">
+        <v>0</v>
+      </c>
+      <c r="N40" s="18">
+        <v>8</v>
+      </c>
+      <c r="O40" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P40" s="19">
+        <v>40776.732106481482</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15">
+        <v>37</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="16">
+        <v>40768.028495370374</v>
+      </c>
+      <c r="H41" s="16">
+        <v>40775</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J41" s="12"/>
+      <c r="K41" s="17">
+        <v>2</v>
+      </c>
+      <c r="L41" s="18">
+        <v>8</v>
+      </c>
+      <c r="M41" s="18">
+        <v>0</v>
+      </c>
+      <c r="N41" s="18">
+        <v>8</v>
+      </c>
+      <c r="O41" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P41" s="19">
+        <v>40776.732106481482</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15">
+        <v>38</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="16">
+        <v>40768.028495370374</v>
+      </c>
+      <c r="H42" s="16">
+        <v>40775</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J42" s="12"/>
+      <c r="K42" s="17">
+        <v>2</v>
+      </c>
+      <c r="L42" s="18">
+        <v>8</v>
+      </c>
+      <c r="M42" s="18">
+        <v>8</v>
+      </c>
+      <c r="N42" s="18">
+        <v>0</v>
+      </c>
+      <c r="O42" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P42" s="19">
+        <v>40776.732106481482</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="15">
+        <v>40</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="16">
+        <v>40768.028495370374</v>
+      </c>
+      <c r="H43" s="16">
+        <v>40775</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J43" s="12"/>
+      <c r="K43" s="17">
+        <v>2</v>
+      </c>
+      <c r="L43" s="18">
+        <v>8</v>
+      </c>
+      <c r="M43" s="18">
+        <v>8</v>
+      </c>
+      <c r="N43" s="18">
+        <v>0</v>
+      </c>
+      <c r="O43" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P43" s="19">
+        <v>40776.732106481482</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15">
+        <v>42</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="16">
+        <v>40768.792037037034</v>
+      </c>
+      <c r="H44" s="16">
+        <v>40769.792094907411</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J44" s="12"/>
+      <c r="K44" s="17">
+        <v>1</v>
+      </c>
+      <c r="L44" s="18">
+        <v>4</v>
+      </c>
+      <c r="M44" s="18">
+        <v>0</v>
+      </c>
+      <c r="N44" s="18">
+        <v>4</v>
+      </c>
+      <c r="O44" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P44" s="19">
+        <v>40776.712847222225</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="167">
+  <dataValidations count="27">
     <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A2">
       <formula1>"ID"</formula1>
     </dataValidation>
@@ -1994,313 +3560,11 @@
     <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="N2">
       <formula1>"Completed Work"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A20">
-      <formula1>"50"</formula1>
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="O2">
+      <formula1>"Closed By"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="B20">
-      <formula1>"Task"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C20">
-      <formula1>VSTS_ValidationRange_ae15198b9d944edb82255343375dd28c</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D20">
-      <formula1>VSTS_ValidationRange_54df2e9b10524a43a0ebfbd6e115174e</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="E20">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="F20">
-      <formula1>VSTS_ValidationRange_70f235b171ce4c2bae08b3a8a470019e</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="I20">
-      <formula1>VSTS_ValidationRange_cb6121fec0454fd88ec265e69b7f031f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="J20">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="K20">
-      <formula1>VSTS_ValidationRange_1269bb846052488fad6de8e0d2490b1f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A4">
-      <formula1>"5"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="B4">
-      <formula1>"Task"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C4">
-      <formula1>VSTS_ValidationRange_ae15198b9d944edb82255343375dd28c</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D4">
-      <formula1>VSTS_ValidationRange_54df2e9b10524a43a0ebfbd6e115174e</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="E4">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="F4">
-      <formula1>VSTS_ValidationRange_70f235b171ce4c2bae08b3a8a470019e</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="I4">
-      <formula1>VSTS_ValidationRange_9328fce8247b4d5ab398aede228b4b4f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="J4">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="K4">
-      <formula1>VSTS_ValidationRange_1269bb846052488fad6de8e0d2490b1f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A5">
-      <formula1>"23"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="B5">
-      <formula1>"Task"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C5">
-      <formula1>VSTS_ValidationRange_ae15198b9d944edb82255343375dd28c</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D5">
-      <formula1>VSTS_ValidationRange_54df2e9b10524a43a0ebfbd6e115174e</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="E5">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="F5">
-      <formula1>VSTS_ValidationRange_70f235b171ce4c2bae08b3a8a470019e</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="I5">
-      <formula1>VSTS_ValidationRange_9328fce8247b4d5ab398aede228b4b4f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="J5">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="K5">
-      <formula1>VSTS_ValidationRange_1269bb846052488fad6de8e0d2490b1f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A6">
-      <formula1>"28"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="B6">
-      <formula1>"Task"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C6">
-      <formula1>VSTS_ValidationRange_ae15198b9d944edb82255343375dd28c</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D6">
-      <formula1>VSTS_ValidationRange_54df2e9b10524a43a0ebfbd6e115174e</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="E6">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="F6">
-      <formula1>VSTS_ValidationRange_70f235b171ce4c2bae08b3a8a470019e</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="I6">
-      <formula1>VSTS_ValidationRange_9328fce8247b4d5ab398aede228b4b4f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="J6">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="K6">
-      <formula1>VSTS_ValidationRange_1269bb846052488fad6de8e0d2490b1f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A7">
-      <formula1>"29"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="B7">
-      <formula1>"Task"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C7">
-      <formula1>VSTS_ValidationRange_ae15198b9d944edb82255343375dd28c</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D7">
-      <formula1>VSTS_ValidationRange_54df2e9b10524a43a0ebfbd6e115174e</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="E7">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="F7">
-      <formula1>VSTS_ValidationRange_70f235b171ce4c2bae08b3a8a470019e</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="I7">
-      <formula1>VSTS_ValidationRange_9328fce8247b4d5ab398aede228b4b4f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="J7">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="K7">
-      <formula1>VSTS_ValidationRange_1269bb846052488fad6de8e0d2490b1f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A8">
-      <formula1>"49"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="B8">
-      <formula1>"Task"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C8">
-      <formula1>VSTS_ValidationRange_ae15198b9d944edb82255343375dd28c</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D8">
-      <formula1>VSTS_ValidationRange_54df2e9b10524a43a0ebfbd6e115174e</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="E8">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="F8">
-      <formula1>VSTS_ValidationRange_70f235b171ce4c2bae08b3a8a470019e</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="I8">
-      <formula1>VSTS_ValidationRange_9328fce8247b4d5ab398aede228b4b4f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="J8">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="K8">
-      <formula1>VSTS_ValidationRange_1269bb846052488fad6de8e0d2490b1f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A9">
-      <formula1>"21"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="B9">
-      <formula1>"Task"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C9">
-      <formula1>VSTS_ValidationRange_ae15198b9d944edb82255343375dd28c</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D9">
-      <formula1>VSTS_ValidationRange_54df2e9b10524a43a0ebfbd6e115174e</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="E9">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="F9">
-      <formula1>VSTS_ValidationRange_70f235b171ce4c2bae08b3a8a470019e</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="I9">
-      <formula1>VSTS_ValidationRange_9328fce8247b4d5ab398aede228b4b4f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="J9">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="K9">
-      <formula1>VSTS_ValidationRange_1269bb846052488fad6de8e0d2490b1f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A10">
-      <formula1>"4"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="B10">
-      <formula1>"Task"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C10">
-      <formula1>VSTS_ValidationRange_ae15198b9d944edb82255343375dd28c</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D10">
-      <formula1>VSTS_ValidationRange_54df2e9b10524a43a0ebfbd6e115174e</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="E10">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="F10">
-      <formula1>VSTS_ValidationRange_70f235b171ce4c2bae08b3a8a470019e</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="I10">
-      <formula1>VSTS_ValidationRange_9328fce8247b4d5ab398aede228b4b4f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="J10">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="K10">
-      <formula1>VSTS_ValidationRange_1269bb846052488fad6de8e0d2490b1f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A11">
-      <formula1>"30"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="B11">
-      <formula1>"Task"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C11">
-      <formula1>VSTS_ValidationRange_ae15198b9d944edb82255343375dd28c</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D11">
-      <formula1>VSTS_ValidationRange_54df2e9b10524a43a0ebfbd6e115174e</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="E11">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="F11">
-      <formula1>VSTS_ValidationRange_70f235b171ce4c2bae08b3a8a470019e</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="I11">
-      <formula1>VSTS_ValidationRange_9328fce8247b4d5ab398aede228b4b4f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="J11">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="K11">
-      <formula1>VSTS_ValidationRange_1269bb846052488fad6de8e0d2490b1f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A12">
-      <formula1>"31"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="B12">
-      <formula1>"Task"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C12">
-      <formula1>VSTS_ValidationRange_ae15198b9d944edb82255343375dd28c</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D12">
-      <formula1>VSTS_ValidationRange_54df2e9b10524a43a0ebfbd6e115174e</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="E12">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="F12">
-      <formula1>VSTS_ValidationRange_70f235b171ce4c2bae08b3a8a470019e</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="I12">
-      <formula1>VSTS_ValidationRange_9328fce8247b4d5ab398aede228b4b4f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="J12">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="K12">
-      <formula1>VSTS_ValidationRange_1269bb846052488fad6de8e0d2490b1f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A13">
-      <formula1>"32"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="B13">
-      <formula1>"Task"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C13">
-      <formula1>VSTS_ValidationRange_ae15198b9d944edb82255343375dd28c</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D13">
-      <formula1>VSTS_ValidationRange_54df2e9b10524a43a0ebfbd6e115174e</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="E13">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="F13">
-      <formula1>VSTS_ValidationRange_70f235b171ce4c2bae08b3a8a470019e</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="I13">
-      <formula1>VSTS_ValidationRange_9328fce8247b4d5ab398aede228b4b4f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="J13">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="K13">
-      <formula1>VSTS_ValidationRange_1269bb846052488fad6de8e0d2490b1f</formula1>
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="P2">
+      <formula1>"Closed Date"</formula1>
     </dataValidation>
     <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A14">
       <formula1>"39"</formula1>
@@ -2330,145 +3594,11 @@
     <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="K14">
       <formula1>VSTS_ValidationRange_1269bb846052488fad6de8e0d2490b1f</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A15">
-      <formula1>"25"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="B15">
-      <formula1>"Task"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C15">
-      <formula1>VSTS_ValidationRange_ae15198b9d944edb82255343375dd28c</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D15">
-      <formula1>VSTS_ValidationRange_54df2e9b10524a43a0ebfbd6e115174e</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="E15">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="F15">
-      <formula1>VSTS_ValidationRange_70f235b171ce4c2bae08b3a8a470019e</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="I15">
-      <formula1>VSTS_ValidationRange_9328fce8247b4d5ab398aede228b4b4f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="J15">
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="O14">
       <formula1>" "</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="K15">
-      <formula1>VSTS_ValidationRange_1269bb846052488fad6de8e0d2490b1f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A16">
-      <formula1>"34"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="B16">
-      <formula1>"Task"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C16">
-      <formula1>VSTS_ValidationRange_ae15198b9d944edb82255343375dd28c</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D16">
-      <formula1>VSTS_ValidationRange_54df2e9b10524a43a0ebfbd6e115174e</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="E16">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="F16">
-      <formula1>VSTS_ValidationRange_70f235b171ce4c2bae08b3a8a470019e</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="I16">
-      <formula1>VSTS_ValidationRange_9328fce8247b4d5ab398aede228b4b4f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="J16">
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="P14">
       <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="K16">
-      <formula1>VSTS_ValidationRange_1269bb846052488fad6de8e0d2490b1f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A17">
-      <formula1>"19"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="B17">
-      <formula1>"Task"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C17">
-      <formula1>VSTS_ValidationRange_ae15198b9d944edb82255343375dd28c</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D17">
-      <formula1>VSTS_ValidationRange_54df2e9b10524a43a0ebfbd6e115174e</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="E17">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="F17">
-      <formula1>VSTS_ValidationRange_70f235b171ce4c2bae08b3a8a470019e</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="I17">
-      <formula1>VSTS_ValidationRange_9328fce8247b4d5ab398aede228b4b4f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="J17">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="K17">
-      <formula1>VSTS_ValidationRange_1269bb846052488fad6de8e0d2490b1f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A18">
-      <formula1>"26"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="B18">
-      <formula1>"Task"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C18">
-      <formula1>VSTS_ValidationRange_ae15198b9d944edb82255343375dd28c</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D18">
-      <formula1>VSTS_ValidationRange_54df2e9b10524a43a0ebfbd6e115174e</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="E18">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="F18">
-      <formula1>VSTS_ValidationRange_70f235b171ce4c2bae08b3a8a470019e</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="I18">
-      <formula1>VSTS_ValidationRange_9328fce8247b4d5ab398aede228b4b4f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="J18">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="K18">
-      <formula1>VSTS_ValidationRange_1269bb846052488fad6de8e0d2490b1f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A19">
-      <formula1>"33"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="B19">
-      <formula1>"Task"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C19">
-      <formula1>VSTS_ValidationRange_ae15198b9d944edb82255343375dd28c</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D19">
-      <formula1>VSTS_ValidationRange_54df2e9b10524a43a0ebfbd6e115174e</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="E19">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="F19">
-      <formula1>VSTS_ValidationRange_70f235b171ce4c2bae08b3a8a470019e</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="I19">
-      <formula1>VSTS_ValidationRange_9328fce8247b4d5ab398aede228b4b4f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="J19">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="K19">
-      <formula1>VSTS_ValidationRange_1269bb846052488fad6de8e0d2490b1f</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2483,7 +3613,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -2495,7 +3627,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -2527,6 +3661,36 @@
       <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="AT1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2679,6 +3843,36 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="AT2" s="1" t="s">
         <v>17</v>
       </c>
@@ -2819,6 +4013,36 @@
       </c>
     </row>
     <row r="3" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="AT3" s="1" t="s">
         <v>18</v>
       </c>
@@ -2952,13 +4176,43 @@
         <v>30</v>
       </c>
       <c r="CL3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="CM3" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="AT4" s="1" t="s">
         <v>19</v>
       </c>
@@ -3086,13 +4340,43 @@
         <v>19</v>
       </c>
       <c r="CK4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="CM4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="AT5" s="1" t="s">
         <v>20</v>
       </c>
@@ -3215,6 +4499,36 @@
       </c>
     </row>
     <row r="6" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="AT6" s="1" t="s">
         <v>21</v>
       </c>
@@ -3283,6 +4597,36 @@
       </c>
     </row>
     <row r="7" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="AT7" s="1" t="s">
         <v>22</v>
       </c>
@@ -3351,6 +4695,36 @@
       </c>
     </row>
     <row r="8" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="AT8" s="1" t="s">
         <v>23</v>
       </c>
@@ -3419,6 +4793,36 @@
       </c>
     </row>
     <row r="9" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="AT9" s="1" t="s">
         <v>24</v>
       </c>
@@ -3487,6 +4891,36 @@
       </c>
     </row>
     <row r="10" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="AT10" s="1" t="s">
         <v>25</v>
       </c>
@@ -3552,6 +4986,36 @@
       </c>
     </row>
     <row r="11" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" t="s">
+        <v>148</v>
+      </c>
+      <c r="I11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J11" t="s">
+        <v>150</v>
+      </c>
+      <c r="K11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L11" t="s">
+        <v>152</v>
+      </c>
+      <c r="M11" t="s">
+        <v>153</v>
+      </c>
+      <c r="N11" t="s">
+        <v>154</v>
+      </c>
       <c r="AT11" t="s">
         <v>26</v>
       </c>
@@ -3589,28 +5053,28 @@
         <v>121</v>
       </c>
       <c r="CC11" t="s">
+        <v>134</v>
+      </c>
+      <c r="CD11" t="s">
         <v>135</v>
       </c>
-      <c r="CD11" t="s">
+      <c r="CE11" t="s">
         <v>136</v>
       </c>
-      <c r="CE11" t="s">
+      <c r="CF11" t="s">
         <v>137</v>
       </c>
-      <c r="CF11" t="s">
+      <c r="CG11" t="s">
         <v>138</v>
       </c>
-      <c r="CG11" t="s">
+      <c r="CH11" t="s">
         <v>139</v>
       </c>
-      <c r="CH11" t="s">
+      <c r="CI11" t="s">
         <v>140</v>
       </c>
-      <c r="CI11" t="s">
+      <c r="CJ11" t="s">
         <v>141</v>
-      </c>
-      <c r="CJ11" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:91" x14ac:dyDescent="0.25">
@@ -3716,4 +5180,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/trunk/docs/PM-1 Project Management/PM-1.4 Project Tracking/MTECH_Project_Management.xlsx
+++ b/trunk/docs/PM-1 Project Management/PM-1.4 Project Tracking/MTECH_Project_Management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="180" windowWidth="21075" windowHeight="9975" tabRatio="396" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="180" windowWidth="21075" windowHeight="9975" tabRatio="396"/>
   </bookViews>
   <sheets>
     <sheet name="1.Task" sheetId="1" r:id="rId1"/>
@@ -22,44 +22,59 @@
     <definedName name="VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_n105" hidden="1">#REF!</definedName>
     <definedName name="VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_n3" hidden="1">#REF!</definedName>
     <definedName name="VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_n7" hidden="1">#REF!</definedName>
-    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_1" hidden="1">'1.Task'!$F$2:$F$45</definedName>
-    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_10004" hidden="1">'1.Task'!$M$2:$M$45</definedName>
-    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_10005" hidden="1">'1.Task'!$L$2:$L$45</definedName>
-    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_10009" hidden="1">'1.Task'!$E$2:$E$45</definedName>
-    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_10017" hidden="1">'1.Task'!$N$2:$N$45</definedName>
-    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_10028" hidden="1">'1.Task'!$O$2:$O$45</definedName>
-    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_10029" hidden="1">'1.Task'!$P$2:$P$45</definedName>
-    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_10030" hidden="1">'1.Task'!$J$2:$J$45</definedName>
-    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_10031" hidden="1">'1.Task'!$K$2:$K$45</definedName>
-    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_2" hidden="1">'1.Task'!$H$2:$H$45</definedName>
-    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_24" hidden="1">'1.Task'!$D$2:$D$45</definedName>
-    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_25" hidden="1">'1.Task'!$Q$2:$Q$45</definedName>
-    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_52" hidden="1">'1.Task'!$G$2:$G$45</definedName>
-    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_54" hidden="1">'1.Task'!$I$2:$I$45</definedName>
+    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_1" hidden="1">'1.Task'!$G$2:$G$45</definedName>
+    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_10004" hidden="1">'1.Task'!$S$2:$S$45</definedName>
+    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_10005" hidden="1">'1.Task'!$R$2:$R$45</definedName>
+    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_10009" hidden="1">'1.Task'!$F$2:$F$45</definedName>
+    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_10010" hidden="1">'1.Task'!$O$2:$O$45</definedName>
+    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_10017" hidden="1">'1.Task'!$K$2:$K$45</definedName>
+    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_10018" hidden="1">'1.Task'!$M$2:$M$45</definedName>
+    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_10028" hidden="1">'1.Task'!$T$2:$T$45</definedName>
+    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_10029" hidden="1">'1.Task'!$L$2:$L$45</definedName>
+    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_10030" hidden="1">'1.Task'!$P$2:$P$45</definedName>
+    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_10031" hidden="1">'1.Task'!$Q$2:$Q$45</definedName>
+    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_2" hidden="1">'1.Task'!$I$2:$I$45</definedName>
+    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_22" hidden="1">'1.Task'!$N$2:$N$45</definedName>
+    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_24" hidden="1">'1.Task'!$E$2:$E$45</definedName>
+    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_25" hidden="1">'1.Task'!$D$2:$D$45</definedName>
+    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_52" hidden="1">'1.Task'!$H$2:$H$45</definedName>
+    <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_54" hidden="1">'1.Task'!$J$2:$J$45</definedName>
     <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_n105" hidden="1">'1.Task'!$B$2:$B$45</definedName>
     <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_n3" hidden="1">'1.Task'!$A$2:$A$45</definedName>
     <definedName name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_n7" hidden="1">'1.Task'!$C$2:$C$45</definedName>
     <definedName name="VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_1" hidden="1">'2.Bug'!$B$2:$B$4</definedName>
+    <definedName name="VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_10003" hidden="1">'2.Bug'!$J$2:$J$4</definedName>
     <definedName name="VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_10004" hidden="1">'2.Bug'!$I$2:$I$4</definedName>
     <definedName name="VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_10005" hidden="1">'2.Bug'!$H$2:$H$4</definedName>
     <definedName name="VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_10009" hidden="1">'2.Bug'!$G$2:$G$4</definedName>
+    <definedName name="VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_10010" hidden="1">'2.Bug'!$P$2:$P$4</definedName>
     <definedName name="VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_10011" hidden="1">'2.Bug'!$F$2:$F$4</definedName>
+    <definedName name="VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_10017" hidden="1">'2.Bug'!$M$2:$M$4</definedName>
+    <definedName name="VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_10018" hidden="1">'2.Bug'!$K$2:$K$4</definedName>
+    <definedName name="VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_10019" hidden="1">'2.Bug'!$O$2:$O$4</definedName>
     <definedName name="VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_2" hidden="1">'2.Bug'!$E$2:$E$4</definedName>
+    <definedName name="VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_22" hidden="1">'2.Bug'!$N$2:$N$4</definedName>
     <definedName name="VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_24" hidden="1">'2.Bug'!$D$2:$D$4</definedName>
+    <definedName name="VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_25" hidden="1">'2.Bug'!$Q$2:$Q$4</definedName>
+    <definedName name="VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_n105" hidden="1">'2.Bug'!$L$2:$L$4</definedName>
     <definedName name="VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_n3" hidden="1">'2.Bug'!$A$2:$A$4</definedName>
     <definedName name="VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_n7" hidden="1">'2.Bug'!$C$2:$C$4</definedName>
-    <definedName name="VSTS_ValidationRange_00a092b961fb437991c1e64ddec0b15d" hidden="1">VSTS_ValidationWS_1!$BL$1:$BL$10</definedName>
-    <definedName name="VSTS_ValidationRange_0192e907c762480188a6a1ca0a240e56" hidden="1">VSTS_ValidationWS_1!$DM$1:$DM$4</definedName>
+    <definedName name="VSTS_ValidationRange_0153daa05e4749f183f69d82dec2b9d1" hidden="1">VSTS_ValidationWS_1!$GE$1:$GE$11</definedName>
+    <definedName name="VSTS_ValidationRange_0189fc1f813c4e1aa1335fe7e340d244" hidden="1">VSTS_ValidationWS_1!$BF$1:$BF$10</definedName>
+    <definedName name="VSTS_ValidationRange_0192e907c762480188a6a1ca0a240e56" hidden="1">VSTS_ValidationWS_1!$FD$1:$FD$4</definedName>
+    <definedName name="VSTS_ValidationRange_04171dd763e244af8fdbf21eeb2face3" hidden="1">VSTS_ValidationWS_1!$FY$1:$FY$2</definedName>
     <definedName name="VSTS_ValidationRange_084bd8a3cef84c359b783b48c370d9ff" hidden="1">VSTS_ValidationWS_1!$BT$1:$BT$4</definedName>
+    <definedName name="VSTS_ValidationRange_084c2f9fba4844a6a825d5a66375d9d0" hidden="1">VSTS_ValidationWS_1!$GL$1:$GL$7</definedName>
     <definedName name="VSTS_ValidationRange_08c609f5fb0d4790915f94e87dbe5f7c" hidden="1">VSTS_ValidationWS_1!$EQ$1:$EQ$9</definedName>
-    <definedName name="VSTS_ValidationRange_09c502d9f6f247daa2878ddeb66314aa" hidden="1">VSTS_ValidationWS_1!$BA$1:$BA$3</definedName>
+    <definedName name="VSTS_ValidationRange_08d5da3534dc4b8eb1b67d7e95f5f531" hidden="1">VSTS_ValidationWS_1!$EY$1:$EY$2</definedName>
+    <definedName name="VSTS_ValidationRange_09329f1842de40a594c4c36ea36cb47f" hidden="1">VSTS_ValidationWS_1!$FJ$1:$FJ$10</definedName>
+    <definedName name="VSTS_ValidationRange_0a07c1bd001c421dac7f1bc5b4a10012" hidden="1">VSTS_ValidationWS_1!$EX$1:$EX$2</definedName>
     <definedName name="VSTS_ValidationRange_0ac63cb9774a45f2b14e165f0a98b424" hidden="1">VSTS_ValidationWS_1!$CV$1:$CV$10</definedName>
     <definedName name="VSTS_ValidationRange_0c3e8497c694409590591643a74fc491" hidden="1">VSTS_ValidationWS_1!$CG$1:$CG$10</definedName>
     <definedName name="VSTS_ValidationRange_0dafba998a7f45fe8688dbfa464b5282" hidden="1">VSTS_ValidationWS_1!$EA$1:$EA$4</definedName>
     <definedName name="VSTS_ValidationRange_0dcf68d10bd645f59a0af52cbbac8ae5" hidden="1">VSTS_ValidationWS_1!$CX$1:$CX$4</definedName>
     <definedName name="VSTS_ValidationRange_0dd37a50deb443a7b2126466560ed951" hidden="1">VSTS_ValidationWS_1!$DY$1:$DY$4</definedName>
     <definedName name="VSTS_ValidationRange_0e4897874de349668c851a84de982ce9" hidden="1">VSTS_ValidationWS_1!$EJ$1:$EJ$10</definedName>
-    <definedName name="VSTS_ValidationRange_0ffd83c9e920459ead0dd851074c7f87" hidden="1">VSTS_ValidationWS_1!$I$1:$I$10</definedName>
     <definedName name="VSTS_ValidationRange_10b6efc8684e49b382d3063779d509b7" hidden="1">VSTS_ValidationWS_1!$CJ$1:$CJ$3</definedName>
     <definedName name="VSTS_ValidationRange_10bd9fad70d347348f02b572bb3df919" hidden="1">VSTS_ValidationWS_1!$W$1:$W$10</definedName>
     <definedName name="VSTS_ValidationRange_11999d2540bb45d8af10c5c6ec22c53d" hidden="1">VSTS_ValidationWS_1!$DR$1:$DR$4</definedName>
@@ -67,137 +82,162 @@
     <definedName name="VSTS_ValidationRange_1296aae7b89d4c4fa0c5e2af5eea8481" hidden="1">VSTS_ValidationWS_1!$Q$1:$Q$4</definedName>
     <definedName name="VSTS_ValidationRange_1325158c2ce3468ea52650bd200dc89e" hidden="1">VSTS_ValidationWS_1!$AA$1:$AA$4</definedName>
     <definedName name="VSTS_ValidationRange_1382b76314e54b108cf11a385f6b4dae" hidden="1">VSTS_ValidationWS_1!$DD$1:$DD$4</definedName>
+    <definedName name="VSTS_ValidationRange_1581e19964de463abbc4388974c887b7" hidden="1">VSTS_ValidationWS_1!$FE$1:$FE$17</definedName>
+    <definedName name="VSTS_ValidationRange_161cc7bcf9a84293a96a315e8786dac7" hidden="1">VSTS_ValidationWS_1!$FL$1:$FL$15</definedName>
     <definedName name="VSTS_ValidationRange_17216d7f6d414e559b091c8d936ccef1" hidden="1">VSTS_ValidationWS_1!$DE$1:$DE$31</definedName>
     <definedName name="VSTS_ValidationRange_17ec66ca0b4842d083d858caaec3e1e3" hidden="1">VSTS_ValidationWS_1!$CR$1:$CR$4</definedName>
-    <definedName name="VSTS_ValidationRange_19b9d36ce53a4779b88e758245d61ffa" hidden="1">VSTS_ValidationWS_1!$AX$1:$AX$10</definedName>
     <definedName name="VSTS_ValidationRange_19c751169dda4810b755a4fbc22a2016" hidden="1">VSTS_ValidationWS_1!$DW$1:$DW$4</definedName>
     <definedName name="VSTS_ValidationRange_1a45f68feedc48799392c3cd3df0a83b" hidden="1">VSTS_ValidationWS_1!$BX$1:$BX$4</definedName>
+    <definedName name="VSTS_ValidationRange_1aa9b7f4427b4693a7d806bcb9c31beb" hidden="1">VSTS_ValidationWS_1!$ER$1:$ER$10</definedName>
+    <definedName name="VSTS_ValidationRange_1b8b0b2e3f494bde9ff076c8314e1192" hidden="1">VSTS_ValidationWS_1!$DL$1:$DL$10</definedName>
     <definedName name="VSTS_ValidationRange_1d827b7738804058be2e75f4abd69f62" hidden="1">VSTS_ValidationWS_1!$EO$1:$EO$3</definedName>
     <definedName name="VSTS_ValidationRange_1de448eb66d04e31abc9d1470e05ac06" hidden="1">VSTS_ValidationWS_1!$CB$1:$CB$3</definedName>
     <definedName name="VSTS_ValidationRange_1fcb4ccc816d4e3ea0e4ddea4b1444a6" hidden="1">VSTS_ValidationWS_1!$EP$1:$EP$3</definedName>
-    <definedName name="VSTS_ValidationRange_21f2a6a83b2c4c5599cf7bb8dfc1f092" hidden="1">VSTS_ValidationWS_1!$K$1:$K$10</definedName>
     <definedName name="VSTS_ValidationRange_261de98fc4444c0abd1470b53c5e6aad" hidden="1">VSTS_ValidationWS_1!$DJ$1:$DJ$2</definedName>
-    <definedName name="VSTS_ValidationRange_262fd8afc1e34f6995f2fdcb9b0653ad" hidden="1">VSTS_ValidationWS_1!$BI$1:$BI$31</definedName>
-    <definedName name="VSTS_ValidationRange_28c4d5ecc4ab45b7b2acdaa2d9bd4a1b" hidden="1">VSTS_ValidationWS_1!$BJ$1:$BJ$4</definedName>
     <definedName name="VSTS_ValidationRange_2e6d8162f1144c6fbe8adf71676067a5" hidden="1">VSTS_ValidationWS_1!$CM$1:$CM$8</definedName>
     <definedName name="VSTS_ValidationRange_2ed1a31c494e4507ab5b97121ccb6d13" hidden="1">VSTS_ValidationWS_1!$DH$1:$DH$4</definedName>
     <definedName name="VSTS_ValidationRange_310eb5d98ce1415a9cc691567a57a073" hidden="1">VSTS_ValidationWS_1!$AN$1:$AN$10</definedName>
+    <definedName name="VSTS_ValidationRange_330a7b53183640d08304808b2a6497b1" hidden="1">VSTS_ValidationWS_1!$FO$1:$FO$4</definedName>
     <definedName name="VSTS_ValidationRange_348ef4c782c2499f8fb86b252e101f46" hidden="1">VSTS_ValidationWS_1!$AQ$1:$AQ$4</definedName>
     <definedName name="VSTS_ValidationRange_34b7557c3d05462c89a1f453b6dbfa26" hidden="1">VSTS_ValidationWS_1!$EB$1:$EB$4</definedName>
+    <definedName name="VSTS_ValidationRange_364a402c975a48b3b503404fb0d65b0d" hidden="1">VSTS_ValidationWS_1!$GK$1:$GK$15</definedName>
     <definedName name="VSTS_ValidationRange_374e28eecdc4466abf9532465b56b8be" hidden="1">VSTS_ValidationWS_1!$DX$1:$DX$4</definedName>
+    <definedName name="VSTS_ValidationRange_375ff3b96b934947a97b8b4831695790" hidden="1">VSTS_ValidationWS_1!$GM$1:$GM$54</definedName>
     <definedName name="VSTS_ValidationRange_379711fc8a9245b785fdc7fee7492056" hidden="1">VSTS_ValidationWS_1!$AJ$1:$AJ$10</definedName>
     <definedName name="VSTS_ValidationRange_3825d927db0a4f7fb0d69611d26fa27d" hidden="1">VSTS_ValidationWS_1!$DP$1:$DP$31</definedName>
     <definedName name="VSTS_ValidationRange_38850653afce486096615a1113e4af32" hidden="1">VSTS_ValidationWS_1!$BW$1:$BW$10</definedName>
-    <definedName name="VSTS_ValidationRange_3ae401b3346b4286b6aba94559fec504" hidden="1">VSTS_ValidationWS_1!$BO$1:$BO$10</definedName>
     <definedName name="VSTS_ValidationRange_3d2750496e8b44c18f7fc29e3b88e904" hidden="1">VSTS_ValidationWS_1!$CT$1:$CT$4</definedName>
     <definedName name="VSTS_ValidationRange_3d539f8b5e214cf09c8dc14e8a7bc987" hidden="1">VSTS_ValidationWS_1!$CL$1:$CL$10</definedName>
     <definedName name="VSTS_ValidationRange_3df38e37d20243be893d8db100bfb24f" hidden="1">VSTS_ValidationWS_1!$BV$1:$BV$4</definedName>
-    <definedName name="VSTS_ValidationRange_3ea06edd5f594d9c95b3d6e33f315bdc" hidden="1">VSTS_ValidationWS_1!$BQ$1:$BQ$10</definedName>
     <definedName name="VSTS_ValidationRange_3ea670897ff84131b94b200d14754a83" hidden="1">VSTS_ValidationWS_1!$P$1:$P$10</definedName>
+    <definedName name="VSTS_ValidationRange_41c2c616acca47b1b60a61a76beb4e90" hidden="1">VSTS_ValidationWS_1!$GX$1</definedName>
+    <definedName name="VSTS_ValidationRange_4206e7f1725e4a94b3d3a60ad5430a6d" hidden="1">VSTS_ValidationWS_1!$EU$1:$EU$10</definedName>
     <definedName name="VSTS_ValidationRange_421cf66e34c1440ea20baf7a19bb1e76" hidden="1">VSTS_ValidationWS_1!$AL$1:$AL$10</definedName>
     <definedName name="VSTS_ValidationRange_42a18d8a5acf467fb208e62252ce23ca" hidden="1">VSTS_ValidationWS_1!$EI$1:$EI$10</definedName>
+    <definedName name="VSTS_ValidationRange_463289bdb7aa42128fdf1bdeeafe8cfa" hidden="1">VSTS_ValidationWS_1!$EW$1:$EW$10</definedName>
+    <definedName name="VSTS_ValidationRange_47c2cab5d34947958084f94fc3802fca" hidden="1">VSTS_ValidationWS_1!$GT$1:$GT$2</definedName>
+    <definedName name="VSTS_ValidationRange_480d5322301546e6adbded61979ddc5e" hidden="1">VSTS_ValidationWS_1!$GJ$1:$GJ$5</definedName>
     <definedName name="VSTS_ValidationRange_49542bb9bea246d7ad193c78bd48dd69" hidden="1">VSTS_ValidationWS_1!$AR$1:$AR$10</definedName>
+    <definedName name="VSTS_ValidationRange_497a235034a848f5a8b6feb6462580d2" hidden="1">VSTS_ValidationWS_1!$FF$1:$FF$11</definedName>
     <definedName name="VSTS_ValidationRange_4997c65481ff4ab8880fe3e9006117b4" hidden="1">VSTS_ValidationWS_1!$DZ$1:$DZ$4</definedName>
     <definedName name="VSTS_ValidationRange_4a5b5789390c408ea3a578afcce0c9b1" hidden="1">VSTS_ValidationWS_1!$DG$1:$DG$10</definedName>
     <definedName name="VSTS_ValidationRange_4a5e0832b1504e07ac3398fa528bf960" hidden="1">VSTS_ValidationWS_1!$EN$1:$EN$3</definedName>
     <definedName name="VSTS_ValidationRange_4cd0cbc787ba4065b917e77a47205298" hidden="1">VSTS_ValidationWS_1!$A$1</definedName>
     <definedName name="VSTS_ValidationRange_4eeaf7e7b3ae4787834001f042eaf175" hidden="1">VSTS_ValidationWS_1!$CI$1:$CI$10</definedName>
+    <definedName name="VSTS_ValidationRange_50ad1b896ab8489cadfe8ff0558350f3" hidden="1">VSTS_ValidationWS_1!$FC$1:$FC$2</definedName>
     <definedName name="VSTS_ValidationRange_50b47663023a4a6381c39970f193a41e" hidden="1">VSTS_ValidationWS_1!$AB$1:$AB$10</definedName>
-    <definedName name="VSTS_ValidationRange_51f3b54def0246e8985710a92ceec692" hidden="1">VSTS_ValidationWS_1!$BG$1:$BG$10</definedName>
     <definedName name="VSTS_ValidationRange_51f8d6c176c64cb580f28488849ff86d" hidden="1">VSTS_ValidationWS_1!$EL$1:$EL$4</definedName>
     <definedName name="VSTS_ValidationRange_540ae1cceb894c829826d4393d2f8d68" hidden="1">VSTS_ValidationWS_1!$AM$1:$AM$10</definedName>
-    <definedName name="VSTS_ValidationRange_545bc3e078d9459ab87ebe0b2ac1d629" hidden="1">VSTS_ValidationWS_1!$E$1:$E$10</definedName>
     <definedName name="VSTS_ValidationRange_54be61a7d03041cf8ff846ccd12cb7b5" hidden="1">VSTS_ValidationWS_1!$AH$1:$AH$4</definedName>
     <definedName name="VSTS_ValidationRange_562229550ca346d2bf74af586c0b44ca" hidden="1">VSTS_ValidationWS_1!$BS$1:$BS$10</definedName>
+    <definedName name="VSTS_ValidationRange_56bbd59b8ec244a2805a689058c9062c" hidden="1">VSTS_ValidationWS_1!$GS$1:$GS$4</definedName>
+    <definedName name="VSTS_ValidationRange_57675ff5a13749a6a45e44e6c461470e" hidden="1">VSTS_ValidationWS_1!$FX$1:$FX$2</definedName>
     <definedName name="VSTS_ValidationRange_583ad28698de438594507283f2f66a8f" hidden="1">VSTS_ValidationWS_1!$S$1:$S$4</definedName>
-    <definedName name="VSTS_ValidationRange_59e347de17824288aa9a57997e395b33" hidden="1">VSTS_ValidationWS_1!$BM$1:$BM$10</definedName>
-    <definedName name="VSTS_ValidationRange_5b661bae67644b35b8911780e4be6451" hidden="1">VSTS_ValidationWS_1!$AY$1:$AY$4</definedName>
+    <definedName name="VSTS_ValidationRange_5aca56a76f334bc293499968cf99ffb1" hidden="1">VSTS_ValidationWS_1!$FS$1:$FS$4</definedName>
+    <definedName name="VSTS_ValidationRange_5cd52066c9de44b48bff0ecff55d3ab8" hidden="1">VSTS_ValidationWS_1!$FN$1:$FN$54</definedName>
     <definedName name="VSTS_ValidationRange_5fb5b0fb5b554ffd9755da59630c167c" hidden="1">VSTS_ValidationWS_1!$DN$1:$DN$10</definedName>
     <definedName name="VSTS_ValidationRange_608de80a87554efc87c53cbc23de5714" hidden="1">VSTS_ValidationWS_1!$ED$1:$ED$10</definedName>
-    <definedName name="VSTS_ValidationRange_60c2cc5f874e47a199d878e493b956a2" hidden="1">VSTS_ValidationWS_1!$BH$1:$BH$3</definedName>
     <definedName name="VSTS_ValidationRange_6207b1360d2f439f90b8048077d975f8" hidden="1">VSTS_ValidationWS_1!$X$1:$X$4</definedName>
+    <definedName name="VSTS_ValidationRange_64811d7ceb704e2198751a206c57c82f" hidden="1">VSTS_ValidationWS_1!$FM$1:$FM$7</definedName>
+    <definedName name="VSTS_ValidationRange_656d5909ef0346698f25bacfe7a779b8" hidden="1">VSTS_ValidationWS_1!$GA$1:$GA$2</definedName>
     <definedName name="VSTS_ValidationRange_657f89a3f534455ab21198b29a605d91" hidden="1">VSTS_ValidationWS_1!$DU$1:$DU$4</definedName>
-    <definedName name="VSTS_ValidationRange_6a148e9cf09544779ebc8ed65c29e2b3" hidden="1">VSTS_ValidationWS_1!$BD$1:$BD$8</definedName>
+    <definedName name="VSTS_ValidationRange_69d3e7aeb13c45eebad2bbb0e7a4c7b0" hidden="1">VSTS_ValidationWS_1!$GB$1:$GB$2</definedName>
     <definedName name="VSTS_ValidationRange_6a308c88771b4c5f996301fb662032cc" hidden="1">VSTS_ValidationWS_1!$CD$1:$CD$4</definedName>
     <definedName name="VSTS_ValidationRange_6c65a2582969487ba981330a9366e33a" hidden="1">VSTS_ValidationWS_1!$EM$1:$EM$4</definedName>
-    <definedName name="VSTS_ValidationRange_6f08d83bbeac4a5fa35ca2e55c3fc627" hidden="1">VSTS_ValidationWS_1!$BC$1:$BC$10</definedName>
-    <definedName name="VSTS_ValidationRange_70a1b0ce5c9747e48a1188df0aad517c" hidden="1">VSTS_ValidationWS_1!$M$1:$M$10</definedName>
-    <definedName name="VSTS_ValidationRange_72fbd1f2000c423c904ee4180d9037ed" hidden="1">VSTS_ValidationWS_1!$J$1:$J$4</definedName>
+    <definedName name="VSTS_ValidationRange_6cfddc844e1947c59c391e5352a4530f" hidden="1">VSTS_ValidationWS_1!$GC$1:$GC$2</definedName>
+    <definedName name="VSTS_ValidationRange_6e28a07ef89c4686a69399491e413327" hidden="1">VSTS_ValidationWS_1!$GN$1:$GN$4</definedName>
+    <definedName name="VSTS_ValidationRange_6f4ff924a95c48289146c1296f42afdf" hidden="1">VSTS_ValidationWS_1!$GP$1:$GP$4</definedName>
+    <definedName name="VSTS_ValidationRange_729e07224add47d997be8c59913e8895" hidden="1">VSTS_ValidationWS_1!$GH$1:$GH$7</definedName>
     <definedName name="VSTS_ValidationRange_73fb24ea9b9343ecb637ff9468a7e9a4" hidden="1">VSTS_ValidationWS_1!$CN$1:$CN$2</definedName>
     <definedName name="VSTS_ValidationRange_74b0f2327a264186871b92aa22cd3aad" hidden="1">VSTS_ValidationWS_1!$O$1:$O$10</definedName>
-    <definedName name="VSTS_ValidationRange_760bc15e4de149788c8efeeb1d6fe28a" hidden="1">VSTS_ValidationWS_1!$BP$1:$BP$10</definedName>
-    <definedName name="VSTS_ValidationRange_7660065f0d8e40839b6abfade6481521" hidden="1">VSTS_ValidationWS_1!$AT$1:$AT$10</definedName>
-    <definedName name="VSTS_ValidationRange_76fa0ae970e74996859a6fa29e46863e" hidden="1">VSTS_ValidationWS_1!$AV$1:$AV$10</definedName>
-    <definedName name="VSTS_ValidationRange_77cb130f225f459c8898d48f03f0f1f9" hidden="1">VSTS_ValidationWS_1!$F$1:$F$4</definedName>
     <definedName name="VSTS_ValidationRange_77ebc73e46f4456eae240616474bca1c" hidden="1">VSTS_ValidationWS_1!$DT$1:$DT$4</definedName>
+    <definedName name="VSTS_ValidationRange_79e9d6139a9c40259b114ab6c67539f9" hidden="1">VSTS_ValidationWS_1!$GG$1:$GG$14</definedName>
     <definedName name="VSTS_ValidationRange_7a88c864cf634f04bc481c12e9949e80" hidden="1">VSTS_ValidationWS_1!$CS$1:$CS$10</definedName>
-    <definedName name="VSTS_ValidationRange_7b2c82be5bf64f7cb8b2e28d5d42a9ae" hidden="1">VSTS_ValidationWS_1!$BR$1:$BR$10</definedName>
-    <definedName name="VSTS_ValidationRange_8042c46fd54947c598c21c1fa91ddfc0" hidden="1">VSTS_ValidationWS_1!$BN$1:$BN$10</definedName>
     <definedName name="VSTS_ValidationRange_8192cfad8e4b4f4d9425e50e341d0758" hidden="1">VSTS_ValidationWS_1!$DV$1:$DV$4</definedName>
     <definedName name="VSTS_ValidationRange_837402743d144ac281ad28e58e4daa10" hidden="1">VSTS_ValidationWS_1!$V$1:$V$4</definedName>
     <definedName name="VSTS_ValidationRange_84f43e2979694770b04f56d2f890a2ad" hidden="1">VSTS_ValidationWS_1!$AI$1:$AI$10</definedName>
     <definedName name="VSTS_ValidationRange_86d07a08ce524817ad77f9504f794d29" hidden="1">VSTS_ValidationWS_1!$BU$1:$BU$10</definedName>
+    <definedName name="VSTS_ValidationRange_884dfaa5443644d3a0fbb42ea64046a9" hidden="1">VSTS_ValidationWS_1!$FA$1:$FA$2</definedName>
     <definedName name="VSTS_ValidationRange_8c899164f43242afbce1bc447d862c43" hidden="1">VSTS_ValidationWS_1!$CF$1:$CF$2</definedName>
     <definedName name="VSTS_ValidationRange_8cb0173b580c4340b324c1d27407bdf0" hidden="1">VSTS_ValidationWS_1!$AO$1:$AO$4</definedName>
+    <definedName name="VSTS_ValidationRange_8d0f1b9e91fe4a429ab551f55b680b30" hidden="1">VSTS_ValidationWS_1!$BE$1:$BE$10</definedName>
     <definedName name="VSTS_ValidationRange_8f88985e09fa42cb8ff292674a666561" hidden="1">VSTS_ValidationWS_1!$EK$1:$EK$10</definedName>
-    <definedName name="VSTS_ValidationRange_90574a565fd042578431ccfbafdf5a9b" hidden="1">VSTS_ValidationWS_1!$BB$1:$BB$9</definedName>
     <definedName name="VSTS_ValidationRange_91b3e874c40a4ed1850e55198a0ac8c1" hidden="1">VSTS_ValidationWS_1!$Z$1:$Z$10</definedName>
     <definedName name="VSTS_ValidationRange_92c697e41427428c82f5773aa12f5c09" hidden="1">VSTS_ValidationWS_1!$U$1:$U$10</definedName>
+    <definedName name="VSTS_ValidationRange_93a0de2bfeeb4824a2803764a38e1d64" hidden="1">VSTS_ValidationWS_1!$GQ$1:$GQ$4</definedName>
     <definedName name="VSTS_ValidationRange_94a3736506ff4c1cb44a06919ea94b5d" hidden="1">VSTS_ValidationWS_1!$AD$1:$AD$10</definedName>
-    <definedName name="VSTS_ValidationRange_94bd3b892197474d9554669c6ed4b832" hidden="1">VSTS_ValidationWS_1!$L$1:$L$4</definedName>
     <definedName name="VSTS_ValidationRange_94d835780bf04b7189278af0d4b06a08" hidden="1">VSTS_ValidationWS_1!$AF$1:$AF$4</definedName>
-    <definedName name="VSTS_ValidationRange_96ec233959b643888b839478b088a6a8" hidden="1">VSTS_ValidationWS_1!$AU$1:$AU$4</definedName>
-    <definedName name="VSTS_ValidationRange_97396025b5904d6f9ac11f4a607f6a62" hidden="1">VSTS_ValidationWS_1!$H$1:$H$4</definedName>
-    <definedName name="VSTS_ValidationRange_981f15a179954ae8967b6ec14e195d18" hidden="1">VSTS_ValidationWS_1!$CK$1:$CK$9</definedName>
+    <definedName name="VSTS_ValidationRange_981f15a179954ae8967b6ec14e195d18" hidden="1">VSTS_ValidationWS_1!$FU$1:$FU$9</definedName>
     <definedName name="VSTS_ValidationRange_999f5125cd5d4dca8ab4a67d6899f0fc" hidden="1">VSTS_ValidationWS_1!$AE$1:$AE$10</definedName>
+    <definedName name="VSTS_ValidationRange_9a82b0c0efe5427aa644d5fd4d2b2905" hidden="1">VSTS_ValidationWS_1!$FP$1:$FP$4</definedName>
+    <definedName name="VSTS_ValidationRange_9c9305697b20450094c71cec1d6a6008" hidden="1">VSTS_ValidationWS_1!$ES$1:$ES$10</definedName>
     <definedName name="VSTS_ValidationRange_9cc27bd7723b42489d85e11585b1df47" hidden="1">VSTS_ValidationWS_1!$T$1:$T$10</definedName>
     <definedName name="VSTS_ValidationRange_9cc54e3446c44375905c752c15ae518b" hidden="1">VSTS_ValidationWS_1!$DS$1:$DS$4</definedName>
     <definedName name="VSTS_ValidationRange_9e9b90b25583430c8cfd2f6eda10174c" hidden="1">VSTS_ValidationWS_1!$DK$1:$DK$3</definedName>
+    <definedName name="VSTS_ValidationRange_9f334c4ee8ec462ebaacf3021b7ba296" hidden="1">VSTS_ValidationWS_1!$GV$1</definedName>
+    <definedName name="VSTS_ValidationRange_9f3d2c7e90294fd59047f24efce4c52e" hidden="1">VSTS_ValidationWS_1!$ET$1:$ET$10</definedName>
     <definedName name="VSTS_ValidationRange_a2f47a28be834c5597b16f091c9d57b8" hidden="1">VSTS_ValidationWS_1!$CC$1:$CC$10</definedName>
+    <definedName name="VSTS_ValidationRange_a308278f1ce84e9bbf2191c5f14fa330" hidden="1">VSTS_ValidationWS_1!$GD$1:$GD$17</definedName>
+    <definedName name="VSTS_ValidationRange_a4514b7a5f0b4724a7ba55cfbc80b059" hidden="1">VSTS_ValidationWS_1!$FZ$1:$FZ$2</definedName>
     <definedName name="VSTS_ValidationRange_a51876cec33747ec802469092402fa92" hidden="1">VSTS_ValidationWS_1!$DA$1:$DA$10</definedName>
     <definedName name="VSTS_ValidationRange_a5d1431b736148b888143ca9ca0e736d" hidden="1">VSTS_ValidationWS_1!$CU$1:$CU$10</definedName>
     <definedName name="VSTS_ValidationRange_a6f4d696bf52433cbbcc1a7927700917" hidden="1">VSTS_ValidationWS_1!$B$1</definedName>
-    <definedName name="VSTS_ValidationRange_a71ae94d8a324a57b66200d5b5af0b53" hidden="1">VSTS_ValidationWS_1!$BK$1:$BK$10</definedName>
     <definedName name="VSTS_ValidationRange_a8e341a001244aa2824ec2be49d13d67" hidden="1">VSTS_ValidationWS_1!$R$1:$R$10</definedName>
+    <definedName name="VSTS_ValidationRange_ad74b3cd2d13485ebf949a71877a4c7e" hidden="1">VSTS_ValidationWS_1!$EZ$1:$EZ$2</definedName>
     <definedName name="VSTS_ValidationRange_b1853eea98a04e4f8bcc2302670dc854" hidden="1">VSTS_ValidationWS_1!$AG$1:$AG$10</definedName>
+    <definedName name="VSTS_ValidationRange_b50c7628e4594adf81d069de277f2819" hidden="1">VSTS_ValidationWS_1!$GU$1:$GU$4</definedName>
     <definedName name="VSTS_ValidationRange_b74eb23fcd444539919c10c4fa860f87" hidden="1">VSTS_ValidationWS_1!$AK$1:$AK$3</definedName>
     <definedName name="VSTS_ValidationRange_b7a012d26c2f48cdbfc7814305704424" hidden="1">VSTS_ValidationWS_1!$BZ$1:$BZ$4</definedName>
     <definedName name="VSTS_ValidationRange_b82cb690db2443169d61a6088f296307" hidden="1">VSTS_ValidationWS_1!$Y$1:$Y$10</definedName>
     <definedName name="VSTS_ValidationRange_b962eee69f074ac99ffeac1853edf925" hidden="1">VSTS_ValidationWS_1!$EH$1:$EH$10</definedName>
     <definedName name="VSTS_ValidationRange_b9772b4c0b704789b772a2311e38b183" hidden="1">VSTS_ValidationWS_1!$CW$1:$CW$3</definedName>
-    <definedName name="VSTS_ValidationRange_c88f18d42d764c41ad2f4a803f6ef62c" hidden="1">VSTS_ValidationWS_1!$N$1:$N$3</definedName>
+    <definedName name="VSTS_ValidationRange_c41400d4881d4d27bb068eda7501612a" hidden="1">VSTS_ValidationWS_1!$FK$1:$FK$5</definedName>
+    <definedName name="VSTS_ValidationRange_c571401a0e6444f992dbc053bd6af920" hidden="1">VSTS_ValidationWS_1!$CY$1:$CY$10</definedName>
+    <definedName name="VSTS_ValidationRange_c63899357413439c9c740a653817fef3" hidden="1">VSTS_ValidationWS_1!$GR$1:$GR$4</definedName>
+    <definedName name="VSTS_ValidationRange_cacefa2b86874a918fcb6133f623ba5b" hidden="1">VSTS_ValidationWS_1!$GO$1:$GO$4</definedName>
+    <definedName name="VSTS_ValidationRange_d027fae2aecf4ae7a7c0e58c262d23e5" hidden="1">VSTS_ValidationWS_1!$FB$1:$FB$2</definedName>
     <definedName name="VSTS_ValidationRange_d0421e295028449ea4ead535aef9fb5f" hidden="1">VSTS_ValidationWS_1!$DF$1:$DF$4</definedName>
     <definedName name="VSTS_ValidationRange_d0b34ebd3c49483abfa851bf56f45630" hidden="1">VSTS_ValidationWS_1!$AS$1:$AS$10</definedName>
     <definedName name="VSTS_ValidationRange_d1f44a551a3347b694cc4ba8d0dd763e" hidden="1">VSTS_ValidationWS_1!$BY$1:$BY$10</definedName>
+    <definedName name="VSTS_ValidationRange_d202fad5705f46a3a8085b40020beeaa" hidden="1">VSTS_ValidationWS_1!$EV$1:$EV$10</definedName>
     <definedName name="VSTS_ValidationRange_d2c92cca61fa419db4a846368f1b8686" hidden="1">VSTS_ValidationWS_1!$AP$1:$AP$10</definedName>
     <definedName name="VSTS_ValidationRange_d6f752f2f3214c658af67c05efa67441" hidden="1">VSTS_ValidationWS_1!$DQ$1:$DQ$4</definedName>
     <definedName name="VSTS_ValidationRange_d7280bfb37e0435798114a65224837a0" hidden="1">VSTS_ValidationWS_1!$CQ$1:$CQ$10</definedName>
-    <definedName name="VSTS_ValidationRange_d78b2d5ebe2446e0950bad3476a45107" hidden="1">VSTS_ValidationWS_1!$AZ$1:$AZ$10</definedName>
     <definedName name="VSTS_ValidationRange_d7d5b063c9e74562b0a9de8b323fa4a9" hidden="1">VSTS_ValidationWS_1!$C$1</definedName>
     <definedName name="VSTS_ValidationRange_d9f63bd67e6f4d49be151e568443ea41" hidden="1">VSTS_ValidationWS_1!$CZ$1:$CZ$10</definedName>
+    <definedName name="VSTS_ValidationRange_daa0c20a3eae4b1dac4f905fb787f000" hidden="1">VSTS_ValidationWS_1!$FH$1:$FH$14</definedName>
+    <definedName name="VSTS_ValidationRange_dff5080cfadb4b1e92f04773e959b792" hidden="1">VSTS_ValidationWS_1!$FW$1:$FW$4</definedName>
     <definedName name="VSTS_ValidationRange_e0d53bd545d84d7a82a89b304b76edf2" hidden="1">VSTS_ValidationWS_1!$CE$1:$CE$10</definedName>
     <definedName name="VSTS_ValidationRange_e16c793f73a04150b6f12555bede9f1e" hidden="1">VSTS_ValidationWS_1!$CP$1:$CP$10</definedName>
     <definedName name="VSTS_ValidationRange_e280842ebd4345d2aa47cc318a1fab78" hidden="1">VSTS_ValidationWS_1!$D$1</definedName>
+    <definedName name="VSTS_ValidationRange_e2d1dd46e32244369f99b525200bf939" hidden="1">VSTS_ValidationWS_1!$FQ$1:$FQ$4</definedName>
     <definedName name="VSTS_ValidationRange_e3e3441f924547d88e3503e626f5d7b0" hidden="1">VSTS_ValidationWS_1!$EE$1:$EE$10</definedName>
+    <definedName name="VSTS_ValidationRange_e56eceb237fc43469c16229f366d81e6" hidden="1">VSTS_ValidationWS_1!$GI$1:$GI$10</definedName>
     <definedName name="VSTS_ValidationRange_e772b55a50b94bcbbb3c01d66301465a" hidden="1">VSTS_ValidationWS_1!$EC$1:$EC$4</definedName>
-    <definedName name="VSTS_ValidationRange_eaee1d5e1afa40ee803433b7c93f28e6" hidden="1">VSTS_ValidationWS_1!$AW$1:$AW$2</definedName>
+    <definedName name="VSTS_ValidationRange_eab9c2cb200c4456a2abb0b3bf88fd42" hidden="1">VSTS_ValidationWS_1!$FR$1:$FR$4</definedName>
     <definedName name="VSTS_ValidationRange_eb10a3235ab44c13bea863f2494297d7" hidden="1">VSTS_ValidationWS_1!$DO$1:$DO$2</definedName>
     <definedName name="VSTS_ValidationRange_ebb45773be104c6e9609651f744f7f7f" hidden="1">VSTS_ValidationWS_1!$CH$1:$CH$4</definedName>
+    <definedName name="VSTS_ValidationRange_ebe7452b384c4c9788a15c5632c2a798" hidden="1">VSTS_ValidationWS_1!$FG$1:$FG$12</definedName>
+    <definedName name="VSTS_ValidationRange_ed16f3f667a741b79a66e7fd43d8884f" hidden="1">VSTS_ValidationWS_1!$FV$1:$FV$2</definedName>
     <definedName name="VSTS_ValidationRange_ed8b013a63414f2ea5a03f3be85cb756" hidden="1">VSTS_ValidationWS_1!$EG$1:$EG$10</definedName>
     <definedName name="VSTS_ValidationRange_f009fb4df3e04abc9e71445dfdb53f8c" hidden="1">VSTS_ValidationWS_1!$DC$1:$DC$10</definedName>
     <definedName name="VSTS_ValidationRange_f315dee35702464796c85ad02d63afa0" hidden="1">VSTS_ValidationWS_1!$AC$1:$AC$4</definedName>
+    <definedName name="VSTS_ValidationRange_f4c3e17536e24fce9be102ded72a596b" hidden="1">VSTS_ValidationWS_1!$GW$1:$GW$9</definedName>
+    <definedName name="VSTS_ValidationRange_f5de84c9c55944bdb700c2d3e3110a7b" hidden="1">VSTS_ValidationWS_1!$GF$1:$GF$12</definedName>
     <definedName name="VSTS_ValidationRange_f6cb365c228447539aaf5ccc66eb097c" hidden="1">VSTS_ValidationWS_1!$CA$1:$CA$10</definedName>
     <definedName name="VSTS_ValidationRange_f735f3ada8ea4d00a9ac0d670ec51e32" hidden="1">VSTS_ValidationWS_1!$CO$1:$CO$4</definedName>
+    <definedName name="VSTS_ValidationRange_f7963028a65a475c8e5a41772ede1343" hidden="1">VSTS_ValidationWS_1!$FI$1:$FI$7</definedName>
     <definedName name="VSTS_ValidationRange_f7c73e28c0284c96ae493299583c7ed0" hidden="1">VSTS_ValidationWS_1!$DI$1:$DI$4</definedName>
-    <definedName name="VSTS_ValidationRange_f99dcdeef7da4521b4e0f853d623f369" hidden="1">VSTS_ValidationWS_1!$G$1:$G$10</definedName>
+    <definedName name="VSTS_ValidationRange_f9265695461446328d5e62af685083b6" hidden="1">VSTS_ValidationWS_1!$GY$1:$GY$2</definedName>
     <definedName name="VSTS_ValidationRange_fcb6fbf7e0b74bd1a92cfa55c055dd7f" hidden="1">VSTS_ValidationWS_1!$DB$1:$DB$8</definedName>
+    <definedName name="VSTS_ValidationRange_fce3bc2834fe408e9d8dc8d4b6239908" hidden="1">VSTS_ValidationWS_1!$FT$1:$FT$4</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="396">
   <si>
     <t>ID</t>
   </si>
@@ -815,106 +855,7 @@
     <t>To produce completed UI design of the whole system (include all pages) - prepare before development start</t>
   </si>
   <si>
-    <t>all_VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_Bug_System.AssignedTo</t>
-  </si>
-  <si>
-    <t>all_VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_Bug_System.State</t>
-  </si>
-  <si>
-    <t>all_VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_Change Request_System.AssignedTo</t>
-  </si>
-  <si>
-    <t>all_VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_Change Request_System.State</t>
-  </si>
-  <si>
-    <t>all_VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_Issue_System.AssignedTo</t>
-  </si>
-  <si>
-    <t>all_VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_Issue_System.State</t>
-  </si>
-  <si>
-    <t>all_VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_Requirement_System.AssignedTo</t>
-  </si>
-  <si>
-    <t>all_VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_Requirement_System.State</t>
-  </si>
-  <si>
-    <t>all_VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_Review_System.AssignedTo</t>
-  </si>
-  <si>
-    <t>all_VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_Review_System.State</t>
-  </si>
-  <si>
-    <t>all_VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_Risk_System.AssignedTo</t>
-  </si>
-  <si>
-    <t>all_VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_Risk_System.State</t>
-  </si>
-  <si>
-    <t>all_VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_Shared Steps_System.AssignedTo</t>
-  </si>
-  <si>
-    <t>all_VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_Shared Steps_System.State</t>
-  </si>
-  <si>
-    <t>all_VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_Task_System.AssignedTo</t>
-  </si>
-  <si>
-    <t>all_VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_Task_System.State</t>
-  </si>
-  <si>
-    <t>all_VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_Test Case_System.AssignedTo</t>
-  </si>
-  <si>
-    <t>all_VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_Test Case_System.State</t>
-  </si>
-  <si>
-    <t>all_VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_System.WorkItemType</t>
-  </si>
-  <si>
-    <t>all_VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_System.AssignedTo</t>
-  </si>
-  <si>
-    <t>all_VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_System.State</t>
-  </si>
-  <si>
-    <t>all_VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_System.AreaPath</t>
-  </si>
-  <si>
-    <t>all_VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_System.IterationPath</t>
-  </si>
-  <si>
-    <t>VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_63-3D-6E-FD-05-A5-E3-0A-3D-3B-27-25-0E-09-89-A2-24-50-7D-FA</t>
-  </si>
-  <si>
-    <t>VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_26-FF-DE-08-0D-C9-09-53-1F-05-FD-90-D7-AD-D4-D5-FF-6A-89-45</t>
-  </si>
-  <si>
     <t>Resolved Date</t>
-  </si>
-  <si>
-    <t>all_VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_Bug_Microsoft.VSTS.Common.ResolvedBy</t>
-  </si>
-  <si>
-    <t>all_VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_Change Request_Microsoft.VSTS.Common.ResolvedBy</t>
-  </si>
-  <si>
-    <t>all_VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_Issue_Microsoft.VSTS.Common.ResolvedBy</t>
-  </si>
-  <si>
-    <t>all_VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_Requirement_Microsoft.VSTS.Common.ResolvedBy</t>
-  </si>
-  <si>
-    <t>all_VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_Review_Microsoft.VSTS.Common.ResolvedBy</t>
-  </si>
-  <si>
-    <t>all_VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_Risk_Microsoft.VSTS.Common.ResolvedBy</t>
-  </si>
-  <si>
-    <t>all_VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_Task_Microsoft.VSTS.Common.ResolvedBy</t>
-  </si>
-  <si>
-    <t>all_VSTS_ab6d703e_6d0c_4d18_abd0_a67eae3ef4d5_Microsoft.VSTS.Common.ResolvedBy</t>
   </si>
   <si>
     <t>all_VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_Bug_System.AssignedTo</t>
@@ -1295,6 +1236,391 @@
   </si>
   <si>
     <t>Update and Review all the UCRR (Analysis)</t>
+  </si>
+  <si>
+    <t>Activated By</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Symptom</t>
+  </si>
+  <si>
+    <t>Triage</t>
+  </si>
+  <si>
+    <t>all_VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_Bug_Microsoft.VSTS.Common.ActivatedBy</t>
+  </si>
+  <si>
+    <t>all_VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_Change Request_Microsoft.VSTS.Common.ActivatedBy</t>
+  </si>
+  <si>
+    <t>all_VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_Issue_Microsoft.VSTS.Common.ActivatedBy</t>
+  </si>
+  <si>
+    <t>all_VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_Requirement_Microsoft.VSTS.Common.ActivatedBy</t>
+  </si>
+  <si>
+    <t>all_VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_Review_Microsoft.VSTS.Common.ActivatedBy</t>
+  </si>
+  <si>
+    <t>all_VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_Risk_Microsoft.VSTS.Common.ActivatedBy</t>
+  </si>
+  <si>
+    <t>all_VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_Shared Steps_Microsoft.VSTS.Common.ActivatedBy</t>
+  </si>
+  <si>
+    <t>all_VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_Task_Microsoft.VSTS.Common.ActivatedBy</t>
+  </si>
+  <si>
+    <t>all_VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_Test Case_Microsoft.VSTS.Common.ActivatedBy</t>
+  </si>
+  <si>
+    <t>all_VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_Microsoft.VSTS.Common.ActivatedBy</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>all_VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_Bug_Microsoft.VSTS.CMMI.Blocked</t>
+  </si>
+  <si>
+    <t>all_VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_Change Request_Microsoft.VSTS.CMMI.Blocked</t>
+  </si>
+  <si>
+    <t>all_VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_Requirement_Microsoft.VSTS.CMMI.Blocked</t>
+  </si>
+  <si>
+    <t>all_VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_Risk_Microsoft.VSTS.CMMI.Blocked</t>
+  </si>
+  <si>
+    <t>all_VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_Task_Microsoft.VSTS.CMMI.Blocked</t>
+  </si>
+  <si>
+    <t>all_VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_Microsoft.VSTS.CMMI.Blocked</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>As Designed</t>
+  </si>
+  <si>
+    <t>Build Failure</t>
+  </si>
+  <si>
+    <t>Cannot Reproduce</t>
+  </si>
+  <si>
+    <t>Closed in Error</t>
+  </si>
+  <si>
+    <t>Deferred</t>
+  </si>
+  <si>
+    <t>Duplicate</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Investigate</t>
+  </si>
+  <si>
+    <t>Investigation Complete</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Not fixed</t>
+  </si>
+  <si>
+    <t>Obsolete</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Test Failed</t>
+  </si>
+  <si>
+    <t>Verified</t>
+  </si>
+  <si>
+    <t>all_VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_Bug_System.Reason</t>
+  </si>
+  <si>
+    <t>Abandoned</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>Code Complete and System Tested</t>
+  </si>
+  <si>
+    <t>Out-of-scope</t>
+  </si>
+  <si>
+    <t>Validation Test Failed</t>
+  </si>
+  <si>
+    <t>Validation Test Passed</t>
+  </si>
+  <si>
+    <t>all_VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_Change Request_System.Reason</t>
+  </si>
+  <si>
+    <t>Overtaken by events</t>
+  </si>
+  <si>
+    <t>Rejected (not an issue)</t>
+  </si>
+  <si>
+    <t>Re-occurred</t>
+  </si>
+  <si>
+    <t>Re-opened</t>
+  </si>
+  <si>
+    <t>Resolution Verified and Accepted</t>
+  </si>
+  <si>
+    <t>Rework</t>
+  </si>
+  <si>
+    <t>all_VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_Issue_System.Reason</t>
+  </si>
+  <si>
+    <t>Code Complete and System Test Passed</t>
+  </si>
+  <si>
+    <t>Postponed</t>
+  </si>
+  <si>
+    <t>Reintroduced in Scope</t>
+  </si>
+  <si>
+    <t>Split</t>
+  </si>
+  <si>
+    <t>all_VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_Requirement_System.Reason</t>
+  </si>
+  <si>
+    <t>Accepted (as is)</t>
+  </si>
+  <si>
+    <t>Accepted with Major Changes</t>
+  </si>
+  <si>
+    <t>Accepted with Minor Changes</t>
+  </si>
+  <si>
+    <t>Major Changes Complete</t>
+  </si>
+  <si>
+    <t>Minor Changes Complete</t>
+  </si>
+  <si>
+    <t>all_VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_Review_System.Reason</t>
+  </si>
+  <si>
+    <t>Accepted (won't mitigate)</t>
+  </si>
+  <si>
+    <t>Eliminated</t>
+  </si>
+  <si>
+    <t>Mitigated</t>
+  </si>
+  <si>
+    <t>Mitigation Action Complete</t>
+  </si>
+  <si>
+    <t>Mitigation Action Unsatisfactory (rework)</t>
+  </si>
+  <si>
+    <t>Mitigation Triggered</t>
+  </si>
+  <si>
+    <t>all_VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_Risk_System.Reason</t>
+  </si>
+  <si>
+    <t>Reactivated</t>
+  </si>
+  <si>
+    <t>all_VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_Shared Steps_System.Reason</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>Complete and Does Not Require Review/Test</t>
+  </si>
+  <si>
+    <t>Complete and Requires Review/Test</t>
+  </si>
+  <si>
+    <t>Cut</t>
+  </si>
+  <si>
+    <t>Review/Test Failed</t>
+  </si>
+  <si>
+    <t>Review/Test Passed</t>
+  </si>
+  <si>
+    <t>all_VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_Task_System.Reason</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Update Test Case</t>
+  </si>
+  <si>
+    <t>all_VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_Test Case_System.Reason</t>
+  </si>
+  <si>
+    <t>all_VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_System.Reason</t>
+  </si>
+  <si>
+    <t>Info Received</t>
+  </si>
+  <si>
+    <t>More Info</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Triaged</t>
+  </si>
+  <si>
+    <t>all_VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_Bug_Microsoft.VSTS.Common.Triage</t>
+  </si>
+  <si>
+    <t>all_VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_Change Request_Microsoft.VSTS.Common.Triage</t>
+  </si>
+  <si>
+    <t>all_VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_Issue_Microsoft.VSTS.Common.Triage</t>
+  </si>
+  <si>
+    <t>all_VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_Requirement_Microsoft.VSTS.Common.Triage</t>
+  </si>
+  <si>
+    <t>all_VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_Task_Microsoft.VSTS.Common.Triage</t>
+  </si>
+  <si>
+    <t>all_VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_Microsoft.VSTS.Common.Triage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing creating a new bug _x000D_
+</t>
+  </si>
+  <si>
+    <t>The system crashed !</t>
+  </si>
+  <si>
+    <t>VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_20-B5-FF-1A-30-9C-85-1A-A5-5F-41-8C-5C-7D-57-1C-5E-01-21-9C</t>
+  </si>
+  <si>
+    <t>VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d_94-53-34-EB-36-B9-44-D0-24-37-A0-62-B2-E1-13-E8-50-A4-DF-57</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Bug_Microsoft.VSTS.CMMI.Blocked</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Change Request_Microsoft.VSTS.CMMI.Blocked</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Requirement_Microsoft.VSTS.CMMI.Blocked</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Risk_Microsoft.VSTS.CMMI.Blocked</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Task_Microsoft.VSTS.CMMI.Blocked</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Microsoft.VSTS.CMMI.Blocked</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Bug_System.Reason</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Change Request_System.Reason</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Issue_System.Reason</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Requirement_System.Reason</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Review_System.Reason</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Risk_System.Reason</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Shared Steps_System.Reason</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Task_System.Reason</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Test Case_System.Reason</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_System.Reason</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Bug_Microsoft.VSTS.Common.Triage</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Change Request_Microsoft.VSTS.Common.Triage</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Issue_Microsoft.VSTS.Common.Triage</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Requirement_Microsoft.VSTS.Common.Triage</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Task_Microsoft.VSTS.Common.Triage</t>
+  </si>
+  <si>
+    <t>all_VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_Microsoft.VSTS.Common.Triage</t>
+  </si>
+  <si>
+    <t>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_20-B5-FF-1A-30-9C-85-1A-A5-5F-41-8C-5C-7D-57-1C-5E-01-21-9C</t>
+  </si>
+  <si>
+    <t>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_94-53-34-EB-36-B9-44-D0-24-37-A0-62-B2-E1-13-E8-50-A4-DF-57</t>
+  </si>
+  <si>
+    <t>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_59-97-B9-3F-37-D5-23-8F-BD-31-44-27-81-8F-74-99-3A-32-51-FA</t>
+  </si>
+  <si>
+    <t>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_4F-DF-70-5A-5E-58-89-30-F3-EC-F6-04-C2-E7-A9-98-CA-BD-C1-48</t>
+  </si>
+  <si>
+    <t>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_EC-0F-7A-13-B7-B8-F1-00-EB-63-A3-B5-07-10-E1-15-11-B0-2B-46</t>
+  </si>
+  <si>
+    <t>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9_EA-55-57-01-F4-8D-44-13-1B-D3-F3-2D-ED-63-76-D2-FE-33-B2-DB</t>
   </si>
 </sst>
 </file>
@@ -1458,21 +1784,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="41">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1485,25 +1797,16 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1513,6 +1816,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1527,12 +1831,35 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="165" formatCode="[$-409]d/mmm/yy;@"/>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1573,21 +1900,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1622,11 +1934,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1636,7 +1944,37 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="dd\-mmm\-yy\ h:mm\ AM/PM"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1671,11 +2009,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1685,7 +2019,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1839,8 +2173,21 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1856,6 +2203,40 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="dd\-mmm\-yy\ h:mm\ AM/PM"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1884,8 +2265,102 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="[$-409]d/mmm/yy;@"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1917,6 +2392,34 @@
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1928,44 +2431,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9" displayName="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9" ref="A2:Q45" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
-  <autoFilter ref="A2:Q45">
-    <filterColumn colId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9" displayName="VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9" ref="A2:T45" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+  <autoFilter ref="A2:T45">
+    <filterColumn colId="8">
       <filters>
+        <filter val="Assigned"/>
         <filter val="In progress"/>
+        <filter val="Resolved"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A3:R45">
-    <sortCondition ref="D2:D45"/>
+  <sortState ref="A3:S45">
+    <sortCondition ref="E2:E45"/>
   </sortState>
-  <tableColumns count="17">
-    <tableColumn id="1" name="ID" dataDxfId="29"/>
-    <tableColumn id="12" name="Iteration Path" dataDxfId="28"/>
-    <tableColumn id="13" name="Area Path" dataDxfId="10"/>
-    <tableColumn id="4" name="Assigned To" dataDxfId="8"/>
-    <tableColumn id="8" name="Priority" dataDxfId="4"/>
-    <tableColumn id="3" name="Title" dataDxfId="9"/>
-    <tableColumn id="2" name="Description" dataDxfId="14"/>
-    <tableColumn id="7" name="State" dataDxfId="13"/>
-    <tableColumn id="16" name="History" dataDxfId="7"/>
-    <tableColumn id="5" name="Start Date" dataDxfId="27"/>
-    <tableColumn id="6" name="Finish Date" dataDxfId="26"/>
-    <tableColumn id="14" name="Resolved By" dataDxfId="12"/>
-    <tableColumn id="15" name="Resolved Date" dataDxfId="11"/>
-    <tableColumn id="9" name="Original Estimate" dataDxfId="25"/>
-    <tableColumn id="10" name="Remaining Work" dataDxfId="24"/>
-    <tableColumn id="11" name="Completed Work" dataDxfId="6"/>
-    <tableColumn id="17" name="Work Item Type" dataDxfId="5"/>
+  <tableColumns count="20">
+    <tableColumn id="1" name="ID" dataDxfId="38"/>
+    <tableColumn id="12" name="Iteration Path" dataDxfId="37"/>
+    <tableColumn id="13" name="Area Path" dataDxfId="36"/>
+    <tableColumn id="17" name="Work Item Type" dataDxfId="0"/>
+    <tableColumn id="4" name="Assigned To" dataDxfId="35"/>
+    <tableColumn id="8" name="Priority" dataDxfId="34"/>
+    <tableColumn id="3" name="Title" dataDxfId="33"/>
+    <tableColumn id="2" name="Description" dataDxfId="32"/>
+    <tableColumn id="7" name="State" dataDxfId="31"/>
+    <tableColumn id="16" name="History" dataDxfId="30"/>
+    <tableColumn id="9" name="Original Estimate" dataDxfId="6"/>
+    <tableColumn id="11" name="Completed Work" dataDxfId="5"/>
+    <tableColumn id="18" name="Blocked" dataDxfId="4"/>
+    <tableColumn id="19" name="Reason" dataDxfId="3"/>
+    <tableColumn id="20" name="Triage" dataDxfId="1"/>
+    <tableColumn id="5" name="Start Date" dataDxfId="2"/>
+    <tableColumn id="6" name="Finish Date" dataDxfId="29"/>
+    <tableColumn id="14" name="Resolved By" dataDxfId="28"/>
+    <tableColumn id="15" name="Resolved Date" dataDxfId="27"/>
+    <tableColumn id="10" name="Remaining Work" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d" displayName="VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d" ref="A2:I4" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A2:I4"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d" displayName="VSTS_d9cdb1c3_3b79_4351_91a7_e256f1cd916d" ref="A2:Q4" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A2:Q4"/>
+  <tableColumns count="17">
     <tableColumn id="1" name="ID" dataDxfId="23"/>
     <tableColumn id="3" name="Title" dataDxfId="22"/>
     <tableColumn id="6" name="Area Path" dataDxfId="21"/>
@@ -1975,6 +2483,14 @@
     <tableColumn id="8" name="Priority" dataDxfId="17"/>
     <tableColumn id="9" name="Resolved By" dataDxfId="16"/>
     <tableColumn id="10" name="Resolved Date" dataDxfId="15"/>
+    <tableColumn id="2" name="Activated By" dataDxfId="14"/>
+    <tableColumn id="11" name="Blocked" dataDxfId="13"/>
+    <tableColumn id="12" name="Iteration Path" dataDxfId="12"/>
+    <tableColumn id="13" name="Original Estimate" dataDxfId="11"/>
+    <tableColumn id="14" name="Reason" dataDxfId="10"/>
+    <tableColumn id="15" name="Symptom" dataDxfId="9"/>
+    <tableColumn id="16" name="Triage" dataDxfId="8"/>
+    <tableColumn id="17" name="Work Item Type" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2267,35 +2783,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="10" style="10" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="42.28515625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="46" style="10" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="24" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="24" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="24" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="10" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" style="10" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" style="10" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" style="10" customWidth="1"/>
-    <col min="16" max="16" width="20.85546875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" style="10" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="10"/>
+    <col min="3" max="3" width="20.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="41.7109375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="46" style="24" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="24" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" style="24" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" style="10" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" style="10" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="10" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="10" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" style="10" customWidth="1"/>
+    <col min="18" max="18" width="14" style="10" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" style="10" customWidth="1"/>
+    <col min="20" max="20" width="20.42578125" style="10" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>174</v>
       </c>
@@ -2315,8 +2834,11 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
-    </row>
-    <row r="2" spans="1:17" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+    </row>
+    <row r="2" spans="1:20" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
@@ -2326,50 +2848,59 @@
       <c r="C2" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="F2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="G2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="I2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="P2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="Q2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="R2" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="M2" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="N2" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="32" t="s">
+      <c r="S2" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="T2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="72" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:20" ht="72" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>1</v>
       </c>
@@ -2379,44 +2910,53 @@
       <c r="C3" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="18">
+      <c r="F3" s="18">
         <v>1</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="G3" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="11">
+      <c r="J3" s="26"/>
+      <c r="K3" s="19">
+        <v>8</v>
+      </c>
+      <c r="L3" s="19">
+        <v>8</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="P3" s="11">
         <v>40684.333333333336</v>
       </c>
-      <c r="K3" s="11">
+      <c r="Q3" s="11">
         <v>40695.708333333336</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="19">
-        <v>8</v>
-      </c>
-      <c r="O3" s="19">
+      <c r="R3" s="9"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="19">
         <v>64</v>
       </c>
-      <c r="P3" s="19">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:20" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>2</v>
       </c>
@@ -2426,44 +2966,53 @@
       <c r="C4" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="18">
+      <c r="F4" s="18">
         <v>2</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G4" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="11">
+      <c r="J4" s="26"/>
+      <c r="K4" s="19">
+        <v>0</v>
+      </c>
+      <c r="L4" s="19">
+        <v>112</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="P4" s="11">
         <v>40684.333333333336</v>
       </c>
-      <c r="K4" s="11">
+      <c r="Q4" s="11">
         <v>40702.708333333336</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="19">
+      <c r="R4" s="9"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="19">
         <v>0</v>
       </c>
-      <c r="O4" s="19">
-        <v>0</v>
-      </c>
-      <c r="P4" s="19">
-        <v>112</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:20" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>3</v>
       </c>
@@ -2473,44 +3022,53 @@
       <c r="C5" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="18">
+      <c r="F5" s="18">
         <v>2</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="H5" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="11">
+      <c r="J5" s="26"/>
+      <c r="K5" s="19">
+        <v>0</v>
+      </c>
+      <c r="L5" s="19">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P5" s="11">
         <v>40684.333333333336</v>
       </c>
-      <c r="K5" s="11">
+      <c r="Q5" s="11">
         <v>40781.708333333336</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="19">
-        <v>0</v>
-      </c>
-      <c r="O5" s="19">
+      <c r="R5" s="9"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="19">
         <v>112</v>
       </c>
-      <c r="P5" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="48" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:20" ht="48" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>23</v>
       </c>
@@ -2520,45 +3078,54 @@
       <c r="C6" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="18">
+      <c r="F6" s="18">
         <v>1</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="11">
+      <c r="J6" s="26"/>
+      <c r="K6" s="19">
+        <v>12</v>
+      </c>
+      <c r="L6" s="19">
+        <v>4</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P6" s="11">
         <v>40768.028495370374</v>
       </c>
-      <c r="K6" s="11">
+      <c r="Q6" s="11">
         <v>40774.028541666667</v>
       </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="19">
-        <v>12</v>
-      </c>
-      <c r="O6" s="19">
+      <c r="R6" s="9"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="19">
         <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
         <v>8</v>
       </c>
-      <c r="P6" s="19">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>28</v>
       </c>
@@ -2568,45 +3135,54 @@
       <c r="C7" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="18">
+      <c r="F7" s="18">
         <v>1</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G7" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="11">
+      <c r="J7" s="26"/>
+      <c r="K7" s="19">
+        <v>16</v>
+      </c>
+      <c r="L7" s="19">
+        <v>2</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P7" s="11">
         <v>40768.028495370374</v>
       </c>
-      <c r="K7" s="11">
+      <c r="Q7" s="11">
         <v>40775</v>
       </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="19">
-        <v>16</v>
-      </c>
-      <c r="O7" s="19">
+      <c r="R7" s="9"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="19">
         <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
         <v>14</v>
       </c>
-      <c r="P7" s="19">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="48" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:20" ht="48" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>49</v>
       </c>
@@ -2616,45 +3192,54 @@
       <c r="C8" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="18">
+      <c r="F8" s="18">
         <v>2</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G8" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="11">
+      <c r="J8" s="26"/>
+      <c r="K8" s="19">
+        <v>8</v>
+      </c>
+      <c r="L8" s="19">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P8" s="11">
         <v>40776.66914351852</v>
       </c>
-      <c r="K8" s="11">
+      <c r="Q8" s="11">
         <v>40776.669166666667</v>
       </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="19">
-        <v>8</v>
-      </c>
-      <c r="O8" s="19">
+      <c r="R8" s="9"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="19">
         <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
         <v>8</v>
       </c>
-      <c r="P8" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:20" ht="24" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>29</v>
       </c>
@@ -2664,45 +3249,54 @@
       <c r="C9" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="18">
+      <c r="F9" s="18">
         <v>1</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="11">
+      <c r="J9" s="26"/>
+      <c r="K9" s="19">
+        <v>8</v>
+      </c>
+      <c r="L9" s="19">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P9" s="11">
         <v>40768.745127314818</v>
       </c>
-      <c r="K9" s="11">
+      <c r="Q9" s="11">
         <v>40780.745138888888</v>
       </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="19">
-        <v>8</v>
-      </c>
-      <c r="O9" s="19">
+      <c r="R9" s="9"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="19">
         <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
         <v>8</v>
       </c>
-      <c r="P9" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>5</v>
       </c>
@@ -2712,45 +3306,54 @@
       <c r="C10" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="18">
+      <c r="F10" s="18">
         <v>1</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="11">
+      <c r="J10" s="26"/>
+      <c r="K10" s="19">
+        <v>8</v>
+      </c>
+      <c r="L10" s="19">
+        <v>1</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P10" s="11">
         <v>40695.333333333336</v>
       </c>
-      <c r="K10" s="11">
+      <c r="Q10" s="11">
         <v>40787.708333333336</v>
       </c>
-      <c r="L10" s="9"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="19">
-        <v>8</v>
-      </c>
-      <c r="O10" s="19">
+      <c r="R10" s="9"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="19">
         <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
         <v>7</v>
       </c>
-      <c r="P10" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>35</v>
       </c>
@@ -2760,45 +3363,54 @@
       <c r="C11" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="18">
+      <c r="F11" s="18">
         <v>4</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G11" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="11">
+      <c r="J11" s="26"/>
+      <c r="K11" s="19">
+        <v>8</v>
+      </c>
+      <c r="L11" s="19">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P11" s="11">
         <v>40544.028495370374</v>
       </c>
-      <c r="K11" s="11">
+      <c r="Q11" s="11">
         <v>40909</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="19">
-        <v>8</v>
-      </c>
-      <c r="O11" s="19">
+      <c r="R11" s="9"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="19">
         <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
         <v>8</v>
       </c>
-      <c r="P11" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:20" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>10</v>
       </c>
@@ -2808,46 +3420,55 @@
       <c r="C12" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="18">
+      <c r="F12" s="18">
         <v>2</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="H12" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="I12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="11">
+      <c r="J12" s="26"/>
+      <c r="K12" s="19">
+        <v>8</v>
+      </c>
+      <c r="L12" s="19">
+        <v>8</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P12" s="11">
         <v>40695.333333333336</v>
       </c>
-      <c r="K12" s="11">
+      <c r="Q12" s="11">
         <v>40775</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="R12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="25"/>
-      <c r="N12" s="19">
-        <v>8</v>
-      </c>
-      <c r="O12" s="19">
+      <c r="S12" s="25"/>
+      <c r="T12" s="19">
         <v>0</v>
       </c>
-      <c r="P12" s="19">
-        <v>8</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="72" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:20" ht="72" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>14</v>
       </c>
@@ -2857,44 +3478,53 @@
       <c r="C13" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="18">
+      <c r="F13" s="18">
         <v>2</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="G13" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="11">
+      <c r="J13" s="26"/>
+      <c r="K13" s="19">
+        <v>8</v>
+      </c>
+      <c r="L13" s="19">
+        <v>8</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="P13" s="11">
         <v>40695.333333333336</v>
       </c>
-      <c r="K13" s="11">
+      <c r="Q13" s="11">
         <v>40708.708333333336</v>
       </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="19">
-        <v>8</v>
-      </c>
-      <c r="O13" s="19">
+      <c r="R13" s="9"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="19">
         <v>0</v>
       </c>
-      <c r="P13" s="19">
-        <v>8</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="72" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:20" ht="72" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>15</v>
       </c>
@@ -2904,44 +3534,53 @@
       <c r="C14" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="18">
+      <c r="F14" s="18">
         <v>1</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="G14" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="11">
+      <c r="J14" s="26"/>
+      <c r="K14" s="19">
+        <v>0</v>
+      </c>
+      <c r="L14" s="19">
+        <v>12</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="P14" s="11">
         <v>40725.7890162037</v>
       </c>
-      <c r="K14" s="11">
+      <c r="Q14" s="11">
         <v>40785.789050925923</v>
       </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="19">
+      <c r="R14" s="9"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="19">
         <v>0</v>
       </c>
-      <c r="O14" s="19">
-        <v>0</v>
-      </c>
-      <c r="P14" s="19">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:20" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>17</v>
       </c>
@@ -2951,48 +3590,57 @@
       <c r="C15" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="18">
+      <c r="F15" s="18">
         <v>2</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="H15" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="I15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="11">
+      <c r="J15" s="26"/>
+      <c r="K15" s="19">
+        <v>4</v>
+      </c>
+      <c r="L15" s="19">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P15" s="11">
         <v>40695.741099537037</v>
       </c>
-      <c r="K15" s="11">
+      <c r="Q15" s="11">
         <v>40731.741261574076</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="R15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M15" s="25">
+      <c r="S15" s="25">
         <v>40768.741331018522</v>
       </c>
-      <c r="N15" s="19">
+      <c r="T15" s="19">
         <v>4</v>
       </c>
-      <c r="O15" s="19">
-        <v>4</v>
-      </c>
-      <c r="P15" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>18</v>
       </c>
@@ -3002,48 +3650,57 @@
       <c r="C16" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="18">
+      <c r="F16" s="18">
         <v>1</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="G16" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="G16" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="11">
+      <c r="J16" s="26"/>
+      <c r="K16" s="19">
+        <v>8</v>
+      </c>
+      <c r="L16" s="19">
+        <v>8</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="P16" s="11">
         <v>40769.016550925924</v>
       </c>
-      <c r="K16" s="11">
+      <c r="Q16" s="11">
         <v>40769.016597222224</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="R16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M16" s="25">
+      <c r="S16" s="25">
         <v>40705.699756944443</v>
       </c>
-      <c r="N16" s="19">
-        <v>8</v>
-      </c>
-      <c r="O16" s="19">
+      <c r="T16" s="19">
         <v>0</v>
       </c>
-      <c r="P16" s="19">
-        <v>8</v>
-      </c>
-      <c r="Q16" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:20" ht="48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>20</v>
       </c>
@@ -3053,44 +3710,53 @@
       <c r="C17" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="18">
+      <c r="F17" s="18">
         <v>2</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="G17" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="G17" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="11">
+      <c r="J17" s="26"/>
+      <c r="K17" s="19">
+        <v>8</v>
+      </c>
+      <c r="L17" s="19">
+        <v>8</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P17" s="11">
         <v>40768.016226851854</v>
       </c>
-      <c r="K17" s="11">
+      <c r="Q17" s="11">
         <v>40769.016261574077</v>
       </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="19">
-        <v>8</v>
-      </c>
-      <c r="O17" s="19">
+      <c r="R17" s="9"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="19">
         <v>0</v>
       </c>
-      <c r="P17" s="19">
-        <v>8</v>
-      </c>
-      <c r="Q17" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:20" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>27</v>
       </c>
@@ -3100,44 +3766,53 @@
       <c r="C18" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="18">
+      <c r="F18" s="18">
         <v>2</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="G18" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="H18" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="I18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="11">
+      <c r="J18" s="26"/>
+      <c r="K18" s="19">
+        <v>8</v>
+      </c>
+      <c r="L18" s="19">
+        <v>8</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P18" s="11">
         <v>40768.688275462962</v>
       </c>
-      <c r="K18" s="11">
+      <c r="Q18" s="11">
         <v>40775.688414351855</v>
       </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="19">
-        <v>8</v>
-      </c>
-      <c r="O18" s="19">
+      <c r="R18" s="9"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="19">
         <v>0</v>
       </c>
-      <c r="P18" s="19">
-        <v>8</v>
-      </c>
-      <c r="Q18" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:20" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>36</v>
       </c>
@@ -3147,44 +3822,53 @@
       <c r="C19" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="18">
+      <c r="F19" s="18">
         <v>2</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="G19" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="G19" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="11">
+      <c r="J19" s="26"/>
+      <c r="K19" s="19">
+        <v>8</v>
+      </c>
+      <c r="L19" s="19">
+        <v>8</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P19" s="11">
         <v>40768.028495370374</v>
       </c>
-      <c r="K19" s="11">
+      <c r="Q19" s="11">
         <v>40775</v>
       </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="19">
-        <v>8</v>
-      </c>
-      <c r="O19" s="19">
+      <c r="R19" s="9"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="19">
         <v>0</v>
       </c>
-      <c r="P19" s="19">
-        <v>8</v>
-      </c>
-      <c r="Q19" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:20" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>37</v>
       </c>
@@ -3194,44 +3878,53 @@
       <c r="C20" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="18">
+      <c r="F20" s="18">
         <v>2</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="G20" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="G20" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="11">
+      <c r="J20" s="26"/>
+      <c r="K20" s="19">
+        <v>8</v>
+      </c>
+      <c r="L20" s="19">
+        <v>8</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P20" s="11">
         <v>40768.028495370374</v>
       </c>
-      <c r="K20" s="11">
+      <c r="Q20" s="11">
         <v>40775</v>
       </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="19">
-        <v>8</v>
-      </c>
-      <c r="O20" s="19">
+      <c r="R20" s="9"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="19">
         <v>0</v>
       </c>
-      <c r="P20" s="19">
-        <v>8</v>
-      </c>
-      <c r="Q20" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:20" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>38</v>
       </c>
@@ -3241,44 +3934,53 @@
       <c r="C21" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="18">
+      <c r="F21" s="18">
         <v>2</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="G21" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="G21" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="11">
+      <c r="J21" s="26"/>
+      <c r="K21" s="19">
+        <v>8</v>
+      </c>
+      <c r="L21" s="19">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P21" s="11">
         <v>40768.028495370374</v>
       </c>
-      <c r="K21" s="11">
+      <c r="Q21" s="11">
         <v>40775</v>
       </c>
-      <c r="L21" s="9"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="19">
+      <c r="R21" s="9"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="19">
         <v>8</v>
       </c>
-      <c r="O21" s="19">
-        <v>8</v>
-      </c>
-      <c r="P21" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:20" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>40</v>
       </c>
@@ -3288,44 +3990,53 @@
       <c r="C22" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="18">
+      <c r="F22" s="18">
         <v>2</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="G22" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="G22" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="I22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="11">
+      <c r="J22" s="26"/>
+      <c r="K22" s="19">
+        <v>8</v>
+      </c>
+      <c r="L22" s="19">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P22" s="11">
         <v>40768.028495370374</v>
       </c>
-      <c r="K22" s="11">
+      <c r="Q22" s="11">
         <v>40775</v>
       </c>
-      <c r="L22" s="9"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="19">
+      <c r="R22" s="9"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="19">
         <v>8</v>
       </c>
-      <c r="O22" s="19">
-        <v>8</v>
-      </c>
-      <c r="P22" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:20" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>42</v>
       </c>
@@ -3335,44 +4046,53 @@
       <c r="C23" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="18">
+      <c r="F23" s="18">
         <v>1</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="G23" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="H23" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="26"/>
+      <c r="K23" s="19">
+        <v>4</v>
+      </c>
+      <c r="L23" s="19">
+        <v>4</v>
+      </c>
+      <c r="M23" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="H23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="11">
+      <c r="N23" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P23" s="11">
         <v>40768.792037037034</v>
       </c>
-      <c r="K23" s="11">
+      <c r="Q23" s="11">
         <v>40769.792094907411</v>
       </c>
-      <c r="L23" s="9"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="19">
-        <v>4</v>
-      </c>
-      <c r="O23" s="19">
+      <c r="R23" s="9"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="19">
         <v>0</v>
       </c>
-      <c r="P23" s="19">
-        <v>4</v>
-      </c>
-      <c r="Q23" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:20" ht="48" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>51</v>
       </c>
@@ -3382,44 +4102,53 @@
       <c r="C24" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="22">
+      <c r="F24" s="22">
         <v>2</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="G24" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="G24" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="I24" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="26"/>
-      <c r="J24" s="21">
+      <c r="J24" s="26"/>
+      <c r="K24" s="23">
+        <v>30</v>
+      </c>
+      <c r="L24" s="23">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P24" s="21">
         <v>40776.9378125</v>
       </c>
-      <c r="K24" s="21">
+      <c r="Q24" s="21">
         <v>40783.937835648147</v>
       </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="23">
+      <c r="R24" s="14"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="23">
         <v>30</v>
       </c>
-      <c r="O24" s="23">
-        <v>30</v>
-      </c>
-      <c r="P24" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="108" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:20" ht="108" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>21</v>
       </c>
@@ -3429,45 +4158,54 @@
       <c r="C25" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="18">
+      <c r="F25" s="18">
         <v>2</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="G25" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G25" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="I25" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="11">
+      <c r="J25" s="26"/>
+      <c r="K25" s="19">
+        <v>12</v>
+      </c>
+      <c r="L25" s="19">
+        <v>1</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P25" s="11">
         <v>40768.028495370374</v>
       </c>
-      <c r="K25" s="11">
+      <c r="Q25" s="11">
         <v>40775</v>
       </c>
-      <c r="L25" s="9"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="19">
-        <v>12</v>
-      </c>
-      <c r="O25" s="19">
+      <c r="R25" s="9"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="19">
         <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
         <v>11</v>
       </c>
-      <c r="P25" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:20" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>4</v>
       </c>
@@ -3477,49 +4215,58 @@
       <c r="C26" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="18">
+      <c r="F26" s="18">
         <v>1</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="G26" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G26" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="I26" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="11">
+      <c r="J26" s="26"/>
+      <c r="K26" s="19">
+        <v>16</v>
+      </c>
+      <c r="L26" s="19">
+        <v>10</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="P26" s="11">
         <v>40699.333333333336</v>
       </c>
-      <c r="K26" s="11">
+      <c r="Q26" s="11">
         <v>40710.708333333336</v>
       </c>
-      <c r="L26" s="9" t="s">
+      <c r="R26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M26" s="25">
+      <c r="S26" s="25">
         <v>40776.937164351853</v>
       </c>
-      <c r="N26" s="19">
-        <v>16</v>
-      </c>
-      <c r="O26" s="19">
+      <c r="T26" s="19">
         <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
         <v>6</v>
       </c>
-      <c r="P26" s="19">
-        <v>10</v>
-      </c>
-      <c r="Q26" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:20" ht="24" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>30</v>
       </c>
@@ -3529,45 +4276,54 @@
       <c r="C27" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="18">
+      <c r="F27" s="18">
         <v>2</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="G27" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G27" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="I27" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I27" s="26"/>
-      <c r="J27" s="11">
+      <c r="J27" s="26"/>
+      <c r="K27" s="19">
+        <v>8</v>
+      </c>
+      <c r="L27" s="19">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P27" s="11">
         <v>40768.028495370374</v>
       </c>
-      <c r="K27" s="11">
+      <c r="Q27" s="11">
         <v>40775</v>
       </c>
-      <c r="L27" s="9"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="19">
-        <v>8</v>
-      </c>
-      <c r="O27" s="19">
+      <c r="R27" s="9"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="19">
         <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
         <v>8</v>
       </c>
-      <c r="P27" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>31</v>
       </c>
@@ -3577,45 +4333,54 @@
       <c r="C28" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="18">
+      <c r="F28" s="18">
         <v>2</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>176</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>176</v>
       </c>
       <c r="H28" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="I28" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I28" s="26"/>
-      <c r="J28" s="11">
+      <c r="J28" s="26"/>
+      <c r="K28" s="19">
+        <v>8</v>
+      </c>
+      <c r="L28" s="19">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P28" s="11">
         <v>40768.028495370374</v>
       </c>
-      <c r="K28" s="11">
+      <c r="Q28" s="11">
         <v>40775</v>
       </c>
-      <c r="L28" s="9"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="19">
-        <v>8</v>
-      </c>
-      <c r="O28" s="19">
+      <c r="R28" s="9"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="19">
         <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
         <v>8</v>
       </c>
-      <c r="P28" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="48" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:20" ht="48" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>32</v>
       </c>
@@ -3625,45 +4390,54 @@
       <c r="C29" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="18">
+      <c r="F29" s="18">
         <v>2</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>123</v>
       </c>
       <c r="H29" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I29" s="26"/>
-      <c r="J29" s="11">
+      <c r="J29" s="26"/>
+      <c r="K29" s="19">
+        <v>8</v>
+      </c>
+      <c r="L29" s="19">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P29" s="11">
         <v>40768.028495370374</v>
       </c>
-      <c r="K29" s="11">
+      <c r="Q29" s="11">
         <v>40775</v>
       </c>
-      <c r="L29" s="9"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="19">
-        <v>8</v>
-      </c>
-      <c r="O29" s="19">
+      <c r="R29" s="9"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="19">
         <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
         <v>8</v>
       </c>
-      <c r="P29" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:20" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>11</v>
       </c>
@@ -3673,48 +4447,57 @@
       <c r="C30" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="18">
+      <c r="F30" s="18">
         <v>2</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="G30" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="G30" s="26" t="s">
+      <c r="H30" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="I30" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="11">
+      <c r="J30" s="26"/>
+      <c r="K30" s="19">
+        <v>8</v>
+      </c>
+      <c r="L30" s="19">
+        <v>8</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="P30" s="11">
         <v>40768.028495370374</v>
       </c>
-      <c r="K30" s="11">
+      <c r="Q30" s="11">
         <v>40775</v>
       </c>
-      <c r="L30" s="9" t="s">
+      <c r="R30" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M30" s="25">
+      <c r="S30" s="25">
         <v>40704.374583333331</v>
       </c>
-      <c r="N30" s="19">
-        <v>8</v>
-      </c>
-      <c r="O30" s="19">
+      <c r="T30" s="19">
         <v>0</v>
       </c>
-      <c r="P30" s="19">
-        <v>8</v>
-      </c>
-      <c r="Q30" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:20" ht="24" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>39</v>
       </c>
@@ -3724,49 +4507,58 @@
       <c r="C31" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="18">
+      <c r="F31" s="18">
         <v>2</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>116</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>116</v>
       </c>
       <c r="H31" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I31" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I31" s="26"/>
-      <c r="J31" s="11">
+      <c r="J31" s="26"/>
+      <c r="K31" s="19">
+        <v>8</v>
+      </c>
+      <c r="L31" s="19">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="O31" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P31" s="11">
         <v>40768.028495370374</v>
       </c>
-      <c r="K31" s="11">
+      <c r="Q31" s="11">
         <v>40775</v>
       </c>
-      <c r="L31" s="9" t="s">
+      <c r="R31" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M31" s="25">
+      <c r="S31" s="25">
         <v>40776.768240740741</v>
       </c>
-      <c r="N31" s="19">
-        <v>8</v>
-      </c>
-      <c r="O31" s="19">
+      <c r="T31" s="19">
         <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
         <v>8</v>
       </c>
-      <c r="P31" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:20" ht="24" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>25</v>
       </c>
@@ -3776,45 +4568,54 @@
       <c r="C32" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="18">
+      <c r="F32" s="18">
         <v>2</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>114</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>114</v>
       </c>
       <c r="H32" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I32" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I32" s="26"/>
-      <c r="J32" s="11">
+      <c r="J32" s="26"/>
+      <c r="K32" s="19">
+        <v>8</v>
+      </c>
+      <c r="L32" s="19">
+        <v>0</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P32" s="11">
         <v>40768.028495370374</v>
       </c>
-      <c r="K32" s="11">
+      <c r="Q32" s="11">
         <v>40775</v>
       </c>
-      <c r="L32" s="9"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="19">
-        <v>8</v>
-      </c>
-      <c r="O32" s="19">
+      <c r="R32" s="9"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="19">
         <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
         <v>8</v>
       </c>
-      <c r="P32" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:20" ht="24" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>34</v>
       </c>
@@ -3824,45 +4625,54 @@
       <c r="C33" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="18">
+      <c r="F33" s="18">
         <v>3</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>115</v>
       </c>
       <c r="H33" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="I33" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I33" s="26"/>
-      <c r="J33" s="11">
+      <c r="J33" s="26"/>
+      <c r="K33" s="19">
+        <v>8</v>
+      </c>
+      <c r="L33" s="19">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P33" s="11">
         <v>40768.028495370374</v>
       </c>
-      <c r="K33" s="11">
+      <c r="Q33" s="11">
         <v>40775</v>
       </c>
-      <c r="L33" s="9"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="19">
-        <v>8</v>
-      </c>
-      <c r="O33" s="19">
+      <c r="R33" s="9"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="19">
         <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
         <v>8</v>
       </c>
-      <c r="P33" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:20" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>7</v>
       </c>
@@ -3872,42 +4682,51 @@
       <c r="C34" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="18">
+      <c r="F34" s="18">
         <v>2</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="G34" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="G34" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="I34" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I34" s="26"/>
-      <c r="J34" s="11">
+      <c r="J34" s="26"/>
+      <c r="K34" s="19">
+        <v>8</v>
+      </c>
+      <c r="L34" s="19"/>
+      <c r="M34" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="P34" s="11">
         <v>40695.333333333336</v>
       </c>
-      <c r="K34" s="11">
+      <c r="Q34" s="11">
         <v>40775</v>
       </c>
-      <c r="L34" s="9"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="19">
+      <c r="R34" s="9"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="19">
         <v>8</v>
       </c>
-      <c r="O34" s="19">
-        <v>8</v>
-      </c>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:20" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>13</v>
       </c>
@@ -3917,44 +4736,53 @@
       <c r="C35" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="18">
+      <c r="F35" s="18">
         <v>2</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="G35" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="G35" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="I35" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I35" s="26"/>
-      <c r="J35" s="11">
+      <c r="J35" s="26"/>
+      <c r="K35" s="19">
+        <v>16</v>
+      </c>
+      <c r="L35" s="19">
+        <v>16</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P35" s="11">
         <v>40695.333333333336</v>
       </c>
-      <c r="K35" s="11">
+      <c r="Q35" s="11">
         <v>40775</v>
       </c>
-      <c r="L35" s="9"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="19">
-        <v>16</v>
-      </c>
-      <c r="O35" s="19">
+      <c r="R35" s="9"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="19">
         <v>0</v>
       </c>
-      <c r="P35" s="19">
-        <v>16</v>
-      </c>
-      <c r="Q35" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="48" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:20" ht="48" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>19</v>
       </c>
@@ -3964,45 +4792,54 @@
       <c r="C36" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="18">
+      <c r="F36" s="18">
         <v>2</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="G36" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="G36" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="I36" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I36" s="26"/>
-      <c r="J36" s="11">
+      <c r="J36" s="26"/>
+      <c r="K36" s="19">
+        <v>8</v>
+      </c>
+      <c r="L36" s="19">
+        <v>0</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P36" s="11">
         <v>40768.028495370374</v>
       </c>
-      <c r="K36" s="11">
+      <c r="Q36" s="11">
         <v>40775</v>
       </c>
-      <c r="L36" s="9"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="19">
-        <v>8</v>
-      </c>
-      <c r="O36" s="19">
+      <c r="R36" s="9"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="19">
         <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
         <v>8</v>
       </c>
-      <c r="P36" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>26</v>
       </c>
@@ -4012,45 +4849,54 @@
       <c r="C37" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="18">
+      <c r="F37" s="18">
         <v>2</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>117</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>117</v>
       </c>
       <c r="H37" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I37" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I37" s="26"/>
-      <c r="J37" s="11">
+      <c r="J37" s="26"/>
+      <c r="K37" s="19">
+        <v>8</v>
+      </c>
+      <c r="L37" s="19">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="O37" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P37" s="11">
         <v>40768.028495370374</v>
       </c>
-      <c r="K37" s="11">
+      <c r="Q37" s="11">
         <v>40775</v>
       </c>
-      <c r="L37" s="9"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="19">
-        <v>8</v>
-      </c>
-      <c r="O37" s="19">
+      <c r="R37" s="9"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="19">
         <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
         <v>8</v>
       </c>
-      <c r="P37" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="132" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:20" ht="132" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>22</v>
       </c>
@@ -4060,44 +4906,53 @@
       <c r="C38" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="18">
+      <c r="F38" s="18">
         <v>1</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="G38" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="G38" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="I38" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I38" s="26"/>
-      <c r="J38" s="11">
+      <c r="J38" s="26"/>
+      <c r="K38" s="19">
+        <v>24</v>
+      </c>
+      <c r="L38" s="19">
+        <v>24</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="O38" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="P38" s="11">
         <v>40768.028495370374</v>
       </c>
-      <c r="K38" s="11">
+      <c r="Q38" s="11">
         <v>40775</v>
       </c>
-      <c r="L38" s="9"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="19">
-        <v>24</v>
-      </c>
-      <c r="O38" s="19">
+      <c r="R38" s="9"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="19">
         <v>0</v>
       </c>
-      <c r="P38" s="19">
-        <v>24</v>
-      </c>
-      <c r="Q38" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>33</v>
       </c>
@@ -4107,45 +4962,54 @@
       <c r="C39" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="18">
+      <c r="F39" s="18">
         <v>1</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>300</v>
-      </c>
       <c r="G39" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J39" s="26"/>
+      <c r="K39" s="19">
+        <v>8</v>
+      </c>
+      <c r="L39" s="19">
+        <v>0</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N39" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="H39" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I39" s="26"/>
-      <c r="J39" s="11">
+      <c r="O39" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P39" s="11">
         <v>40768.028495370374</v>
       </c>
-      <c r="K39" s="11">
+      <c r="Q39" s="11">
         <v>40779</v>
       </c>
-      <c r="L39" s="9"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="19">
-        <v>8</v>
-      </c>
-      <c r="O39" s="19">
+      <c r="R39" s="9"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="19">
         <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
         <v>8</v>
       </c>
-      <c r="P39" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>24</v>
       </c>
@@ -4155,48 +5019,57 @@
       <c r="C40" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="18">
+      <c r="F40" s="18">
         <v>2</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>167</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>167</v>
       </c>
       <c r="H40" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="I40" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="26"/>
-      <c r="J40" s="11">
+      <c r="J40" s="26"/>
+      <c r="K40" s="19">
+        <v>8</v>
+      </c>
+      <c r="L40" s="19">
+        <v>8</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="O40" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P40" s="11">
         <v>40768.028495370374</v>
       </c>
-      <c r="K40" s="11">
+      <c r="Q40" s="11">
         <v>40775</v>
       </c>
-      <c r="L40" s="9" t="s">
+      <c r="R40" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M40" s="25">
+      <c r="S40" s="25">
         <v>40776.759479166663</v>
       </c>
-      <c r="N40" s="19">
-        <v>8</v>
-      </c>
-      <c r="O40" s="19">
+      <c r="T40" s="19">
         <v>0</v>
       </c>
-      <c r="P40" s="19">
-        <v>8</v>
-      </c>
-      <c r="Q40" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:20" ht="24" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>50</v>
       </c>
@@ -4206,47 +5079,56 @@
       <c r="C41" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E41" s="18">
+      <c r="F41" s="18">
         <v>2</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>122</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>122</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I41" s="26"/>
-      <c r="J41" s="11">
+        <v>122</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J41" s="26"/>
+      <c r="K41" s="19">
+        <v>50</v>
+      </c>
+      <c r="L41" s="19">
+        <v>0</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="O41" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P41" s="11">
         <f ca="1">TODAY()</f>
         <v>40777</v>
       </c>
-      <c r="K41" s="11">
+      <c r="Q41" s="11">
         <f ca="1">TODAY()+7</f>
         <v>40784</v>
       </c>
-      <c r="L41" s="9"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="19">
-        <v>50</v>
-      </c>
-      <c r="O41" s="19">
+      <c r="R41" s="9"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="19">
         <f>VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Original Estimate]]-VSTS_b53978b7_d470_4f54_b4ad_8f6a9c5092d9[[#This Row],[Completed Work]]</f>
         <v>50</v>
       </c>
-      <c r="P41" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:20" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>6</v>
       </c>
@@ -4256,44 +5138,53 @@
       <c r="C42" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="18">
+      <c r="F42" s="18">
         <v>2</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="G42" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G42" s="26" t="s">
-        <v>291</v>
-      </c>
-      <c r="H42" s="9" t="s">
+      <c r="H42" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I42" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I42" s="26"/>
-      <c r="J42" s="11">
+      <c r="J42" s="26"/>
+      <c r="K42" s="19">
+        <v>8</v>
+      </c>
+      <c r="L42" s="19">
+        <v>8</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="O42" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P42" s="11">
         <v>40768.028495370374</v>
       </c>
-      <c r="K42" s="11">
+      <c r="Q42" s="11">
         <v>40775</v>
       </c>
-      <c r="L42" s="9"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="19">
-        <v>8</v>
-      </c>
-      <c r="O42" s="19">
+      <c r="R42" s="9"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="19">
         <v>0</v>
       </c>
-      <c r="P42" s="19">
-        <v>8</v>
-      </c>
-      <c r="Q42" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:20" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>8</v>
       </c>
@@ -4303,48 +5194,57 @@
       <c r="C43" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="18">
+      <c r="F43" s="18">
         <v>2</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="G43" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G43" s="26" t="s">
+      <c r="H43" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="I43" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I43" s="26"/>
-      <c r="J43" s="11">
+      <c r="J43" s="26"/>
+      <c r="K43" s="19">
+        <v>8</v>
+      </c>
+      <c r="L43" s="19">
+        <v>0</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="O43" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P43" s="11">
         <v>40695.333333333336</v>
       </c>
-      <c r="K43" s="11">
+      <c r="Q43" s="11">
         <v>40775</v>
       </c>
-      <c r="L43" s="9" t="s">
+      <c r="R43" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M43" s="25">
+      <c r="S43" s="25">
         <v>40776.768877314818</v>
       </c>
-      <c r="N43" s="19">
+      <c r="T43" s="19">
         <v>8</v>
       </c>
-      <c r="O43" s="19">
-        <v>8</v>
-      </c>
-      <c r="P43" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:20" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>9</v>
       </c>
@@ -4354,44 +5254,53 @@
       <c r="C44" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="18">
+      <c r="F44" s="18">
         <v>2</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="G44" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="G44" s="26" t="s">
+      <c r="H44" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="H44" s="9" t="s">
+      <c r="I44" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I44" s="26"/>
-      <c r="J44" s="11">
+      <c r="J44" s="26"/>
+      <c r="K44" s="19">
+        <v>16</v>
+      </c>
+      <c r="L44" s="19">
+        <v>16</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="O44" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P44" s="11">
         <v>40695.333333333336</v>
       </c>
-      <c r="K44" s="11">
+      <c r="Q44" s="11">
         <v>40708.708333333336</v>
       </c>
-      <c r="L44" s="9"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="19">
-        <v>16</v>
-      </c>
-      <c r="O44" s="19">
+      <c r="R44" s="9"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="19">
         <v>0</v>
       </c>
-      <c r="P44" s="19">
-        <v>16</v>
-      </c>
-      <c r="Q44" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:20" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>12</v>
       </c>
@@ -4401,44 +5310,53 @@
       <c r="C45" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E45" s="18">
+      <c r="F45" s="18">
         <v>1</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="G45" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G45" s="26" t="s">
+      <c r="H45" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="I45" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I45" s="26"/>
-      <c r="J45" s="11">
+      <c r="J45" s="26"/>
+      <c r="K45" s="19">
+        <v>16</v>
+      </c>
+      <c r="L45" s="19">
+        <v>16</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="O45" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P45" s="11">
         <v>40695.333333333336</v>
       </c>
-      <c r="K45" s="11">
+      <c r="Q45" s="11">
         <v>40708.708333333336</v>
       </c>
-      <c r="L45" s="9"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="19">
-        <v>16</v>
-      </c>
-      <c r="O45" s="19">
+      <c r="R45" s="9"/>
+      <c r="S45" s="25"/>
+      <c r="T45" s="19">
         <v>0</v>
       </c>
-      <c r="P45" s="19">
-        <v>16</v>
-      </c>
-      <c r="Q45" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -4457,27 +5375,11 @@
       <c r="P46" s="15"/>
       <c r="Q46" s="15"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
-    </row>
   </sheetData>
-  <dataValidations count="89">
+  <dataValidations xWindow="42" yWindow="286" count="51">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C13:A13 U2:AU2 K1:AS1 416385:C1">
+      <formula1>VSTS_ValidationRange_17216d7f6d414e559b091c8d936ccef1</formula1>
+    </dataValidation>
     <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A2">
       <formula1>"ID"</formula1>
     </dataValidation>
@@ -4488,280 +5390,151 @@
       <formula1>"Area Path"</formula1>
     </dataValidation>
     <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="D2">
+      <formula1>"Work Item Type"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="E2">
       <formula1>"Assigned To"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="E2">
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="F2">
       <formula1>"Priority"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="F2">
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="G2">
       <formula1>"Title"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="G2">
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="H2">
       <formula1>"Description"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="H2">
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="I2">
       <formula1>"State"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="I2">
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="J2">
       <formula1>"History"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="J2">
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="K2">
+      <formula1>"Original Estimate"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="L2">
+      <formula1>"Completed Work"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="M2">
+      <formula1>"Blocked"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="N2">
+      <formula1>"Reason"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="O2">
+      <formula1>"Triage"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="P2">
       <formula1>"Start Date"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="K2">
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="Q2">
       <formula1>"Finish Date"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="L2">
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="R2">
       <formula1>"Resolved By"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="M2">
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="S2">
       <formula1>"Resolved Date"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="N2">
-      <formula1>"Original Estimate"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="O2">
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="T2">
       <formula1>"Remaining Work"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="P2">
-      <formula1>"Completed Work"</formula1>
+    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A41">
+      <formula1>"50"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="Q2">
-      <formula1>"Work Item Type"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A13">
-      <formula1>"14"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="B13">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="B41">
       <formula1>VSTS_ValidationRange_d0421e295028449ea4ead535aef9fb5f</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C13">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C41">
       <formula1>VSTS_ValidationRange_17216d7f6d414e559b091c8d936ccef1</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D13">
+    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="D41">
+      <formula1>"Task"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="E41">
       <formula1>VSTS_ValidationRange_4a5b5789390c408ea3a578afcce0c9b1</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="E13">
+    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="F41">
       <formula1>VSTS_ValidationRange_f7c73e28c0284c96ae493299583c7ed0</formula1>
     </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="F13">
+    <dataValidation type="textLength" showInputMessage="1" sqref="G41">
       <formula1>1</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" sqref="G13">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" sqref="H41">
       <formula1>0</formula1>
       <formula2>32767</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="H13">
-      <formula1>VSTS_ValidationRange_261de98fc4444c0abd1470b53c5e6aad</formula1>
+    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="I41">
+      <formula1>VSTS_ValidationRange_2ed1a31c494e4507ab5b97121ccb6d13</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" prompt="Type a comment here and publish to add a new history entry. After publishing this cell will be cleared." sqref="I13">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" prompt="Type a comment here and publish to add a new history entry. After publishing this cell will be cleared." sqref="J41">
       <formula1>0</formula1>
       <formula2>32767</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="L13">
+    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="M41">
+      <formula1>VSTS_ValidationRange_47c2cab5d34947958084f94fc3802fca</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="N41">
+      <formula1>"Accepted"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="O41">
+      <formula1>VSTS_ValidationRange_b50c7628e4594adf81d069de277f2819</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="R41">
       <formula1>" "</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="M13">
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="S41">
       <formula1>" "</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="Q13">
+    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A29">
+      <formula1>"32"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="B29">
+      <formula1>VSTS_ValidationRange_d0421e295028449ea4ead535aef9fb5f</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C29">
+      <formula1>VSTS_ValidationRange_17216d7f6d414e559b091c8d936ccef1</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="D29">
       <formula1>"Task"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A6">
-      <formula1>"23"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="B6">
-      <formula1>VSTS_ValidationRange_d0421e295028449ea4ead535aef9fb5f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C6">
-      <formula1>VSTS_ValidationRange_17216d7f6d414e559b091c8d936ccef1</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D6">
+    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="E29">
       <formula1>VSTS_ValidationRange_4a5b5789390c408ea3a578afcce0c9b1</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="E6">
+    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="F29">
       <formula1>VSTS_ValidationRange_f7c73e28c0284c96ae493299583c7ed0</formula1>
     </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="F6">
+    <dataValidation type="textLength" showInputMessage="1" sqref="G29">
       <formula1>1</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" sqref="G6">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" sqref="H29">
       <formula1>0</formula1>
       <formula2>32767</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="H6">
+    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="I29">
       <formula1>VSTS_ValidationRange_2ed1a31c494e4507ab5b97121ccb6d13</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" prompt="Type a comment here and publish to add a new history entry. After publishing this cell will be cleared." sqref="I6">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" prompt="Type a comment here and publish to add a new history entry. After publishing this cell will be cleared." sqref="J29">
       <formula1>0</formula1>
       <formula2>32767</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="L6">
+    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="M29">
+      <formula1>VSTS_ValidationRange_47c2cab5d34947958084f94fc3802fca</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="N29">
+      <formula1>"Investigate"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="O29">
+      <formula1>VSTS_ValidationRange_b50c7628e4594adf81d069de277f2819</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="R29">
       <formula1>" "</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="M6">
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="S29">
       <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="Q6">
-      <formula1>"Task"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A8">
-      <formula1>"49"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="B8">
-      <formula1>VSTS_ValidationRange_d0421e295028449ea4ead535aef9fb5f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C8">
-      <formula1>VSTS_ValidationRange_17216d7f6d414e559b091c8d936ccef1</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D8">
-      <formula1>VSTS_ValidationRange_4a5b5789390c408ea3a578afcce0c9b1</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="E8">
-      <formula1>VSTS_ValidationRange_f7c73e28c0284c96ae493299583c7ed0</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="F8">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" sqref="G8">
-      <formula1>0</formula1>
-      <formula2>32767</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="H8">
-      <formula1>VSTS_ValidationRange_2ed1a31c494e4507ab5b97121ccb6d13</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" prompt="Type a comment here and publish to add a new history entry. After publishing this cell will be cleared." sqref="I8">
-      <formula1>0</formula1>
-      <formula2>32767</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="L8">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="M8">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="Q8">
-      <formula1>"Task"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A9">
-      <formula1>"29"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="B9">
-      <formula1>VSTS_ValidationRange_d0421e295028449ea4ead535aef9fb5f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C9">
-      <formula1>VSTS_ValidationRange_17216d7f6d414e559b091c8d936ccef1</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D9">
-      <formula1>VSTS_ValidationRange_4a5b5789390c408ea3a578afcce0c9b1</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="E9">
-      <formula1>VSTS_ValidationRange_f7c73e28c0284c96ae493299583c7ed0</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="F9">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" sqref="G9">
-      <formula1>0</formula1>
-      <formula2>32767</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="H9">
-      <formula1>VSTS_ValidationRange_2ed1a31c494e4507ab5b97121ccb6d13</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" prompt="Type a comment here and publish to add a new history entry. After publishing this cell will be cleared." sqref="I9">
-      <formula1>0</formula1>
-      <formula2>32767</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="L9">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="M9">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="Q9">
-      <formula1>"Task"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A25">
-      <formula1>"21"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="B25">
-      <formula1>VSTS_ValidationRange_d0421e295028449ea4ead535aef9fb5f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C25">
-      <formula1>VSTS_ValidationRange_17216d7f6d414e559b091c8d936ccef1</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D25">
-      <formula1>VSTS_ValidationRange_4a5b5789390c408ea3a578afcce0c9b1</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="E25">
-      <formula1>VSTS_ValidationRange_f7c73e28c0284c96ae493299583c7ed0</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="F25">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" sqref="G25">
-      <formula1>0</formula1>
-      <formula2>32767</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="H25">
-      <formula1>VSTS_ValidationRange_2ed1a31c494e4507ab5b97121ccb6d13</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" prompt="Type a comment here and publish to add a new history entry. After publishing this cell will be cleared." sqref="I25">
-      <formula1>0</formula1>
-      <formula2>32767</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="L25">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="M25">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="Q25">
-      <formula1>"Task"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A7">
-      <formula1>"28"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="B7">
-      <formula1>VSTS_ValidationRange_d0421e295028449ea4ead535aef9fb5f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C7">
-      <formula1>VSTS_ValidationRange_17216d7f6d414e559b091c8d936ccef1</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D7">
-      <formula1>VSTS_ValidationRange_4a5b5789390c408ea3a578afcce0c9b1</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="E7">
-      <formula1>VSTS_ValidationRange_f7c73e28c0284c96ae493299583c7ed0</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="F7">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" sqref="G7">
-      <formula1>0</formula1>
-      <formula2>32767</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="H7">
-      <formula1>VSTS_ValidationRange_2ed1a31c494e4507ab5b97121ccb6d13</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" prompt="Type a comment here and publish to add a new history entry. After publishing this cell will be cleared." sqref="I7">
-      <formula1>0</formula1>
-      <formula2>32767</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="L7">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="M7">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="Q7">
-      <formula1>"Task"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4774,10 +5547,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4791,12 +5564,20 @@
     <col min="7" max="7" width="13.42578125" style="10" customWidth="1"/>
     <col min="8" max="8" width="17" style="10" customWidth="1"/>
     <col min="9" max="9" width="18.5703125" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="10"/>
+    <col min="10" max="10" width="19.28515625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="10" customWidth="1"/>
+    <col min="15" max="15" width="27.7109375" style="10" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="10" customWidth="1"/>
+    <col min="17" max="17" width="22.5703125" style="10" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="8" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -4806,8 +5587,16 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" s="33" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
@@ -4824,7 +5613,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>7</v>
@@ -4833,15 +5622,39 @@
         <v>130</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="P2" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q2" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>41</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>85</v>
@@ -4853,7 +5666,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="G3" s="17">
         <v>4</v>
@@ -4864,13 +5677,35 @@
       <c r="I3" s="25">
         <v>40777.607499999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="26"/>
+      <c r="N3" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>43</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>85</v>
@@ -4882,7 +5717,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="G4" s="17">
         <v>4</v>
@@ -4893,9 +5728,31 @@
       <c r="I4" s="25">
         <v>40777.608483796299</v>
       </c>
+      <c r="J4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" s="26"/>
+      <c r="N4" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="27">
+  <dataValidations count="49">
     <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A2">
       <formula1>"ID"</formula1>
     </dataValidation>
@@ -4922,6 +5779,79 @@
     </dataValidation>
     <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="I2">
       <formula1>"Resolved Date"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="J2">
+      <formula1>"Activated By"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="K2">
+      <formula1>"Blocked"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="L2">
+      <formula1>"Iteration Path"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="M2">
+      <formula1>"Original Estimate"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="N2">
+      <formula1>"Reason"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="O2">
+      <formula1>"Symptom"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="P2">
+      <formula1>"Triage"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="Q2">
+      <formula1>"Work Item Type"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A4">
+      <formula1>"43"</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" showInputMessage="1" sqref="B4">
+      <formula1>1</formula1>
+      <formula2>255</formula2>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C4">
+      <formula1>VSTS_ValidationRange_3825d927db0a4f7fb0d69611d26fa27d</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D4">
+      <formula1>VSTS_ValidationRange_5fb5b0fb5b554ffd9755da59630c167c</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="E4">
+      <formula1>VSTS_ValidationRange_1d827b7738804058be2e75f4abd69f62</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="F4">
+      <formula1>VSTS_ValidationRange_51f8d6c176c64cb580f28488849ff86d</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="G4">
+      <formula1>VSTS_ValidationRange_6c65a2582969487ba981330a9366e33a</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="H4">
+      <formula1>"dio"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="I4">
+      <formula1>"22-08-2011 14:36"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="J4">
+      <formula1>"dio"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="K4">
+      <formula1>VSTS_ValidationRange_ed16f3f667a741b79a66e7fd43d8884f</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="L4">
+      <formula1>VSTS_ValidationRange_0192e907c762480188a6a1ca0a240e56</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="N4">
+      <formula1>"Fixed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="O4">
+      <formula1>"The system crashed !"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="P4">
+      <formula1>VSTS_ValidationRange_dff5080cfadb4b1e92f04773e959b792</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="Q4">
+      <formula1>"Bug"</formula1>
     </dataValidation>
     <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A3">
       <formula1>"41"</formula1>
@@ -4951,33 +5881,27 @@
     <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="I3">
       <formula1>"22-08-2011 14:34"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A4">
-      <formula1>"43"</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="B4">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C4">
-      <formula1>VSTS_ValidationRange_3825d927db0a4f7fb0d69611d26fa27d</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D4">
-      <formula1>VSTS_ValidationRange_5fb5b0fb5b554ffd9755da59630c167c</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="E4">
-      <formula1>VSTS_ValidationRange_1d827b7738804058be2e75f4abd69f62</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="F4">
-      <formula1>VSTS_ValidationRange_51f8d6c176c64cb580f28488849ff86d</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="G4">
-      <formula1>VSTS_ValidationRange_6c65a2582969487ba981330a9366e33a</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="H4">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="J3">
       <formula1>"dio"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="I4">
-      <formula1>"22-08-2011 14:36"</formula1>
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="K3">
+      <formula1>VSTS_ValidationRange_ed16f3f667a741b79a66e7fd43d8884f</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="L3">
+      <formula1>VSTS_ValidationRange_0192e907c762480188a6a1ca0a240e56</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="N3">
+      <formula1>"Verified"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="O3">
+      <formula1>"Testing creating a new bug _x000D_
+"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="P3">
+      <formula1>VSTS_ValidationRange_dff5080cfadb4b1e92f04773e959b792</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="Q3">
+      <formula1>"Bug"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4989,7 +5913,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EQ32"/>
+  <dimension ref="A1:GY55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4998,7 +5922,7 @@
     <col min="1" max="4" width="200.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -5006,41 +5930,11 @@
         <v>11</v>
       </c>
       <c r="C1" s="3">
-        <v>40777.608495370368</v>
+        <v>40777.607499999998</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
@@ -5134,73 +6028,10 @@
       <c r="AS1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AU1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="BS1" s="1" t="s">
@@ -5257,9 +6088,6 @@
       <c r="CJ1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="CK1" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="CL1" s="1" t="s">
         <v>16</v>
       </c>
@@ -5299,6 +6127,9 @@
       <c r="CX1" s="2">
         <v>1</v>
       </c>
+      <c r="CY1" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="CZ1" s="1" t="s">
         <v>16</v>
       </c>
@@ -5335,8 +6166,8 @@
       <c r="DK1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="DM1" s="1" t="s">
-        <v>73</v>
+      <c r="DL1" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="DN1" s="1" t="s">
         <v>16</v>
@@ -5348,16 +6179,16 @@
         <v>73</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="DU1" s="2">
         <v>1</v>
@@ -5411,7 +6242,7 @@
         <v>16</v>
       </c>
       <c r="EL1" s="1" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="EM1" s="2">
         <v>1</v>
@@ -5428,8 +6259,188 @@
       <c r="EQ1" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:147" x14ac:dyDescent="0.25">
+      <c r="ER1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="ES1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="ET1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="EU1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="EV1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="EW1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="EX1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="EY1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="EZ1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="FA1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="FB1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="FC1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="FD1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="FE1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="FF1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="FG1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="FH1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="FI1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="FJ1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="FK1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="FL1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="FM1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="FN1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="FO1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="FP1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="FQ1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="FR1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="FS1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="FT1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="FU1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="FV1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="FW1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="FX1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="FY1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="FZ1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="GA1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="GB1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="GC1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="GD1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="GE1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="GF1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="GG1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="GH1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="GI1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="GJ1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="GK1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="GL1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="GM1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="GN1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="GO1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="GP1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="GQ1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="GR1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="GS1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="GT1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="GU1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="GV1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="GW1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="GX1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="GY1" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:207" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -5442,36 +6453,6 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="O2" s="1" t="s">
         <v>17</v>
       </c>
@@ -5565,73 +6546,10 @@
       <c r="AS2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AU2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="BR2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="BS2" s="1" t="s">
@@ -5688,9 +6606,6 @@
       <c r="CJ2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="CK2" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="CL2" s="1" t="s">
         <v>17</v>
       </c>
@@ -5730,6 +6645,9 @@
       <c r="CX2" s="2">
         <v>2</v>
       </c>
+      <c r="CY2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="CZ2" s="1" t="s">
         <v>17</v>
       </c>
@@ -5766,8 +6684,8 @@
       <c r="DK2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="DM2" s="1" t="s">
-        <v>104</v>
+      <c r="DL2" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="DN2" s="1" t="s">
         <v>17</v>
@@ -5779,16 +6697,16 @@
         <v>74</v>
       </c>
       <c r="DQ2" s="1" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="DR2" s="1" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="DS2" s="1" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="DT2" s="1" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="DU2" s="2">
         <v>2</v>
@@ -5842,7 +6760,7 @@
         <v>17</v>
       </c>
       <c r="EL2" s="1" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="EM2" s="2">
         <v>2</v>
@@ -5859,38 +6777,188 @@
       <c r="EQ2" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="ER2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="ES2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="ET2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="EU2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="EV2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="EW2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="EX2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="EY2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="EZ2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="FA2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="FB2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="FC2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="FD2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="FE2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="FF2" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="FG2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="FH2" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="FI2" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="FJ2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="FK2" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="FL2" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="FM2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="FN2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="FO2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="FP2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="FQ2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="FR2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="FS2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="FT2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="FU2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="FV2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="FW2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="FX2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="FY2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="FZ2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="GA2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="GB2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="GC2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="GD2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="GE2" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="GF2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="GG2" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="GH2" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="GI2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="GJ2" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="GK2" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="GL2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="GM2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="GN2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="GO2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="GP2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="GQ2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="GR2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="GS2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="GT2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="GU2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="GV2" t="s">
+        <v>392</v>
+      </c>
+      <c r="GW2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>394</v>
+      </c>
+      <c r="GY2" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:207" x14ac:dyDescent="0.25">
       <c r="O3" s="1" t="s">
         <v>18</v>
       </c>
@@ -5984,73 +7052,10 @@
       <c r="AS3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AT3" s="1" t="s">
+      <c r="BE3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AU3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>192</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="BR3" s="1" t="s">
+      <c r="BF3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="BS3" s="1" t="s">
@@ -6093,7 +7098,7 @@
         <v>18</v>
       </c>
       <c r="CF3" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="CG3" s="1" t="s">
         <v>18</v>
@@ -6107,9 +7112,6 @@
       <c r="CJ3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="CK3" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="CL3" s="1" t="s">
         <v>18</v>
       </c>
@@ -6149,6 +7151,9 @@
       <c r="CX3" s="2">
         <v>3</v>
       </c>
+      <c r="CY3" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="CZ3" s="1" t="s">
         <v>18</v>
       </c>
@@ -6185,29 +7190,29 @@
       <c r="DK3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="DM3" s="1" t="s">
-        <v>105</v>
+      <c r="DL3" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="DN3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="DO3" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="DP3" s="1" t="s">
         <v>75</v>
       </c>
       <c r="DQ3" s="1" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="DR3" s="1" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="DS3" s="1" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="DT3" s="1" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="DU3" s="2">
         <v>3</v>
@@ -6261,7 +7266,7 @@
         <v>18</v>
       </c>
       <c r="EL3" s="1" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="EM3" s="2">
         <v>3</v>
@@ -6278,38 +7283,182 @@
       <c r="EQ3" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" t="s">
-        <v>188</v>
-      </c>
+      <c r="ER3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="ES3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="ET3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="EU3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="EV3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="EW3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="EX3" t="s">
+        <v>285</v>
+      </c>
+      <c r="EY3" t="s">
+        <v>286</v>
+      </c>
+      <c r="EZ3" t="s">
+        <v>287</v>
+      </c>
+      <c r="FA3" t="s">
+        <v>288</v>
+      </c>
+      <c r="FB3" t="s">
+        <v>289</v>
+      </c>
+      <c r="FC3" t="s">
+        <v>290</v>
+      </c>
+      <c r="FD3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="FE3" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="FF3" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="FG3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="FH3" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="FI3" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="FJ3" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="FK3" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="FL3" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="FM3" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="FN3" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="FO3" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="FP3" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="FQ3" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="FR3" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="FS3" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="FT3" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="FU3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="FV3" t="s">
+        <v>366</v>
+      </c>
+      <c r="FW3" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="FX3" t="s">
+        <v>368</v>
+      </c>
+      <c r="FY3" t="s">
+        <v>369</v>
+      </c>
+      <c r="FZ3" t="s">
+        <v>370</v>
+      </c>
+      <c r="GA3" t="s">
+        <v>371</v>
+      </c>
+      <c r="GB3" t="s">
+        <v>372</v>
+      </c>
+      <c r="GC3" t="s">
+        <v>373</v>
+      </c>
+      <c r="GD3" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="GE3" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="GF3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="GG3" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="GH3" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="GI3" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="GJ3" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="GK3" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="GL3" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="GM3" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="GN3" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="GO3" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="GP3" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="GQ3" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="GR3" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="GS3" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="GT3" t="s">
+        <v>390</v>
+      </c>
+      <c r="GU3" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="GW3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="GY3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:207" x14ac:dyDescent="0.25">
       <c r="O4" s="1" t="s">
         <v>19</v>
       </c>
@@ -6403,70 +7552,10 @@
       <c r="AS4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AT4" s="1" t="s">
+      <c r="BE4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AU4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>196</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>203</v>
-      </c>
-      <c r="BI4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BJ4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BK4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="BL4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="BM4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="BN4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="BO4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="BP4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="BQ4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="BR4" s="1" t="s">
+      <c r="BF4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="BS4" s="1" t="s">
@@ -6497,7 +7586,7 @@
         <v>19</v>
       </c>
       <c r="CB4" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="CC4" s="1" t="s">
         <v>19</v>
@@ -6518,10 +7607,7 @@
         <v>19</v>
       </c>
       <c r="CJ4" t="s">
-        <v>230</v>
-      </c>
-      <c r="CK4" s="1" t="s">
-        <v>63</v>
+        <v>197</v>
       </c>
       <c r="CL4" s="1" t="s">
         <v>19</v>
@@ -6559,6 +7645,9 @@
       <c r="CX4" s="2">
         <v>4</v>
       </c>
+      <c r="CY4" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="CZ4" s="1" t="s">
         <v>19</v>
       </c>
@@ -6592,8 +7681,8 @@
       <c r="DK4" t="s">
         <v>119</v>
       </c>
-      <c r="DM4" s="1" t="s">
-        <v>106</v>
+      <c r="DL4" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="DN4" s="1" t="s">
         <v>19</v>
@@ -6602,16 +7691,16 @@
         <v>76</v>
       </c>
       <c r="DQ4" s="1" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="DR4" s="1" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="DS4" s="1" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="DT4" s="1" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="DU4" s="2">
         <v>4</v>
@@ -6665,16 +7754,16 @@
         <v>19</v>
       </c>
       <c r="EL4" s="1" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="EM4" s="2">
         <v>4</v>
       </c>
       <c r="EN4" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="EO4" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="EP4" t="s">
         <v>139</v>
@@ -6682,35 +7771,137 @@
       <c r="EQ4" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>180</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>182</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s">
-        <v>184</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" t="s">
-        <v>186</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="ER4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="ES4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="ET4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="EU4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="EV4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="EW4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="FD4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="FE4" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="FF4" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="FG4" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="FH4" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="FI4" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="FJ4" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="FK4" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="FL4" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="FM4" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="FN4" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="FO4" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="FP4" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="FQ4" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="FR4" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="FS4" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="FT4" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="FU4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="FW4" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="GD4" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="GE4" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="GF4" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="GG4" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="GH4" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="GI4" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="GJ4" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="GK4" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="GL4" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="GM4" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="GN4" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="GO4" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="GP4" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="GQ4" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="GR4" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="GS4" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="GU4" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="GW4" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:207" x14ac:dyDescent="0.25">
       <c r="O5" s="1" t="s">
         <v>20</v>
       </c>
@@ -6801,89 +7992,35 @@
       <c r="AS5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AT5" s="1" t="s">
+      <c r="BE5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AU5" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>194</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="BD5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="BI5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>201</v>
-      </c>
-      <c r="BK5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="BL5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="BM5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="BN5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="BO5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="BP5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="BQ5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="BR5" s="1" t="s">
+      <c r="BF5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="BS5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="BT5" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="BU5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="BV5" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="BW5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="BX5" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="BY5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="BZ5" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>20</v>
@@ -6892,7 +8029,7 @@
         <v>20</v>
       </c>
       <c r="CD5" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="CE5" s="1" t="s">
         <v>20</v>
@@ -6901,14 +8038,11 @@
         <v>20</v>
       </c>
       <c r="CH5" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="CI5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="CK5" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="CL5" s="1" t="s">
         <v>20</v>
       </c>
@@ -6942,6 +8076,9 @@
       <c r="CX5" t="s">
         <v>59</v>
       </c>
+      <c r="CY5" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="CZ5" s="1" t="s">
         <v>20</v>
       </c>
@@ -6972,8 +8109,8 @@
       <c r="DI5" t="s">
         <v>120</v>
       </c>
-      <c r="DM5" t="s">
-        <v>235</v>
+      <c r="DL5" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="DN5" s="1" t="s">
         <v>20</v>
@@ -6982,43 +8119,43 @@
         <v>77</v>
       </c>
       <c r="DQ5" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="DR5" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="DS5" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="DT5" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="DU5" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="DV5" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="DW5" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="DX5" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="DY5" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="DZ5" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="EA5" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="EB5" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="EC5" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="ED5" s="1" t="s">
         <v>20</v>
@@ -7045,31 +8182,145 @@
         <v>20</v>
       </c>
       <c r="EL5" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="EM5" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="EQ5" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="ER5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="ES5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="ET5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="EU5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="EV5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="EW5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="FD5" t="s">
+        <v>202</v>
+      </c>
+      <c r="FE5" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="FF5" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="FG5" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="FH5" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="FI5" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="FJ5" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="FK5" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="FL5" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="FM5" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="FN5" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="FO5" t="s">
+        <v>358</v>
+      </c>
+      <c r="FP5" t="s">
+        <v>359</v>
+      </c>
+      <c r="FQ5" t="s">
+        <v>360</v>
+      </c>
+      <c r="FR5" t="s">
+        <v>361</v>
+      </c>
+      <c r="FS5" t="s">
+        <v>362</v>
+      </c>
+      <c r="FT5" t="s">
+        <v>363</v>
+      </c>
+      <c r="FU5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="FW5" t="s">
+        <v>367</v>
+      </c>
+      <c r="GD5" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="GE5" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="GF5" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="GG5" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="GH5" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="GI5" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="GJ5" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="GK5" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="GL5" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="GM5" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="GN5" t="s">
+        <v>384</v>
+      </c>
+      <c r="GO5" t="s">
+        <v>385</v>
+      </c>
+      <c r="GP5" t="s">
+        <v>386</v>
+      </c>
+      <c r="GQ5" t="s">
+        <v>387</v>
+      </c>
+      <c r="GR5" t="s">
+        <v>388</v>
+      </c>
+      <c r="GS5" t="s">
+        <v>389</v>
+      </c>
+      <c r="GU5" t="s">
+        <v>391</v>
+      </c>
+      <c r="GW5" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:207" x14ac:dyDescent="0.25">
       <c r="O6" s="1" t="s">
         <v>21</v>
       </c>
@@ -7130,55 +8381,10 @@
       <c r="AS6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AT6" s="1" t="s">
+      <c r="BE6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AV6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BD6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BG6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BI6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BK6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BL6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BM6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BN6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BO6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BP6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BQ6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="BR6" s="1" t="s">
+      <c r="BF6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="BS6" s="1" t="s">
@@ -7208,9 +8414,6 @@
       <c r="CI6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="CK6" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="CL6" s="1" t="s">
         <v>21</v>
       </c>
@@ -7232,6 +8435,9 @@
       <c r="CV6" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="CY6" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="CZ6" s="1" t="s">
         <v>21</v>
       </c>
@@ -7250,6 +8456,9 @@
       <c r="DG6" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="DL6" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="DN6" s="1" t="s">
         <v>21</v>
       </c>
@@ -7283,23 +8492,92 @@
       <c r="EQ6" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="ER6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="ES6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="ET6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="EU6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="EV6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="EW6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="FE6" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="FF6" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="FG6" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="FH6" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="FI6" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="FJ6" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="FK6" t="s">
+        <v>342</v>
+      </c>
+      <c r="FL6" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="FM6" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="FN6" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="FU6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="GD6" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="GE6" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="GF6" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="GG6" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="GH6" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="GI6" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="GJ6" t="s">
+        <v>380</v>
+      </c>
+      <c r="GK6" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="GL6" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="GM6" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="GW6" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:207" x14ac:dyDescent="0.25">
       <c r="O7" s="1" t="s">
         <v>22</v>
       </c>
@@ -7360,55 +8638,10 @@
       <c r="AS7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AT7" s="1" t="s">
+      <c r="BE7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AV7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AX7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BB7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BC7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BD7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BI7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BK7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BL7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BM7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BN7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BO7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BP7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BQ7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BR7" s="1" t="s">
+      <c r="BF7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="BS7" s="1" t="s">
@@ -7438,9 +8671,6 @@
       <c r="CI7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="CK7" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="CL7" s="1" t="s">
         <v>22</v>
       </c>
@@ -7462,6 +8692,9 @@
       <c r="CV7" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="CY7" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="CZ7" s="1" t="s">
         <v>22</v>
       </c>
@@ -7480,6 +8713,9 @@
       <c r="DG7" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="DL7" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="DN7" s="1" t="s">
         <v>22</v>
       </c>
@@ -7513,23 +8749,86 @@
       <c r="EQ7" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="ER7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="ES7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="ET7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="EU7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="EV7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="EW7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="FE7" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="FF7" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="FG7" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="FH7" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="FI7" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="FJ7" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="FL7" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="FM7" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="FN7" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="FU7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="GD7" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="GE7" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="GF7" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="GG7" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="GH7" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="GI7" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="GK7" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="GL7" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="GM7" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="GW7" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:207" x14ac:dyDescent="0.25">
       <c r="O8" s="1" t="s">
         <v>23</v>
       </c>
@@ -7590,55 +8889,10 @@
       <c r="AS8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AT8" s="1" t="s">
+      <c r="BE8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AV8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AX8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AZ8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BB8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BD8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BK8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BL8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BM8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BN8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BO8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BP8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BQ8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BR8" s="1" t="s">
+      <c r="BF8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="BS8" s="1" t="s">
@@ -7668,9 +8922,6 @@
       <c r="CI8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="CK8" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="CL8" s="1" t="s">
         <v>23</v>
       </c>
@@ -7692,6 +8943,9 @@
       <c r="CV8" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="CY8" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="CZ8" s="1" t="s">
         <v>23</v>
       </c>
@@ -7710,6 +8964,9 @@
       <c r="DG8" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="DL8" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="DN8" s="1" t="s">
         <v>23</v>
       </c>
@@ -7743,23 +9000,86 @@
       <c r="EQ8" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="E9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="ER8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="ES8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="ET8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="EU8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="EV8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="EW8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="FE8" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="FF8" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="FG8" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="FH8" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="FI8" t="s">
+        <v>333</v>
+      </c>
+      <c r="FJ8" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="FL8" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="FM8" t="s">
+        <v>352</v>
+      </c>
+      <c r="FN8" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="FU8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="GD8" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="GE8" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="GF8" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="GG8" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="GH8" t="s">
+        <v>378</v>
+      </c>
+      <c r="GI8" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="GK8" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="GL8" t="s">
+        <v>382</v>
+      </c>
+      <c r="GM8" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="GW8" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:207" x14ac:dyDescent="0.25">
       <c r="O9" s="1" t="s">
         <v>24</v>
       </c>
@@ -7820,55 +9140,10 @@
       <c r="AS9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AT9" s="1" t="s">
+      <c r="BE9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AV9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AX9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AZ9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BB9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BC9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>199</v>
-      </c>
-      <c r="BG9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BI9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BK9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BL9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BM9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BN9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BO9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BP9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BQ9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BR9" s="1" t="s">
+      <c r="BF9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="BS9" s="1" t="s">
@@ -7898,14 +9173,11 @@
       <c r="CI9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="CK9" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="CL9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="CM9" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="CP9" s="1" t="s">
         <v>24</v>
@@ -7922,6 +9194,9 @@
       <c r="CV9" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="CY9" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="CZ9" s="1" t="s">
         <v>24</v>
       </c>
@@ -7940,6 +9215,9 @@
       <c r="DG9" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="DL9" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="DN9" s="1" t="s">
         <v>24</v>
       </c>
@@ -7973,23 +9251,74 @@
       <c r="EQ9" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="E10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="ER9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="ES9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="ET9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="EU9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="EV9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="EW9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="FE9" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="FF9" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="FG9" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="FH9" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="FJ9" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="FL9" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="FN9" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="FU9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="GD9" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="GE9" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="GF9" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="GG9" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="GI9" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="GK9" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="GM9" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="GW9" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:207" x14ac:dyDescent="0.25">
       <c r="O10" s="1" t="s">
         <v>25</v>
       </c>
@@ -8050,52 +9379,10 @@
       <c r="AS10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AT10" s="1" t="s">
+      <c r="BE10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AV10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AX10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AZ10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>197</v>
-      </c>
-      <c r="BC10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BG10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BI10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BK10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BL10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BM10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BN10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BO10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BP10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BQ10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BR10" s="1" t="s">
+      <c r="BF10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="BS10" s="1" t="s">
@@ -8125,9 +9412,6 @@
       <c r="CI10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="CK10" t="s">
-        <v>231</v>
-      </c>
       <c r="CL10" s="1" t="s">
         <v>25</v>
       </c>
@@ -8146,6 +9430,9 @@
       <c r="CV10" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="CY10" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="CZ10" s="1" t="s">
         <v>25</v>
       </c>
@@ -8161,6 +9448,9 @@
       <c r="DG10" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="DL10" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="DN10" s="1" t="s">
         <v>25</v>
       </c>
@@ -8194,23 +9484,74 @@
       <c r="EQ10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>179</v>
-      </c>
-      <c r="G11" t="s">
-        <v>181</v>
-      </c>
-      <c r="I11" t="s">
-        <v>183</v>
-      </c>
-      <c r="K11" t="s">
-        <v>185</v>
-      </c>
-      <c r="M11" t="s">
-        <v>187</v>
-      </c>
+      <c r="ER10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="ES10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="ET10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="EU10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="EV10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="EW10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="FE10" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="FF10" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="FG10" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="FH10" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="FJ10" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="FL10" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="FN10" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="FU10" t="s">
+        <v>198</v>
+      </c>
+      <c r="GD10" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="GE10" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="GF10" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="GG10" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="GI10" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="GK10" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="GM10" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="GW10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:207" x14ac:dyDescent="0.25">
       <c r="O11" t="s">
         <v>26</v>
       </c>
@@ -8271,80 +9612,41 @@
       <c r="AS11" t="s">
         <v>146</v>
       </c>
-      <c r="AT11" t="s">
-        <v>189</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>191</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>193</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>195</v>
-      </c>
-      <c r="BC11" t="s">
-        <v>198</v>
-      </c>
-      <c r="BG11" t="s">
-        <v>202</v>
-      </c>
-      <c r="BI11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BK11" t="s">
-        <v>205</v>
-      </c>
-      <c r="BL11" t="s">
-        <v>206</v>
-      </c>
-      <c r="BM11" t="s">
-        <v>207</v>
-      </c>
-      <c r="BN11" t="s">
-        <v>208</v>
-      </c>
-      <c r="BO11" t="s">
-        <v>209</v>
-      </c>
-      <c r="BP11" t="s">
-        <v>210</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>211</v>
-      </c>
-      <c r="BR11" t="s">
-        <v>212</v>
+      <c r="BE11" t="s">
+        <v>273</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>274</v>
       </c>
       <c r="BS11" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="BU11" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="BW11" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="BY11" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="CA11" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="CC11" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="CE11" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="CG11" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="CI11" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="CL11" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="CP11" t="s">
         <v>50</v>
@@ -8361,6 +9663,9 @@
       <c r="CV11" t="s">
         <v>148</v>
       </c>
+      <c r="CY11" t="s">
+        <v>275</v>
+      </c>
       <c r="CZ11" t="s">
         <v>70</v>
       </c>
@@ -8376,266 +9681,690 @@
       <c r="DG11" t="s">
         <v>118</v>
       </c>
+      <c r="DL11" t="s">
+        <v>276</v>
+      </c>
       <c r="DN11" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="DP11" s="1" t="s">
         <v>83</v>
       </c>
       <c r="ED11" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="EE11" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="EF11" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="EG11" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="EH11" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="EI11" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="EJ11" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="EK11" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="BI12" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="ER11" t="s">
+        <v>277</v>
+      </c>
+      <c r="ES11" t="s">
+        <v>278</v>
+      </c>
+      <c r="ET11" t="s">
+        <v>279</v>
+      </c>
+      <c r="EU11" t="s">
+        <v>280</v>
+      </c>
+      <c r="EV11" t="s">
+        <v>281</v>
+      </c>
+      <c r="EW11" t="s">
+        <v>282</v>
+      </c>
+      <c r="FE11" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="FF11" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="FG11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="FH11" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="FJ11" t="s">
+        <v>340</v>
+      </c>
+      <c r="FL11" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="FN11" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="GD11" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="GE11" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="GF11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="GG11" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="GI11" t="s">
+        <v>379</v>
+      </c>
+      <c r="GK11" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="GM11" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:207" x14ac:dyDescent="0.25">
       <c r="DE12" s="1" t="s">
         <v>84</v>
       </c>
       <c r="DP12" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="13" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="BI13" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="FE12" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="FF12" t="s">
+        <v>315</v>
+      </c>
+      <c r="FG12" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="FH12" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="FL12" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="FN12" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="GD12" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="GE12" t="s">
+        <v>375</v>
+      </c>
+      <c r="GF12" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="GG12" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="GK12" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="GM12" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:207" x14ac:dyDescent="0.25">
       <c r="DE13" s="1" t="s">
         <v>85</v>
       </c>
       <c r="DP13" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="14" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="BI14" s="1" t="s">
-        <v>177</v>
-      </c>
+      <c r="FE13" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="FG13" t="s">
+        <v>322</v>
+      </c>
+      <c r="FH13" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="FL13" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="FN13" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="GD13" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="GF13" t="s">
+        <v>376</v>
+      </c>
+      <c r="GG13" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="GK13" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="GM13" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:207" x14ac:dyDescent="0.25">
       <c r="DE14" s="1" t="s">
         <v>177</v>
       </c>
       <c r="DP14" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="15" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="BI15" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="FE14" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="FH14" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="FL14" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="FN14" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="GD14" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="GG14" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="GK14" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="GM14" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:207" x14ac:dyDescent="0.25">
       <c r="DE15" s="1" t="s">
         <v>86</v>
       </c>
       <c r="DP15" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="16" spans="1:147" x14ac:dyDescent="0.25">
-      <c r="BI16" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="FE15" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="FH15" t="s">
+        <v>327</v>
+      </c>
+      <c r="FL15" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="FN15" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="GD15" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="GG15" t="s">
+        <v>377</v>
+      </c>
+      <c r="GK15" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="GM15" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:207" x14ac:dyDescent="0.25">
       <c r="DE16" s="1" t="s">
         <v>87</v>
       </c>
       <c r="DP16" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="17" spans="61:120" x14ac:dyDescent="0.25">
-      <c r="BI17" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="FE16" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="FL16" t="s">
+        <v>349</v>
+      </c>
+      <c r="FN16" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="GD16" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="GK16" t="s">
+        <v>381</v>
+      </c>
+      <c r="GM16" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="109:195" x14ac:dyDescent="0.25">
       <c r="DE17" s="1" t="s">
         <v>88</v>
       </c>
       <c r="DP17" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="18" spans="61:120" x14ac:dyDescent="0.25">
-      <c r="BI18" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="FE17" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="FN17" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="GD17" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="GM17" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="109:195" x14ac:dyDescent="0.25">
       <c r="DE18" s="1" t="s">
         <v>89</v>
       </c>
       <c r="DP18" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="19" spans="61:120" x14ac:dyDescent="0.25">
-      <c r="BI19" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="FE18" t="s">
+        <v>308</v>
+      </c>
+      <c r="FN18" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="GD18" t="s">
+        <v>374</v>
+      </c>
+      <c r="GM18" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="19" spans="109:195" x14ac:dyDescent="0.25">
       <c r="DE19" s="1" t="s">
         <v>90</v>
       </c>
       <c r="DP19" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="61:120" x14ac:dyDescent="0.25">
-      <c r="BI20" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="FN19" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="GM19" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="109:195" x14ac:dyDescent="0.25">
       <c r="DE20" s="1" t="s">
         <v>91</v>
       </c>
       <c r="DP20" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="21" spans="61:120" x14ac:dyDescent="0.25">
-      <c r="BI21" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="FN20" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="GM20" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="21" spans="109:195" x14ac:dyDescent="0.25">
       <c r="DE21" s="1" t="s">
         <v>92</v>
       </c>
       <c r="DP21" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="22" spans="61:120" x14ac:dyDescent="0.25">
-      <c r="BI22" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="FN21" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="GM21" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="109:195" x14ac:dyDescent="0.25">
       <c r="DE22" s="1" t="s">
         <v>93</v>
       </c>
       <c r="DP22" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="23" spans="61:120" x14ac:dyDescent="0.25">
-      <c r="BI23" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="FN22" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="GM22" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="109:195" x14ac:dyDescent="0.25">
       <c r="DE23" s="1" t="s">
         <v>94</v>
       </c>
       <c r="DP23" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="24" spans="61:120" x14ac:dyDescent="0.25">
-      <c r="BI24" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="FN23" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="GM23" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" spans="109:195" x14ac:dyDescent="0.25">
       <c r="DE24" s="1" t="s">
         <v>95</v>
       </c>
       <c r="DP24" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="25" spans="61:120" x14ac:dyDescent="0.25">
-      <c r="BI25" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="FN24" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="GM24" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25" spans="109:195" x14ac:dyDescent="0.25">
       <c r="DE25" s="1" t="s">
         <v>96</v>
       </c>
       <c r="DP25" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="26" spans="61:120" x14ac:dyDescent="0.25">
-      <c r="BI26" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="FN25" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="GM25" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="26" spans="109:195" x14ac:dyDescent="0.25">
       <c r="DE26" s="1" t="s">
         <v>97</v>
       </c>
       <c r="DP26" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="27" spans="61:120" x14ac:dyDescent="0.25">
-      <c r="BI27" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="FN26" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="GM26" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="27" spans="109:195" x14ac:dyDescent="0.25">
       <c r="DE27" s="1" t="s">
         <v>98</v>
       </c>
       <c r="DP27" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="28" spans="61:120" x14ac:dyDescent="0.25">
-      <c r="BI28" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="FN27" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="GM27" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="28" spans="109:195" x14ac:dyDescent="0.25">
       <c r="DE28" s="1" t="s">
         <v>99</v>
       </c>
       <c r="DP28" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="29" spans="61:120" x14ac:dyDescent="0.25">
-      <c r="BI29" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="FN28" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="GM28" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="29" spans="109:195" x14ac:dyDescent="0.25">
       <c r="DE29" s="1" t="s">
         <v>100</v>
       </c>
       <c r="DP29" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="61:120" x14ac:dyDescent="0.25">
-      <c r="BI30" s="1" t="s">
-        <v>101</v>
-      </c>
+      <c r="FN29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="GM29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="109:195" x14ac:dyDescent="0.25">
       <c r="DE30" s="1" t="s">
         <v>101</v>
       </c>
       <c r="DP30" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="31" spans="61:120" x14ac:dyDescent="0.25">
-      <c r="BI31" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="FN30" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="GM30" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="31" spans="109:195" x14ac:dyDescent="0.25">
       <c r="DE31" s="1" t="s">
         <v>102</v>
       </c>
       <c r="DP31" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="32" spans="61:120" x14ac:dyDescent="0.25">
-      <c r="BI32" t="s">
-        <v>200</v>
-      </c>
+      <c r="FN31" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="GM31" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="32" spans="109:195" x14ac:dyDescent="0.25">
       <c r="DE32" t="s">
         <v>103</v>
       </c>
       <c r="DP32" t="s">
-        <v>234</v>
+        <v>201</v>
+      </c>
+      <c r="FN32" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="GM32" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="33" spans="170:195" x14ac:dyDescent="0.25">
+      <c r="FN33" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="GM33" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="34" spans="170:195" x14ac:dyDescent="0.25">
+      <c r="FN34" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="GM34" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="35" spans="170:195" x14ac:dyDescent="0.25">
+      <c r="FN35" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="GM35" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="36" spans="170:195" x14ac:dyDescent="0.25">
+      <c r="FN36" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="GM36" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="37" spans="170:195" x14ac:dyDescent="0.25">
+      <c r="FN37" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="GM37" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="38" spans="170:195" x14ac:dyDescent="0.25">
+      <c r="FN38" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="GM38" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="39" spans="170:195" x14ac:dyDescent="0.25">
+      <c r="FN39" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="GM39" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="40" spans="170:195" x14ac:dyDescent="0.25">
+      <c r="FN40" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="GM40" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="41" spans="170:195" x14ac:dyDescent="0.25">
+      <c r="FN41" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="GM41" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="42" spans="170:195" x14ac:dyDescent="0.25">
+      <c r="FN42" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="GM42" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="43" spans="170:195" x14ac:dyDescent="0.25">
+      <c r="FN43" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="GM43" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="44" spans="170:195" x14ac:dyDescent="0.25">
+      <c r="FN44" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="GM44" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="45" spans="170:195" x14ac:dyDescent="0.25">
+      <c r="FN45" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="GM45" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="46" spans="170:195" x14ac:dyDescent="0.25">
+      <c r="FN46" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="GM46" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="47" spans="170:195" x14ac:dyDescent="0.25">
+      <c r="FN47" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="GM47" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="48" spans="170:195" x14ac:dyDescent="0.25">
+      <c r="FN48" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="GM48" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="49" spans="170:195" x14ac:dyDescent="0.25">
+      <c r="FN49" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="GM49" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="50" spans="170:195" x14ac:dyDescent="0.25">
+      <c r="FN50" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="GM50" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="51" spans="170:195" x14ac:dyDescent="0.25">
+      <c r="FN51" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="GM51" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="52" spans="170:195" x14ac:dyDescent="0.25">
+      <c r="FN52" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="GM52" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="53" spans="170:195" x14ac:dyDescent="0.25">
+      <c r="FN53" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="GM53" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="54" spans="170:195" x14ac:dyDescent="0.25">
+      <c r="FN54" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="GM54" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="55" spans="170:195" x14ac:dyDescent="0.25">
+      <c r="FN55" t="s">
+        <v>353</v>
+      </c>
+      <c r="GM55" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/docs/PM-1 Project Management/PM-1.4 Project Tracking/MTECH_Project_Management.xlsx
+++ b/trunk/docs/PM-1 Project Management/PM-1.4 Project Tracking/MTECH_Project_Management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="180" windowWidth="21075" windowHeight="9975" tabRatio="396" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="180" windowWidth="21075" windowHeight="9975" tabRatio="309"/>
   </bookViews>
   <sheets>
     <sheet name="1.Task" sheetId="1" r:id="rId1"/>
@@ -251,12 +251,11 @@
     <definedName name="VSTS_ValidationRange_fcb6fbf7e0b74bd1a92cfa55c055dd7f" hidden="1">VSTS_ValidationWS_1!$DB$1:$DB$8</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="382">
   <si>
     <t>ID</t>
   </si>
@@ -1635,6 +1634,39 @@
     <t>all_VSTS_9008c800_2551_458e_9040_a57c55b05a6f_System.IterationPath</t>
   </si>
   <si>
+    <t>To learn team site tool and start using it - updating tasks status via web</t>
+  </si>
+  <si>
+    <t>To Review the correctness of &lt;&lt;Include&gt;&gt; / &lt;&lt;Exclude&gt;&gt; in the UCMS</t>
+  </si>
+  <si>
+    <t>To Review All UCRR (Analysis)</t>
+  </si>
+  <si>
+    <t>To remove the clustering option on the High Level Architecture</t>
+  </si>
+  <si>
+    <t>To build a Access Control Framework to manage both granular security level</t>
+  </si>
+  <si>
+    <t>To Review DWR usage - vs. Dojo</t>
+  </si>
+  <si>
+    <t>VSTS_9008c800_2551_458e_9040_a57c55b05a6f_63-3D-6E-FD-05-A5-E3-0A-3D-3B-27-25-0E-09-89-A2-24-50-7D-FA</t>
+  </si>
+  <si>
+    <t>VSTS_9008c800_2551_458e_9040_a57c55b05a6f_50-5B-D0-C6-4D-02-A8-6F-40-65-26-EB-25-5E-77-D6-47-52-6D-6C</t>
+  </si>
+  <si>
+    <t>VSTS_9008c800_2551_458e_9040_a57c55b05a6f_9F-F6-0F-1C-08-6A-BA-DC-02-F0-E1-1F-9D-C4-DD-F3-E1-46-6F-4A</t>
+  </si>
+  <si>
+    <t>VSTS_9008c800_2551_458e_9040_a57c55b05a6f_F6-86-31-A3-47-27-76-CB-57-28-49-17-32-EB-97-93-07-11-CC-4D</t>
+  </si>
+  <si>
+    <t>VSTS_9008c800_2551_458e_9040_a57c55b05a6f_E4-CA-08-0D-C5-01-AB-82-96-6F-B8-39-E9-3E-EA-3F-57-42-86-2A</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Project: </t>
     </r>
@@ -1713,37 +1745,7 @@
     </r>
   </si>
   <si>
-    <t>To learn team site tool and start using it - updating tasks status via web</t>
-  </si>
-  <si>
-    <t>To Review the correctness of &lt;&lt;Include&gt;&gt; / &lt;&lt;Exclude&gt;&gt; in the UCMS</t>
-  </si>
-  <si>
-    <t>To Review All UCRR (Analysis)</t>
-  </si>
-  <si>
-    <t>To remove the clustering option on the High Level Architecture</t>
-  </si>
-  <si>
-    <t>To build a Access Control Framework to manage both granular security level</t>
-  </si>
-  <si>
-    <t>To Review DWR usage - vs. Dojo</t>
-  </si>
-  <si>
-    <t>VSTS_9008c800_2551_458e_9040_a57c55b05a6f_63-3D-6E-FD-05-A5-E3-0A-3D-3B-27-25-0E-09-89-A2-24-50-7D-FA</t>
-  </si>
-  <si>
-    <t>VSTS_9008c800_2551_458e_9040_a57c55b05a6f_50-5B-D0-C6-4D-02-A8-6F-40-65-26-EB-25-5E-77-D6-47-52-6D-6C</t>
-  </si>
-  <si>
-    <t>VSTS_9008c800_2551_458e_9040_a57c55b05a6f_9F-F6-0F-1C-08-6A-BA-DC-02-F0-E1-1F-9D-C4-DD-F3-E1-46-6F-4A</t>
-  </si>
-  <si>
-    <t>VSTS_9008c800_2551_458e_9040_a57c55b05a6f_F6-86-31-A3-47-27-76-CB-57-28-49-17-32-EB-97-93-07-11-CC-4D</t>
-  </si>
-  <si>
-    <t>VSTS_9008c800_2551_458e_9040_a57c55b05a6f_E4-CA-08-0D-C5-01-AB-82-96-6F-B8-39-E9-3E-EA-3F-57-42-86-2A</t>
+    <t>Looking for Actual User</t>
   </si>
 </sst>
 </file>
@@ -2293,11 +2295,12 @@
   <autoFilter ref="A2:Q45">
     <filterColumn colId="3">
       <filters>
-        <filter val="jifa"/>
+        <filter val="dio"/>
       </filters>
     </filterColumn>
     <filterColumn colId="7">
       <filters>
+        <filter val="Assigned"/>
         <filter val="In progress"/>
       </filters>
     </filterColumn>
@@ -2351,8 +2354,8 @@
     <tableColumn id="3" name="Title" dataDxfId="11"/>
     <tableColumn id="4" name="Assigned To" dataDxfId="10"/>
     <tableColumn id="5" name="State" dataDxfId="9"/>
-    <tableColumn id="6" name="Activated By" dataDxfId="7"/>
-    <tableColumn id="7" name="Area Path" dataDxfId="8"/>
+    <tableColumn id="6" name="Activated By" dataDxfId="8"/>
+    <tableColumn id="7" name="Area Path" dataDxfId="7"/>
     <tableColumn id="8" name="Iteration Path" dataDxfId="6"/>
     <tableColumn id="9" name="Reason" dataDxfId="5"/>
   </tableColumns>
@@ -2363,16 +2366,6 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="VSTS_9008c800_2551_458e_9040_a57c55b05a6f" displayName="VSTS_9008c800_2551_458e_9040_a57c55b05a6f" ref="A2:E56" totalsRowShown="0">
   <autoFilter ref="A2:E56">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Requirement"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="jifa"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="4">
       <filters>
         <filter val="Active"/>
@@ -2682,8 +2675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -2923,7 +2916,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="48" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>23</v>
       </c>
@@ -2971,7 +2964,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>28</v>
       </c>
@@ -3019,7 +3012,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="48" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>49</v>
       </c>
@@ -3067,7 +3060,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="24" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>29</v>
       </c>
@@ -3115,7 +3108,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>5</v>
       </c>
@@ -3163,7 +3156,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>35</v>
       </c>
@@ -3180,7 +3173,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>109</v>
+        <v>381</v>
       </c>
       <c r="G11" s="26" t="s">
         <v>203</v>
@@ -3785,7 +3778,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="48" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>51</v>
       </c>
@@ -3932,7 +3925,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>30</v>
       </c>
@@ -3980,7 +3973,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>31</v>
       </c>
@@ -4028,7 +4021,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>32</v>
       </c>
@@ -4632,16 +4625,16 @@
         <v>122</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I41" s="26"/>
       <c r="J41" s="11">
         <f ca="1">TODAY()</f>
-        <v>40777</v>
+        <v>40780</v>
       </c>
       <c r="K41" s="11">
         <f ca="1">TODAY()+7</f>
-        <v>40784</v>
+        <v>40787</v>
       </c>
       <c r="L41" s="9"/>
       <c r="M41" s="25"/>
@@ -4890,7 +4883,7 @@
       <c r="Q47" s="15"/>
     </row>
   </sheetData>
-  <dataValidations count="125">
+  <dataValidations count="41">
     <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A2">
       <formula1>"ID"</formula1>
     </dataValidation>
@@ -4942,82 +4935,43 @@
     <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="Q2">
       <formula1>"Work Item Type"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A13">
-      <formula1>"14"</formula1>
+    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A24">
+      <formula1>"51"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="B13">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="B24">
       <formula1>VSTS_ValidationRange_d0421e295028449ea4ead535aef9fb5f</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C13">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C24">
       <formula1>VSTS_ValidationRange_17216d7f6d414e559b091c8d936ccef1</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D13">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D24">
       <formula1>VSTS_ValidationRange_4a5b5789390c408ea3a578afcce0c9b1</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="E13">
+    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="E24">
       <formula1>VSTS_ValidationRange_f7c73e28c0284c96ae493299583c7ed0</formula1>
     </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="F13">
+    <dataValidation type="textLength" showInputMessage="1" sqref="F24">
       <formula1>1</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" sqref="G13">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" sqref="G24">
       <formula1>0</formula1>
       <formula2>32767</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="H13">
-      <formula1>VSTS_ValidationRange_261de98fc4444c0abd1470b53c5e6aad</formula1>
+    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="H24">
+      <formula1>VSTS_ValidationRange_9e9b90b25583430c8cfd2f6eda10174c</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" prompt="Type a comment here and publish to add a new history entry. After publishing this cell will be cleared." sqref="I13">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" prompt="Type a comment here and publish to add a new history entry. After publishing this cell will be cleared." sqref="I24">
       <formula1>0</formula1>
       <formula2>32767</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="L13">
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="L24">
       <formula1>" "</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="M13">
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="M24">
       <formula1>" "</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="Q13">
-      <formula1>"Task"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A6">
-      <formula1>"23"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="B6">
-      <formula1>VSTS_ValidationRange_d0421e295028449ea4ead535aef9fb5f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C6">
-      <formula1>VSTS_ValidationRange_17216d7f6d414e559b091c8d936ccef1</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D6">
-      <formula1>VSTS_ValidationRange_4a5b5789390c408ea3a578afcce0c9b1</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="E6">
-      <formula1>VSTS_ValidationRange_f7c73e28c0284c96ae493299583c7ed0</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="F6">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" sqref="G6">
-      <formula1>0</formula1>
-      <formula2>32767</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="H6">
-      <formula1>VSTS_ValidationRange_2ed1a31c494e4507ab5b97121ccb6d13</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" prompt="Type a comment here and publish to add a new history entry. After publishing this cell will be cleared." sqref="I6">
-      <formula1>0</formula1>
-      <formula2>32767</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="L6">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="M6">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="Q6">
+    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="Q24">
       <formula1>"Task"</formula1>
     </dataValidation>
     <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A8">
@@ -5059,240 +5013,6 @@
     <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="Q8">
       <formula1>"Task"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A9">
-      <formula1>"29"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="B9">
-      <formula1>VSTS_ValidationRange_d0421e295028449ea4ead535aef9fb5f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C9">
-      <formula1>VSTS_ValidationRange_17216d7f6d414e559b091c8d936ccef1</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D9">
-      <formula1>VSTS_ValidationRange_4a5b5789390c408ea3a578afcce0c9b1</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="E9">
-      <formula1>VSTS_ValidationRange_f7c73e28c0284c96ae493299583c7ed0</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="F9">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" sqref="G9">
-      <formula1>0</formula1>
-      <formula2>32767</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="H9">
-      <formula1>VSTS_ValidationRange_2ed1a31c494e4507ab5b97121ccb6d13</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" prompt="Type a comment here and publish to add a new history entry. After publishing this cell will be cleared." sqref="I9">
-      <formula1>0</formula1>
-      <formula2>32767</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="L9">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="M9">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="Q9">
-      <formula1>"Task"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A25">
-      <formula1>"21"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="B25">
-      <formula1>VSTS_ValidationRange_d0421e295028449ea4ead535aef9fb5f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C25">
-      <formula1>VSTS_ValidationRange_17216d7f6d414e559b091c8d936ccef1</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D25">
-      <formula1>VSTS_ValidationRange_4a5b5789390c408ea3a578afcce0c9b1</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="E25">
-      <formula1>VSTS_ValidationRange_f7c73e28c0284c96ae493299583c7ed0</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="F25">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" sqref="G25">
-      <formula1>0</formula1>
-      <formula2>32767</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="H25">
-      <formula1>VSTS_ValidationRange_2ed1a31c494e4507ab5b97121ccb6d13</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" prompt="Type a comment here and publish to add a new history entry. After publishing this cell will be cleared." sqref="I25">
-      <formula1>0</formula1>
-      <formula2>32767</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="L25">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="M25">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="Q25">
-      <formula1>"Task"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A7">
-      <formula1>"28"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="B7">
-      <formula1>VSTS_ValidationRange_d0421e295028449ea4ead535aef9fb5f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C7">
-      <formula1>VSTS_ValidationRange_17216d7f6d414e559b091c8d936ccef1</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D7">
-      <formula1>VSTS_ValidationRange_4a5b5789390c408ea3a578afcce0c9b1</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="E7">
-      <formula1>VSTS_ValidationRange_f7c73e28c0284c96ae493299583c7ed0</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="F7">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" sqref="G7">
-      <formula1>0</formula1>
-      <formula2>32767</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="H7">
-      <formula1>VSTS_ValidationRange_2ed1a31c494e4507ab5b97121ccb6d13</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" prompt="Type a comment here and publish to add a new history entry. After publishing this cell will be cleared." sqref="I7">
-      <formula1>0</formula1>
-      <formula2>32767</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="L7">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="M7">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="Q7">
-      <formula1>"Task"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A27">
-      <formula1>"30"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="B27">
-      <formula1>VSTS_ValidationRange_d0421e295028449ea4ead535aef9fb5f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C27">
-      <formula1>VSTS_ValidationRange_17216d7f6d414e559b091c8d936ccef1</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D27">
-      <formula1>VSTS_ValidationRange_4a5b5789390c408ea3a578afcce0c9b1</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="E27">
-      <formula1>VSTS_ValidationRange_f7c73e28c0284c96ae493299583c7ed0</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="F27">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" sqref="G27">
-      <formula1>0</formula1>
-      <formula2>32767</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="H27">
-      <formula1>VSTS_ValidationRange_2ed1a31c494e4507ab5b97121ccb6d13</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" prompt="Type a comment here and publish to add a new history entry. After publishing this cell will be cleared." sqref="I27">
-      <formula1>0</formula1>
-      <formula2>32767</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="L27">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="M27">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="Q27">
-      <formula1>"Task"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A28">
-      <formula1>"31"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="B28">
-      <formula1>VSTS_ValidationRange_d0421e295028449ea4ead535aef9fb5f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C28">
-      <formula1>VSTS_ValidationRange_17216d7f6d414e559b091c8d936ccef1</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D28">
-      <formula1>VSTS_ValidationRange_4a5b5789390c408ea3a578afcce0c9b1</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="E28">
-      <formula1>VSTS_ValidationRange_f7c73e28c0284c96ae493299583c7ed0</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="F28">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" sqref="G28">
-      <formula1>0</formula1>
-      <formula2>32767</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="H28">
-      <formula1>VSTS_ValidationRange_2ed1a31c494e4507ab5b97121ccb6d13</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" prompt="Type a comment here and publish to add a new history entry. After publishing this cell will be cleared." sqref="I28">
-      <formula1>0</formula1>
-      <formula2>32767</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="L28">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="M28">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="Q28">
-      <formula1>"Task"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A29">
-      <formula1>"32"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="B29">
-      <formula1>VSTS_ValidationRange_d0421e295028449ea4ead535aef9fb5f</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="C29">
-      <formula1>VSTS_ValidationRange_17216d7f6d414e559b091c8d936ccef1</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D29">
-      <formula1>VSTS_ValidationRange_4a5b5789390c408ea3a578afcce0c9b1</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="E29">
-      <formula1>VSTS_ValidationRange_f7c73e28c0284c96ae493299583c7ed0</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="F29">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" sqref="G29">
-      <formula1>0</formula1>
-      <formula2>32767</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="H29">
-      <formula1>VSTS_ValidationRange_2ed1a31c494e4507ab5b97121ccb6d13</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" prompt="Type a comment here and publish to add a new history entry. After publishing this cell will be cleared." sqref="I29">
-      <formula1>0</formula1>
-      <formula2>32767</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="L29">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="M29">
-      <formula1>" "</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="Q29">
-      <formula1>"Task"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6747,7 +6467,7 @@
         <v>18</v>
       </c>
       <c r="FE3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="FF3" s="1" t="s">
         <v>52</v>
@@ -7202,10 +6922,10 @@
         <v>30</v>
       </c>
       <c r="FG4" t="s">
+        <v>378</v>
+      </c>
+      <c r="FH4" t="s">
         <v>379</v>
-      </c>
-      <c r="FH4" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:164" x14ac:dyDescent="0.25">
@@ -7612,7 +7332,7 @@
         <v>20</v>
       </c>
       <c r="FF5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:164" x14ac:dyDescent="0.25">
@@ -9262,7 +8982,7 @@
         <v>83</v>
       </c>
       <c r="FD11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:164" x14ac:dyDescent="0.25">
@@ -10140,8 +9860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10149,13 +9869,13 @@
     <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="100.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -10247,7 +9967,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -10442,7 +10162,7 @@
         <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>23</v>
@@ -10485,7 +10205,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -10519,7 +10239,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -10553,7 +10273,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -10587,7 +10307,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -10604,7 +10324,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -10638,7 +10358,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -10655,7 +10375,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -10672,7 +10392,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -10689,7 +10409,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -10706,7 +10426,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -10723,7 +10443,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -10740,7 +10460,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -10757,7 +10477,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -10910,7 +10630,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -10918,7 +10638,7 @@
         <v>64</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>17</v>
@@ -10927,7 +10647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -10935,7 +10655,7 @@
         <v>64</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>23</v>
@@ -10944,7 +10664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -10952,7 +10672,7 @@
         <v>64</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>25</v>
@@ -10961,7 +10681,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -10969,7 +10689,7 @@
         <v>64</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>25</v>
@@ -10978,7 +10698,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -10986,7 +10706,7 @@
         <v>64</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>25</v>
@@ -10995,7 +10715,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -11012,7 +10732,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -11029,7 +10749,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -11046,7 +10766,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -11063,7 +10783,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -11080,7 +10800,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -11098,7 +10818,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="60">
+  <dataValidations count="10">
     <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A2">
       <formula1>"ID"</formula1>
     </dataValidation>
@@ -11114,180 +10834,20 @@
     <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="E2">
       <formula1>"State"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A3">
-      <formula1>"1"</formula1>
+    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A7">
+      <formula1>"5"</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="B3">
+    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="B7">
       <formula1>"Task"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="C3">
+    <dataValidation type="textLength" showInputMessage="1" sqref="C7">
       <formula1>1</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D3">
+    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D7">
       <formula1>VSTS_ValidationRange_ac1420697ca7412eb7f652d2664aee8b</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="E3">
-      <formula1>VSTS_ValidationRange_2a8adb1e5ac940cabd8cdce425c3420e</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A12">
-      <formula1>"10"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="B12">
-      <formula1>"Task"</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="C12">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D12">
-      <formula1>VSTS_ValidationRange_ac1420697ca7412eb7f652d2664aee8b</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="E12">
-      <formula1>VSTS_ValidationRange_2a8adb1e5ac940cabd8cdce425c3420e</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A34">
-      <formula1>"32"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="B34">
-      <formula1>"Task"</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="C34">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D34">
-      <formula1>VSTS_ValidationRange_ac1420697ca7412eb7f652d2664aee8b</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="E34">
-      <formula1>VSTS_ValidationRange_d9fe9cd3636a4ba0834b732486820c5a</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A54">
-      <formula1>"52"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="B54">
-      <formula1>"Bug"</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="C54">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D54">
-      <formula1>VSTS_ValidationRange_ac1420697ca7412eb7f652d2664aee8b</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="E54">
-      <formula1>VSTS_ValidationRange_3b7760c89edc40caae24021195783351</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A56">
-      <formula1>"54"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="B56">
-      <formula1>"Test Case"</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="C56">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D56">
-      <formula1>VSTS_ValidationRange_ac1420697ca7412eb7f652d2664aee8b</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="E56">
-      <formula1>VSTS_ValidationRange_99bd8c0c9ae34798879379782724c2ed</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A5">
-      <formula1>"3"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="B5">
-      <formula1>"Task"</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="C5">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D5">
-      <formula1>VSTS_ValidationRange_ac1420697ca7412eb7f652d2664aee8b</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="E5">
-      <formula1>VSTS_ValidationRange_2a8adb1e5ac940cabd8cdce425c3420e</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A21">
-      <formula1>"19"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="B21">
-      <formula1>"Task"</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="C21">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D21">
-      <formula1>VSTS_ValidationRange_ac1420697ca7412eb7f652d2664aee8b</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="E21">
-      <formula1>VSTS_ValidationRange_d9fe9cd3636a4ba0834b732486820c5a</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A25">
-      <formula1>"23"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="B25">
-      <formula1>"Task"</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="C25">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D25">
-      <formula1>VSTS_ValidationRange_ac1420697ca7412eb7f652d2664aee8b</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="E25">
-      <formula1>VSTS_ValidationRange_d9fe9cd3636a4ba0834b732486820c5a</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A30">
-      <formula1>"28"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="B30">
-      <formula1>"Task"</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="C30">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D30">
-      <formula1>VSTS_ValidationRange_ac1420697ca7412eb7f652d2664aee8b</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="E30">
-      <formula1>VSTS_ValidationRange_d9fe9cd3636a4ba0834b732486820c5a</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A32">
-      <formula1>"30"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="B32">
-      <formula1>"Task"</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="C32">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D32">
-      <formula1>VSTS_ValidationRange_ac1420697ca7412eb7f652d2664aee8b</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="E32">
-      <formula1>VSTS_ValidationRange_d9fe9cd3636a4ba0834b732486820c5a</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="A35">
-      <formula1>"33"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Read-only column" error="TF84013: You cannot modify a field that is read-only or a work item that restricts updates to valid users based on current permissions." prompt="Read-only" sqref="B35">
-      <formula1>"Task"</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" sqref="C35">
-      <formula1>1</formula1>
-      <formula2>255</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="D35">
-      <formula1>VSTS_ValidationRange_ac1420697ca7412eb7f652d2664aee8b</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="E35">
+    <dataValidation type="list" operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="Microsoft Excel" error="TF84042: The value you entered is not supported in this field. Select a supported value from the list." sqref="E7">
       <formula1>VSTS_ValidationRange_d9fe9cd3636a4ba0834b732486820c5a</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/docs/PM-1 Project Management/PM-1.4 Project Tracking/MTECH_Project_Management.xlsx
+++ b/trunk/docs/PM-1 Project Management/PM-1.4 Project Tracking/MTECH_Project_Management.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="180" windowWidth="21075" windowHeight="9975" tabRatio="309"/>
+    <workbookView xWindow="240" yWindow="180" windowWidth="25720" windowHeight="14120" tabRatio="309" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1.Task" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="2.Bug" sheetId="5" r:id="rId3"/>
     <sheet name="3. Test case" sheetId="6" r:id="rId4"/>
     <sheet name="4. All work items" sheetId="8" r:id="rId5"/>
+    <sheet name="5. Pending" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="VSTS_9008c800_2551_458e_9040_a57c55b05a6f_1" hidden="1">'4. All work items'!$C$2:$C$56</definedName>
@@ -250,7 +251,12 @@
     <definedName name="VSTS_ValidationRange_f88af5906366422d85135d86c6db8557" hidden="1">VSTS_ValidationWS_1!$BX$1:$BX$10</definedName>
     <definedName name="VSTS_ValidationRange_fcb6fbf7e0b74bd1a92cfa55c055dd7f" hidden="1">VSTS_ValidationWS_1!$DB$1:$DB$8</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1756,7 +1762,7 @@
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yy\ h:mm\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[$-409]d/mmm/yy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1783,13 +1789,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1920,7 +1919,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2675,33 +2674,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="42.28515625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" style="11" customWidth="1"/>
     <col min="7" max="7" width="46" style="10" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="24" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="24" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="24" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="10" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" style="10" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" style="10" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" style="10" customWidth="1"/>
-    <col min="16" max="16" width="20.85546875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" style="10" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="10"/>
+    <col min="8" max="8" width="9.6640625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" style="24" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="24" customWidth="1"/>
+    <col min="12" max="12" width="14.5" style="10" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="20.83203125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="20.5" style="10" customWidth="1"/>
+    <col min="16" max="16" width="20.83203125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="17.5" style="10" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="8" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="8" customFormat="1" ht="44" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>174</v>
       </c>
@@ -2722,7 +2721,7 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
     </row>
-    <row r="2" spans="1:17" s="33" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="33" customFormat="1" ht="22.5" customHeight="1">
       <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
@@ -2775,7 +2774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="72" hidden="1">
       <c r="A3" s="17">
         <v>1</v>
       </c>
@@ -2822,7 +2821,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" hidden="1">
       <c r="A4" s="17">
         <v>2</v>
       </c>
@@ -2869,7 +2868,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" hidden="1">
       <c r="A5" s="17">
         <v>3</v>
       </c>
@@ -2916,7 +2915,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="48">
       <c r="A6" s="17">
         <v>23</v>
       </c>
@@ -2964,7 +2963,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="60">
       <c r="A7" s="17">
         <v>28</v>
       </c>
@@ -3012,7 +3011,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="48">
       <c r="A8" s="17">
         <v>49</v>
       </c>
@@ -3060,7 +3059,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="24">
       <c r="A9" s="17">
         <v>29</v>
       </c>
@@ -3108,7 +3107,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="17">
         <v>5</v>
       </c>
@@ -3156,7 +3155,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="17">
         <v>35</v>
       </c>
@@ -3204,7 +3203,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="24" hidden="1">
       <c r="A12" s="17">
         <v>10</v>
       </c>
@@ -3253,7 +3252,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="60" hidden="1">
       <c r="A13" s="17">
         <v>14</v>
       </c>
@@ -3300,7 +3299,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="72" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="60" hidden="1">
       <c r="A14" s="17">
         <v>15</v>
       </c>
@@ -3347,7 +3346,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="24" hidden="1">
       <c r="A15" s="17">
         <v>17</v>
       </c>
@@ -3398,7 +3397,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" hidden="1">
       <c r="A16" s="17">
         <v>18</v>
       </c>
@@ -3449,7 +3448,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="48" hidden="1">
       <c r="A17" s="17">
         <v>20</v>
       </c>
@@ -3496,7 +3495,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="24" hidden="1">
       <c r="A18" s="17">
         <v>27</v>
       </c>
@@ -3543,7 +3542,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="24" hidden="1">
       <c r="A19" s="17">
         <v>36</v>
       </c>
@@ -3590,7 +3589,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="24" hidden="1">
       <c r="A20" s="17">
         <v>37</v>
       </c>
@@ -3637,7 +3636,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="24" hidden="1">
       <c r="A21" s="17">
         <v>38</v>
       </c>
@@ -3684,7 +3683,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="24" hidden="1">
       <c r="A22" s="17">
         <v>40</v>
       </c>
@@ -3731,7 +3730,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" hidden="1">
       <c r="A23" s="17">
         <v>42</v>
       </c>
@@ -3778,7 +3777,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="48">
       <c r="A24" s="20">
         <v>51</v>
       </c>
@@ -3825,7 +3824,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="108" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="96" hidden="1">
       <c r="A25" s="17">
         <v>21</v>
       </c>
@@ -3873,7 +3872,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="24" hidden="1">
       <c r="A26" s="17">
         <v>4</v>
       </c>
@@ -3925,7 +3924,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" hidden="1">
       <c r="A27" s="17">
         <v>30</v>
       </c>
@@ -3973,7 +3972,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" hidden="1">
       <c r="A28" s="17">
         <v>31</v>
       </c>
@@ -4021,7 +4020,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="36" hidden="1">
       <c r="A29" s="17">
         <v>32</v>
       </c>
@@ -4069,7 +4068,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="24" hidden="1">
       <c r="A30" s="17">
         <v>11</v>
       </c>
@@ -4120,7 +4119,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="24" hidden="1">
       <c r="A31" s="17">
         <v>39</v>
       </c>
@@ -4172,7 +4171,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="24" hidden="1">
       <c r="A32" s="17">
         <v>25</v>
       </c>
@@ -4220,7 +4219,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" hidden="1">
       <c r="A33" s="17">
         <v>34</v>
       </c>
@@ -4268,7 +4267,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="24" hidden="1">
       <c r="A34" s="17">
         <v>7</v>
       </c>
@@ -4313,7 +4312,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="24" hidden="1">
       <c r="A35" s="17">
         <v>13</v>
       </c>
@@ -4360,7 +4359,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="36" hidden="1">
       <c r="A36" s="17">
         <v>19</v>
       </c>
@@ -4408,7 +4407,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="24" hidden="1">
       <c r="A37" s="17">
         <v>26</v>
       </c>
@@ -4456,7 +4455,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="132" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="132" hidden="1">
       <c r="A38" s="17">
         <v>22</v>
       </c>
@@ -4503,7 +4502,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" hidden="1">
       <c r="A39" s="17">
         <v>33</v>
       </c>
@@ -4551,7 +4550,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" hidden="1">
       <c r="A40" s="17">
         <v>24</v>
       </c>
@@ -4602,7 +4601,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="24" hidden="1">
       <c r="A41" s="17">
         <v>50</v>
       </c>
@@ -4630,11 +4629,11 @@
       <c r="I41" s="26"/>
       <c r="J41" s="11">
         <f ca="1">TODAY()</f>
-        <v>40780</v>
+        <v>40804</v>
       </c>
       <c r="K41" s="11">
         <f ca="1">TODAY()+7</f>
-        <v>40787</v>
+        <v>40811</v>
       </c>
       <c r="L41" s="9"/>
       <c r="M41" s="25"/>
@@ -4652,7 +4651,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="36" hidden="1">
       <c r="A42" s="17">
         <v>6</v>
       </c>
@@ -4699,7 +4698,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="24" hidden="1">
       <c r="A43" s="17">
         <v>8</v>
       </c>
@@ -4750,7 +4749,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="24" hidden="1">
       <c r="A44" s="17">
         <v>9</v>
       </c>
@@ -4797,7 +4796,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" hidden="1">
       <c r="A45" s="17">
         <v>12</v>
       </c>
@@ -4844,7 +4843,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -4863,7 +4862,7 @@
       <c r="P46" s="15"/>
       <c r="Q46" s="15"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -5015,10 +5014,15 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5028,12 +5032,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="4" width="200.7109375" customWidth="1"/>
+    <col min="1" max="4" width="200.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:164" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:164">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -5521,7 +5525,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:164" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:164">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -6009,7 +6013,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:164" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:164">
       <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
@@ -6479,7 +6483,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:164" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:164">
       <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
@@ -6928,7 +6932,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="5" spans="1:164" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:164">
       <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
@@ -7335,7 +7339,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="6" spans="1:164" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:164">
       <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
@@ -7622,7 +7626,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:164" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:164">
       <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
@@ -7906,7 +7910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:164" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:164">
       <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
@@ -8190,7 +8194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:164" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:164">
       <c r="E9" s="1" t="s">
         <v>24</v>
       </c>
@@ -8468,7 +8472,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:164" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:164">
       <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
@@ -8734,7 +8738,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:164" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:164">
       <c r="E11" t="s">
         <v>268</v>
       </c>
@@ -8985,7 +8989,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="12" spans="1:164" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:164">
       <c r="BE12" s="1" t="s">
         <v>84</v>
       </c>
@@ -9017,7 +9021,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:164" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:164">
       <c r="BE13" s="1" t="s">
         <v>85</v>
       </c>
@@ -9046,7 +9050,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:164" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:164">
       <c r="BE14" s="1" t="s">
         <v>177</v>
       </c>
@@ -9072,7 +9076,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:164" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:164">
       <c r="BE15" s="1" t="s">
         <v>86</v>
       </c>
@@ -9098,7 +9102,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:164" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:164">
       <c r="BE16" s="1" t="s">
         <v>87</v>
       </c>
@@ -9121,7 +9125,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="57:158" x14ac:dyDescent="0.25">
+    <row r="17" spans="57:158">
       <c r="BE17" s="1" t="s">
         <v>88</v>
       </c>
@@ -9141,7 +9145,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="57:158" x14ac:dyDescent="0.25">
+    <row r="18" spans="57:158">
       <c r="BE18" s="1" t="s">
         <v>89</v>
       </c>
@@ -9161,7 +9165,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="57:158" x14ac:dyDescent="0.25">
+    <row r="19" spans="57:158">
       <c r="BE19" s="1" t="s">
         <v>90</v>
       </c>
@@ -9178,7 +9182,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="57:158" x14ac:dyDescent="0.25">
+    <row r="20" spans="57:158">
       <c r="BE20" s="1" t="s">
         <v>91</v>
       </c>
@@ -9195,7 +9199,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="57:158" x14ac:dyDescent="0.25">
+    <row r="21" spans="57:158">
       <c r="BE21" s="1" t="s">
         <v>92</v>
       </c>
@@ -9212,7 +9216,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="57:158" x14ac:dyDescent="0.25">
+    <row r="22" spans="57:158">
       <c r="BE22" s="1" t="s">
         <v>93</v>
       </c>
@@ -9229,7 +9233,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="57:158" x14ac:dyDescent="0.25">
+    <row r="23" spans="57:158">
       <c r="BE23" s="1" t="s">
         <v>94</v>
       </c>
@@ -9246,7 +9250,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="57:158" x14ac:dyDescent="0.25">
+    <row r="24" spans="57:158">
       <c r="BE24" s="1" t="s">
         <v>95</v>
       </c>
@@ -9263,7 +9267,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="57:158" x14ac:dyDescent="0.25">
+    <row r="25" spans="57:158">
       <c r="BE25" s="1" t="s">
         <v>96</v>
       </c>
@@ -9280,7 +9284,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="57:158" x14ac:dyDescent="0.25">
+    <row r="26" spans="57:158">
       <c r="BE26" s="1" t="s">
         <v>97</v>
       </c>
@@ -9297,7 +9301,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="57:158" x14ac:dyDescent="0.25">
+    <row r="27" spans="57:158">
       <c r="BE27" s="1" t="s">
         <v>98</v>
       </c>
@@ -9314,7 +9318,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="57:158" x14ac:dyDescent="0.25">
+    <row r="28" spans="57:158">
       <c r="BE28" s="1" t="s">
         <v>99</v>
       </c>
@@ -9331,7 +9335,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="57:158" x14ac:dyDescent="0.25">
+    <row r="29" spans="57:158">
       <c r="BE29" s="1" t="s">
         <v>100</v>
       </c>
@@ -9348,7 +9352,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="57:158" x14ac:dyDescent="0.25">
+    <row r="30" spans="57:158">
       <c r="BE30" s="1" t="s">
         <v>101</v>
       </c>
@@ -9365,7 +9369,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="57:158" x14ac:dyDescent="0.25">
+    <row r="31" spans="57:158">
       <c r="BE31" s="1" t="s">
         <v>102</v>
       </c>
@@ -9382,7 +9386,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="57:158" x14ac:dyDescent="0.25">
+    <row r="32" spans="57:158">
       <c r="BE32" t="s">
         <v>289</v>
       </c>
@@ -9399,123 +9403,128 @@
         <v>367</v>
       </c>
     </row>
-    <row r="33" spans="132:132" x14ac:dyDescent="0.25">
+    <row r="33" spans="132:132">
       <c r="EB33" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="34" spans="132:132" x14ac:dyDescent="0.25">
+    <row r="34" spans="132:132">
       <c r="EB34" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="35" spans="132:132" x14ac:dyDescent="0.25">
+    <row r="35" spans="132:132">
       <c r="EB35" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="36" spans="132:132" x14ac:dyDescent="0.25">
+    <row r="36" spans="132:132">
       <c r="EB36" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="37" spans="132:132" x14ac:dyDescent="0.25">
+    <row r="37" spans="132:132">
       <c r="EB37" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="38" spans="132:132" x14ac:dyDescent="0.25">
+    <row r="38" spans="132:132">
       <c r="EB38" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="132:132" x14ac:dyDescent="0.25">
+    <row r="39" spans="132:132">
       <c r="EB39" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="132:132" x14ac:dyDescent="0.25">
+    <row r="40" spans="132:132">
       <c r="EB40" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="41" spans="132:132" x14ac:dyDescent="0.25">
+    <row r="41" spans="132:132">
       <c r="EB41" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="42" spans="132:132" x14ac:dyDescent="0.25">
+    <row r="42" spans="132:132">
       <c r="EB42" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="43" spans="132:132" x14ac:dyDescent="0.25">
+    <row r="43" spans="132:132">
       <c r="EB43" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="44" spans="132:132" x14ac:dyDescent="0.25">
+    <row r="44" spans="132:132">
       <c r="EB44" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="45" spans="132:132" x14ac:dyDescent="0.25">
+    <row r="45" spans="132:132">
       <c r="EB45" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="46" spans="132:132" x14ac:dyDescent="0.25">
+    <row r="46" spans="132:132">
       <c r="EB46" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="47" spans="132:132" x14ac:dyDescent="0.25">
+    <row r="47" spans="132:132">
       <c r="EB47" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="48" spans="132:132" x14ac:dyDescent="0.25">
+    <row r="48" spans="132:132">
       <c r="EB48" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="49" spans="132:132" x14ac:dyDescent="0.25">
+    <row r="49" spans="132:132">
       <c r="EB49" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="50" spans="132:132" x14ac:dyDescent="0.25">
+    <row r="50" spans="132:132">
       <c r="EB50" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="51" spans="132:132" x14ac:dyDescent="0.25">
+    <row r="51" spans="132:132">
       <c r="EB51" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="52" spans="132:132" x14ac:dyDescent="0.25">
+    <row r="52" spans="132:132">
       <c r="EB52" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="53" spans="132:132" x14ac:dyDescent="0.25">
+    <row r="53" spans="132:132">
       <c r="EB53" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="54" spans="132:132" x14ac:dyDescent="0.25">
+    <row r="54" spans="132:132">
       <c r="EB54" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="132:132" x14ac:dyDescent="0.25">
+    <row r="55" spans="132:132">
       <c r="EB55" t="s">
         <v>341</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9523,20 +9532,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" customHeight="1">
       <c r="A1" s="34" t="s">
         <v>291</v>
       </c>
@@ -9545,7 +9554,7 @@
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -9562,7 +9571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>41</v>
       </c>
@@ -9579,7 +9588,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>43</v>
       </c>
@@ -9596,7 +9605,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>52</v>
       </c>
@@ -9667,6 +9676,11 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9674,24 +9688,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="30" customHeight="1">
       <c r="A1" s="34" t="s">
         <v>343</v>
       </c>
@@ -9704,7 +9718,7 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -9733,7 +9747,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="2">
         <v>53</v>
       </c>
@@ -9762,7 +9776,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>54</v>
       </c>
@@ -9853,6 +9867,11 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9860,20 +9879,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="100.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="100.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" customHeight="1">
       <c r="A1" s="34" t="s">
         <v>380</v>
       </c>
@@ -9882,7 +9901,7 @@
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -9899,7 +9918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -9916,7 +9935,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -9933,7 +9952,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -9950,7 +9969,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -9967,7 +9986,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -9984,7 +10003,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -10001,7 +10020,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -10018,7 +10037,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -10035,7 +10054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -10052,7 +10071,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -10069,7 +10088,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -10086,7 +10105,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -10103,7 +10122,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -10120,7 +10139,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -10137,7 +10156,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -10154,7 +10173,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -10171,7 +10190,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -10188,7 +10207,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -10205,7 +10224,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -10222,7 +10241,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -10239,7 +10258,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -10256,7 +10275,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -10273,7 +10292,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -10290,7 +10309,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -10307,7 +10326,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -10324,7 +10343,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -10341,7 +10360,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -10358,7 +10377,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -10375,7 +10394,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -10392,7 +10411,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -10409,7 +10428,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -10426,7 +10445,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="28">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -10443,7 +10462,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -10460,7 +10479,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -10477,7 +10496,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -10494,7 +10513,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -10511,7 +10530,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -10528,7 +10547,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="28" hidden="1">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -10545,7 +10564,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="28" hidden="1">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -10562,7 +10581,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="28" hidden="1">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -10579,7 +10598,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -10596,7 +10615,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -10613,7 +10632,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -10630,7 +10649,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -10647,7 +10666,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -10664,7 +10683,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -10681,7 +10700,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -10698,7 +10717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -10715,7 +10734,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -10732,7 +10751,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -10749,7 +10768,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -10766,7 +10785,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -10783,7 +10802,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -10800,7 +10819,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -10855,5 +10874,27 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>